--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD0B638-81B4-42A6-B8EB-F46FB63D636D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="公共政策与政策工具" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="186">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -279,29 +285,404 @@
     <t>从【产业革命】到【20世纪前】半期【西方国家】的政策研究</t>
   </si>
   <si>
+    <t>亚当斯密</t>
+  </si>
+  <si>
+    <t>克里斯韦伯</t>
+  </si>
+  <si>
+    <t>【20世纪】前半期学科孕育的历史条件</t>
+  </si>
+  <si>
+    <t>【三论】的产生（公共政策学产生的方法论基础）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>【18~19世纪】【西方】国家的政策研究</t>
-  </si>
-  <si>
-    <t>亚当斯密</t>
-  </si>
-  <si>
-    <t>克里斯韦伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【20世纪】前半期学科孕育的历史条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【系统论】（贝塔朗菲）——系统方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【信息论】（申农）——信息方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【控制论】（维纳）——反馈方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策科学的【行程】（丰富了研究手段和方法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙：管理行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳什：纳什均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【凯恩斯】主义的出台与政府政策领域的扩大（为公共政策学提供了现实需求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为科学的【行程】和【行为】主义政治学的【进展】（公共政策学产生的催化剂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么学习公共政策学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政治角度】【改进政策系统】，【提高政策质量】。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【生活角度】理解公共政策，【保护自身利益】和【公共利益】，提出政策建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【科学角度】【推动学科研究】的公共政策取向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【侧重】于政策【主体】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【艾斯顿】：公共政策是【政府】机构和周围【环境】之间的【关系】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【戴伊】：公共政策是一个【政府选择】要【做的任何事】，或他选择【不做任何事】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【侧重】于政策【方案】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【拉斯韦尔】【卡普兰】：公共政策是一种含【有目标】，【价值】与【策略】的大型【计划】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【侧重】于政策【结果】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【伊斯顿】：公共政策是【社会价值】的【权威性分配】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【倾向】于【综合】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【张马金】【克鲁斯克】：公共政策是【党和政】府用以【规范，引导】有关【机构，团体和个人】行动的【准则或指南】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策内涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有【决定】，【决策】，【对策】，【政策】的一般特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共权力机关】的【权力意志】的【表现】，具有【权威性】和【强制性】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主导政策过程的【基轴是】【公共权力机关】与【公民的关系】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三大要素：公共【问题】，公共【目标】，公共【利益】是【灵魂和目的】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种权威性价值分配方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式上【可以是积极】的，也【可以是消极】的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共权力机关】经由政治过程所【选择和指定】的为【解决公共问题】，【达成公共目标】，以实现公共利益的【方案】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策代表性定义类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的产生（三要素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共【问题】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共【决策机关】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共【强制机构】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在政策问题行程过程中，【公民参与】的作用越来越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策需体现【主权在民】原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策【内容日益丰富】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策质量越来越取决于政策过程的【科学化】，【民主化】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导和规范政府政策行为的理论和方法，举例：公民在法律面前一律平等【宪法】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按政策内容社会性不同的分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教科文政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标数量不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有/无行程的规范】和原则可循</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【程序性】政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【非程序性】政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【是否改变政策客体】【安德森】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物质性（实质性）政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号性（象征性）政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策协调】社会【生活方式】【安德森】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【分配】性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【调节】性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【自我调节】性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【在分配】政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否改变客观对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实质性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再分配性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西奥多洛维政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零和博弈政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非零和博弈政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策属于【始创】还是【调整】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策结果的【可预测性】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【确定性】政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不确定】型政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【风险】型政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【竞争】型政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策主体期望人们【行为】的范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【积极】性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【消极】性政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策主体对政策问题发展所做的【预测】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【能动】型政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【被动】型政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从内容特征上来划分：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从形式上来划分：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从横向形式划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家元首决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行党政决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,152 +691,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -464,206 +700,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -671,251 +728,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -923,68 +738,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1271,511 +1042,1011 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B70" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
-      <c r="B95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
-      <c r="C96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C96" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="B98" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B98" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
-      <c r="C99" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C99" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B100" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C104" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
-      <c r="C104" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C105" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
-      <c r="C105" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B109" s="2" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C110" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C111" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C112" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B113" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C114" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C115" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B116" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B117" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B121" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B122" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B104" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD0B638-81B4-42A6-B8EB-F46FB63D636D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BFF8B5-7C5B-467F-A20D-F9AA0A337333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -675,6 +675,22 @@
   </si>
   <si>
     <t>执行党政决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代中国的行政决策几种形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政法规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政措施，决定和命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门规章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1590,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2028,6 +2044,26 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" s="2" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B107" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BFF8B5-7C5B-467F-A20D-F9AA0A337333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250CB1A1-2A3F-497B-8A54-4FBEA6A885C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="291">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -42,9 +43,6 @@
     <t>政策分析的如下内涵</t>
   </si>
   <si>
-    <t>【研究的主体或者政策分析者】是应用取向的政府机构和其他公共组织内部的【专业人员】，以及【民间智库的政策研究人员】</t>
-  </si>
-  <si>
     <t>【研究活动关注的重点】活研究范围是【为了政策而分析】</t>
   </si>
   <si>
@@ -650,14 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从形式上来划分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从横向形式划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立法决策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,6 +681,422 @@
   </si>
   <si>
     <t>部门规章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是指国家行政机关在法定的权力和只能范围内，按一定程序和方法做出的决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策从横向形式划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策从形式上来划分：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总统领导下的行政机构分为四类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立管理机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他独立机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国司法决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现行宪法规定人民法院，人民检察院，独立行使司法权力，不受行政机关，社会团体和个人干涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国法律机关参与与立法过程的情况是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高人民法院可负责【起草】与司法审判有关的法律草案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高人民检察院负责起草与检查工作相关的法律草案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国司法机关在法律事实过程中做出的适用法律的决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律解释是在法律事实过程中具体的解释法律内容的一种特殊的活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国的司法决策主要形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法审查，最高法院能够裁决过会已经通过的某项法律不符合宪法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推翻先前的裁决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法命令，规定纠正不公正情况的办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策权利横向种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由【政治体制决定】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民代表大会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总统制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>议会制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策【横向形式构成】的主要【差别】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否【是元首决策】？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是【司法决策】？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执政党的政策能否【直接成为公共决策】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中央】决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地方】决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【基层】决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国纵向政策类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共【政策】与【法】共同点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是【国家意志】的体现，其权威性源于国家合法的拥有强制力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是【调整人的行为（社会关系）的规范】，具有指引，评价，教育，预测，强制作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有【相同的文本】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定和执行【主体相同】（公共权力机关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定【程序相同】（法制国家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧重点不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策与法的差异：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策：【强制】按规则进行【价值分配】和资源配置，政策强调可行为性（要做什么，怎么做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法：强调就差，【矫正】【价值分配】和资源配置中的违规行为，法强调对不可行之行为的可诉讼性（不能做什么，做了会怎么样）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策执行者主要是行动机关（积极权利）【积极有为】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法执行者主要是司法机关（消息权利）【不告不理】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利和义务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】对象的【权利和义务】【未必对称】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【法】是【权利和义务】的【统一】体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策执行强调精神优于条文，实质重于形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法的适用性强调统一，法律条文优于精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否动用国家强制力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策执行如无法律依据，一般【不直接动用国家强制力】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执法一般【直接动用国家强制力】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性，连续性相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与法相比，政策更灵活，能更快的应对形式变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干预范围相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与法相比，政策干预的范围更大，更深入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策和法的相互关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】是【法】的【来源和动力】，对法的制定和执行具有【方向指导作用】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【法】作为【政策】提【供保障】，定型化为法律的政策具有更强的稳定性和连续性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的【基本功能】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管制功能（通过政策对象【不做什么】（禁止）来【达成政策目标】）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导功能（为人民的观念和行为确定方向，正向/负向引导）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调控功能（调节控制的是利益和冲突）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配功能（分配的【对象】是【社会价值或利益】。分配【依据】的是社会【公正原则】）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】与【理论】关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【理论】是【政策】的【理念】依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】是【理论】的【具体化】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【理论和政策】同属【观念形态】，存在和发展都【依赖】社会【实践】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】与【实践】关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策只有【通过实践】才能【实现其目标和功能】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策的【社会本质】：【公共性】与【偏好性】的统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定的【目标】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会【资源】配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策主体为一定的政策目标的实现而进行的人财物资源的调配与组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为政策成本的社会资源投入后，随着政策目标的实现而获取的政策收益在不同的社会群体间的分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策是【公共权力机关】为着【一定的目标】而进行的【社会资源的配置】和【社会价值的分配】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共权力的个人和群体从他们理解的公共利益出发所界定的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共性：权利，问题，利益的公共性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好性：政府自利性，有限理性，资源约束下的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的【基本特征】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政治性】，【权威性】，【强制性】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共性】与【偏好性】的【统一】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【应然】和【实然】的【统一】（当下-&gt;未来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【回应性】与【普遍性】的【统一】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是政策工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为【实现】一定政策【目标】【采区】的【措施，策略，行动作为】以及【配置】的【人力，资金，设备，资源】等【手段】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子：降低存款利率能拉动内需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策工具的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自愿性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【研究的主体或者政策分析者】是应用取向的【政府机构】和其他公共组织内部的【专业人员】，以及【民间智库的政策研究人员】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1108,493 +1514,493 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C99" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C104" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C105" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C110" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C111" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C112" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C114" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C115" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B120" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B121" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B122" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1606,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1620,450 +2026,963 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B103" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B104" s="2" t="s">
-        <v>185</v>
+      <c r="A104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>186</v>
+      <c r="B106" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B110" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B111" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B112" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B113" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B114" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B117" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B108" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B109" s="2" t="s">
-        <v>189</v>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B121" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B122" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B125" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B126" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B127" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B130" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B131" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B132" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B133" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B136" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B137" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C138" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C139" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B140" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B141" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B144" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B145" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B146" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B149" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B150" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B151" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B154" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B155" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B156" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B157" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B158" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B162" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B163" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B166" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B167" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B170" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B171" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B174" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B175" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B178" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B179" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B182" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B185" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B188" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B189" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B192" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B193" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B194" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B195" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B198" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B199" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B202" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B203" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B206" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B207" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C208" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B209" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C210" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B211" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C212" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B213" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B214" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B217" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B218" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B219" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B220" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B223" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B224" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A226" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B227" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C228" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B229" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C230" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B231" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C232" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250CB1A1-2A3F-497B-8A54-4FBEA6A885C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="290">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -43,6 +36,9 @@
     <t>政策分析的如下内涵</t>
   </si>
   <si>
+    <t>【研究的主体或者政策分析者】是应用取向的【政府机构】和其他公共组织内部的【专业人员】，以及【民间智库的政策研究人员】</t>
+  </si>
+  <si>
     <t>【研究活动关注的重点】活研究范围是【为了政策而分析】</t>
   </si>
   <si>
@@ -157,13 +153,13 @@
     <t>研究程序的设计</t>
   </si>
   <si>
-    <t>政策研究资料的手机或对研究对象的观察</t>
-  </si>
-  <si>
-    <t>公共政策的研究视角和路径</t>
-  </si>
-  <si>
-    <t>提出拟研究的政策问题</t>
+    <t>政策研究【资料的收集】或【对研究对象的观察】</t>
+  </si>
+  <si>
+    <t>公共政策的【研究视角】和【路径】</t>
+  </si>
+  <si>
+    <t>【提出】拟研究的政策【问题】</t>
   </si>
   <si>
     <t>确定假设</t>
@@ -283,6 +279,9 @@
     <t>从【产业革命】到【20世纪前】半期【西方国家】的政策研究</t>
   </si>
   <si>
+    <t>【18~19世纪】【西方】国家的政策研究</t>
+  </si>
+  <si>
     <t>亚当斯密</t>
   </si>
   <si>
@@ -293,827 +292,616 @@
   </si>
   <si>
     <t>【三论】的产生（公共政策学产生的方法论基础）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【18~19世纪】【西方】国家的政策研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【20世纪】前半期学科孕育的历史条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【系统论】（贝塔朗菲）——系统方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【信息论】（申农）——信息方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【控制论】（维纳）——反馈方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>决策科学的【行程】（丰富了研究手段和方法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西蒙：管理行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纳什：纳什均衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为科学的【行程】和【行为】主义政治学的【进展】（公共政策学产生的催化剂）</t>
   </si>
   <si>
     <t>【凯恩斯】主义的出台与政府政策领域的扩大（为公共政策学提供了现实需求）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为科学的【行程】和【行为】主义政治学的【进展】（公共政策学产生的催化剂）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>为什么学习公共政策学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【政治角度】【改进政策系统】，【提高政策质量】。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【生活角度】理解公共政策，【保护自身利益】和【公共利益】，提出政策建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【科学角度】【推动学科研究】的公共政策取向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的含义</t>
+  </si>
+  <si>
+    <t>【公共权力机关】经由政治过程所【选择和指定】的为【解决公共问题】，【达成公共目标】，以实现公共利益的【方案】</t>
+  </si>
+  <si>
+    <t>公共政策代表性定义类别</t>
   </si>
   <si>
     <t>【侧重】于政策【主体】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【艾斯顿】：公共政策是【政府】机构和周围【环境】之间的【关系】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【戴伊】：公共政策是一个【政府选择】要【做的任何事】，或他选择【不做任何事】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【侧重】于政策【方案】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【拉斯韦尔】【卡普兰】：公共政策是一种含【有目标】，【价值】与【策略】的大型【计划】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【侧重】于政策【结果】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【伊斯顿】：公共政策是【社会价值】的【权威性分配】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【倾向】于【综合】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【张马金】【克鲁斯克】：公共政策是【党和政】府用以【规范，引导】有关【机构，团体和个人】行动的【准则或指南】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共政策内涵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>具有【决定】，【决策】，【对策】，【政策】的一般特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【公共权力机关】的【权力意志】的【表现】，具有【权威性】和【强制性】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主导政策过程的【基轴是】【公共权力机关】与【公民的关系】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三大要素：公共【问题】，公共【目标】，公共【利益】是【灵魂和目的】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一种权威性价值分配方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>形式上【可以是积极】的，也【可以是消极】的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共政策的含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【公共权力机关】经由政治过程所【选择和指定】的为【解决公共问题】，【达成公共目标】，以实现公共利益的【方案】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共政策代表性定义类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的产生（三要素）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共【问题】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共【决策机关】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共【强制机构】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的发展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在政策问题行程过程中，【公民参与】的作用越来越大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共政策需体现【主权在民】原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共政策【内容日益丰富】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策质量越来越取决于政策过程的【科学化】，【民主化】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从内容特征上来划分：</t>
   </si>
   <si>
     <t>元政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指导和规范政府政策行为的理论和方法，举例：公民在法律面前一律平等【宪法】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按政策内容社会性不同的分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政治政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经济政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>社会政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教科文政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目标数量不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【有/无行程的规范】和原则可循</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【程序性】政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【非程序性】政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【是否改变政策客体】【安德森】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物质性（实质性）政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>符号性（象征性）政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【政策协调】社会【生活方式】【安德森】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【分配】性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【调节】性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【自我调节】性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【在分配】政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否改变客观对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实质性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>程序性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西奥多洛维政策</t>
   </si>
   <si>
     <t>分配性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>限制性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>再分配性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西奥多洛维政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>零和博弈政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非零和博弈政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策属于【始创】还是【调整】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>反馈政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策结果的【可预测性】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【确定性】政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【不确定】型政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【风险】型政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【竞争】型政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策主体期望人们【行为】的范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【积极】性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【消极】性政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策主体对政策问题发展所做的【预测】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【能动】型政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【被动】型政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从内容特征上来划分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策从形式上来划分：</t>
+  </si>
+  <si>
+    <t>政策权利横向种类</t>
   </si>
   <si>
     <t>立法决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法决策</t>
+  </si>
+  <si>
+    <t>行政决策</t>
+  </si>
+  <si>
+    <t>由【政治体制决定】</t>
+  </si>
+  <si>
+    <t>人民代表大会</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>政策从横向形式划分</t>
   </si>
   <si>
     <t>国家元首决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司法决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行党政决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是指国家行政机关在法定的权力和只能范围内，按一定程序和方法做出的决定</t>
   </si>
   <si>
     <t>当代中国的行政决策几种形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行政法规</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行政措施，决定和命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门规章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是指国家行政机关在法定的权力和只能范围内，按一定程序和方法做出的决定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策从横向形式划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策从形式上来划分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策【横向形式构成】的主要【差别】</t>
+  </si>
+  <si>
+    <t>是否【是元首决策】？</t>
+  </si>
+  <si>
+    <t>是否是【司法决策】？</t>
+  </si>
+  <si>
+    <t>执政党的政策能否【直接成为公共决策】</t>
   </si>
   <si>
     <t>总统领导下的行政机构分为四类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内阁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>独立管理机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他独立机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政府公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国司法决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现行宪法规定人民法院，人民检察院，独立行使司法权力，不受行政机关，社会团体和个人干涉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我国法律机关参与与立法过程的情况是：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最高人民法院可负责【起草】与司法审判有关的法律草案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最高人民检察院负责起草与检查工作相关的法律草案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我国司法机关在法律事实过程中做出的适用法律的决定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法律解释是在法律事实过程中具体的解释法律内容的一种特殊的活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美国的司法决策主要形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>司法审查，最高法院能够裁决过会已经通过的某项法律不符合宪法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推翻先前的裁决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>司法命令，规定纠正不公正情况的办法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策权利横向种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由【政治体制决定】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民代表大会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总统制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>议会制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共决策【横向形式构成】的主要【差别】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否【是元首决策】？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是【司法决策】？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执政党的政策能否【直接成为公共决策】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国纵向政策类型</t>
   </si>
   <si>
     <t>【中央】决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【地方】决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【基层】决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国纵向政策类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共【政策】与【法】共同点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>都是【国家意志】的体现，其权威性源于国家合法的拥有强制力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>都是【调整人的行为（社会关系）的规范】，具有指引，评价，教育，预测，强制作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>具有【相同的文本】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制定和执行【主体相同】（公共权力机关）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制定【程序相同】（法制国家）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策与法的差异：</t>
   </si>
   <si>
     <t>侧重点不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策与法的差异：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策：【强制】按规则进行【价值分配】和资源配置，政策强调可行为性（要做什么，怎么做）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法：强调就差，【矫正】【价值分配】和资源配置中的违规行为，法强调对不可行之行为的可诉讼性（不能做什么，做了会怎么样）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权利不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策执行者主要是行动机关（积极权利）【积极有为】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法执行者主要是司法机关（消息权利）【不告不理】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权利和义务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【政策】对象的【权利和义务】【未必对称】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【法】是【权利和义务】的【统一】体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>适用性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策执行强调精神优于条文，实质重于形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法的适用性强调统一，法律条文优于精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否动用国家强制力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策执行如无法律依据，一般【不直接动用国家强制力】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执法一般【直接动用国家强制力】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>稳定性，连续性相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>与法相比，政策更灵活，能更快的应对形式变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>干预范围相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>与法相比，政策干预的范围更大，更深入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策和法的相互关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【政策】是【法】的【来源和动力】，对法的制定和执行具有【方向指导作用】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【法】作为【政策】提【供保障】，定型化为法律的政策具有更强的稳定性和连续性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的【基本功能】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管制功能（通过政策对象【不做什么】（禁止）来【达成政策目标】）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>引导功能（为人民的观念和行为确定方向，正向/负向引导）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调控功能（调节控制的是利益和冲突）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分配功能（分配的【对象】是【社会价值或利益】。分配【依据】的是社会【公正原则】）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【政策】与【理论】关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【理论】是【政策】的【理念】依据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【政策】是【理论】的【具体化】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】与【实践】关系</t>
   </si>
   <si>
     <t>【理论和政策】同属【观念形态】，存在和发展都【依赖】社会【实践】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政策】与【实践】关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策只有【通过实践】才能【实现其目标和功能】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策的【社会本质】：【公共性】与【偏好性】的统一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策是【公共权力机关】为着【一定的目标】而进行的【社会资源的配置】和【社会价值的分配】</t>
   </si>
   <si>
     <t>一定的【目标】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共权力的个人和群体从他们理解的公共利益出发所界定的目标</t>
   </si>
   <si>
     <t>社会【资源】配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策主体为一定的政策目标的实现而进行的人财物资源的调配与组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>社会价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>作为政策成本的社会资源投入后，随着政策目标的实现而获取的政策收益在不同的社会群体间的分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共政策是【公共权力机关】为着【一定的目标】而进行的【社会资源的配置】和【社会价值的分配】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共权力的个人和群体从他们理解的公共利益出发所界定的目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共性：权利，问题，利益的公共性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>偏好性：政府自利性，有限理性，资源约束下的选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的【基本特征】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【政治性】，【权威性】，【强制性】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【公共性】与【偏好性】的【统一】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【应然】和【实然】的【统一】（当下-&gt;未来）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【回应性】与【普遍性】的【统一】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>什么是政策工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>为【实现】一定政策【目标】【采区】的【措施，策略，行动作为】以及【配置】的【人力，资金，设备，资源】等【手段】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>例子：降低存款利率能拉动内需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政策工具的类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>两分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自愿性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>混合性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>强制性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>立法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>委托服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>征税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【研究的主体或者政策分析者】是应用取向的【政府机构】和其他公共组织内部的【专业人员】，以及【民间智库的政策研究人员】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1123,26 +911,354 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1150,9 +1266,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,24 +1518,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1464,1485 +1866,1486 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
       <c r="B71" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
       <c r="C96" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
       <c r="C99" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B106" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:3">
       <c r="C110" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:3">
       <c r="C111" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:3">
       <c r="C112" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:3">
       <c r="C114" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:3">
       <c r="C115" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B117" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B105" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B106" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B107" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B110" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B111" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B125" s="2" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B126" s="2" t="s">
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B127" s="2" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B130" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B131" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B132" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B133" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B136" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B137" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C138" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C139" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B140" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B141" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B144" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B145" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B146" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B149" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B150" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B151" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:2">
       <c r="B154" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:2">
       <c r="B155" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:2">
       <c r="B156" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:2">
       <c r="B157" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:2">
       <c r="B158" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:2">
       <c r="B162" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:2">
       <c r="B166" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:2">
       <c r="B167" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:2">
       <c r="B170" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:2">
       <c r="B171" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:2">
       <c r="B174" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:2">
       <c r="B175" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:2">
       <c r="B178" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:2">
       <c r="B179" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:2">
       <c r="B182" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:2">
       <c r="B185" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:2">
       <c r="B188" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:2">
       <c r="B189" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:2">
       <c r="B192" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:2">
       <c r="B193" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:2">
       <c r="B194" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:2">
       <c r="B195" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:2">
       <c r="B198" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:2">
       <c r="B199" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B202" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:2">
       <c r="B203" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:2">
       <c r="B206" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B207" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C208" s="2" t="s">
+    <row r="212" spans="3:3">
+      <c r="C212" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B209" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C210" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B211" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C212" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:2">
       <c r="B213" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:2">
       <c r="B214" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:2">
       <c r="B217" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:2">
       <c r="B218" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:2">
       <c r="B219" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:2">
       <c r="B220" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:2">
       <c r="B223" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:2">
       <c r="B224" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:2">
       <c r="B227" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:4">
       <c r="C228" s="2" t="s">
         <v>279</v>
       </c>
@@ -2950,12 +3353,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:2">
       <c r="B229" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:5">
       <c r="C230" s="2" t="s">
         <v>282</v>
       </c>
@@ -2966,12 +3369,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:2">
       <c r="B231" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:6">
       <c r="C232" s="2" t="s">
         <v>286</v>
       </c>
@@ -2986,22 +3389,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -228,10 +228,10 @@
     <t>公共政策的矛盾分析方法</t>
   </si>
   <si>
-    <t>明确矛盾普遍性和特殊性的辩证关系</t>
-  </si>
-  <si>
-    <t>明确主要矛盾与次要矛盾的辩证关系</t>
+    <t>明确矛盾【普遍性】和【特殊性】的辩证关系</t>
+  </si>
+  <si>
+    <t>明确【主要】矛盾与【次要】矛盾的辩证关系</t>
   </si>
   <si>
     <t>明确矛盾的主，次方面的辩证关系</t>
@@ -893,10 +893,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -927,20 +927,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -949,8 +935,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,17 +950,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,14 +974,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1011,9 +981,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,9 +1010,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,14 +1042,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,6 +1056,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1073,19 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,31 +1091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,7 +1121,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,103 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,13 +1276,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,17 +1306,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,15 +1350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1355,15 +1364,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1372,10 +1372,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1384,133 +1384,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1874,8 +1874,8 @@
   <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="S76" sqref="S76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4FDE8-F57C-4DA7-9394-0BAB337A8F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="319">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -339,6 +333,9 @@
     <t>公共政策的含义</t>
   </si>
   <si>
+    <t>【公共权力机关】经由政治过程所【选择和指定】的为【解决公共问题】，【达成公共目标】，以实现公共利益的【方案】</t>
+  </si>
+  <si>
     <t>公共政策代表性定义类别</t>
   </si>
   <si>
@@ -891,45 +888,116 @@
     <t>说服</t>
   </si>
   <si>
-    <t>【公共权力机关】经由政治过程所【选择和指定】的为【解决公共问题】，【达成公共目标】，以实现公共利益的【方案】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>【政策系统】与【政策行为者】的关系</t>
+  </si>
+  <si>
+    <t>政策【行为者】</t>
+  </si>
+  <si>
+    <t>【直接参与】和影响【政策指定】的【组织和人】，既是【主体也是客体】</t>
   </si>
   <si>
     <t>【主体】系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【支持】系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【反馈】系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的【主体】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【直接或间接】【参与】【公共政策】【制定，实施，评估，监控】的【行为】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的主体分类</t>
+  </si>
+  <si>
+    <t>直接主体：公共政策的法定生产者，就是那些获得先发和法律授权，掌握公共权力，对社会价值进行分配，主导政策过程的个人群体</t>
+  </si>
+  <si>
+    <t>代议机关</t>
+  </si>
+  <si>
+    <t>行政机关</t>
+  </si>
+  <si>
+    <t>司法机关</t>
+  </si>
+  <si>
+    <t>其他直接主体（军队领导人，政党）</t>
+  </si>
+  <si>
+    <t>间接主体：既【不拥有合法强制力】，但能【通过压力，舆论，私人接触】等方式【影响公共政策】</t>
+  </si>
+  <si>
+    <t>【次国家】政策行为者</t>
+  </si>
+  <si>
+    <t>【跨国】政策行为者</t>
+  </si>
+  <si>
+    <t>【全球】性政策行为者</t>
+  </si>
+  <si>
+    <t>公共政策的【主体系统】</t>
+  </si>
+  <si>
+    <t>由【各种政策行为者】【相互作用】所构成的【系统】</t>
+  </si>
+  <si>
+    <t>政策【制定】系统：法定决策权的高层组织活个人组成，组织领导整个决策过程</t>
+  </si>
+  <si>
+    <t>基本功能：</t>
+  </si>
+  <si>
+    <t>认定政策问题</t>
+  </si>
+  <si>
+    <t>确定政策目标</t>
+  </si>
+  <si>
+    <t>组织政策方案设计</t>
+  </si>
+  <si>
+    <t>主持备选方案的决策</t>
+  </si>
+  <si>
+    <t>完成政策合法化程序</t>
+  </si>
+  <si>
+    <t>政策【执行】系统：观念形态的政策内容转化为现实形态的政策结果的系统</t>
+  </si>
+  <si>
+    <t>【间接主体】系统</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -945,36 +1013,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -982,9 +1359,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,21 +1617,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1299,1577 +1962,1710 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="2:3">
+      <c r="B66" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B70" s="2" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B71" s="2" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B76" s="2" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B80" s="2" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B90" s="2" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B95" s="2" t="s">
+    <row r="95" spans="2:3">
+      <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="2" t="s">
+    <row r="96" spans="3:3">
+      <c r="C96" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B97" s="2" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B98" s="2" t="s">
+    <row r="98" spans="2:3">
+      <c r="B98" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="2" t="s">
+    <row r="99" spans="3:3">
+      <c r="C99" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B100" s="2" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B103" s="2" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="2" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="2" t="s">
+    <row r="105" spans="3:3">
+      <c r="C105" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B106" s="2" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="2" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="2" t="s">
+    <row r="110" spans="3:3">
+      <c r="C110" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="2" t="s">
+    <row r="111" spans="3:3">
+      <c r="C111" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="2" t="s">
+    <row r="112" spans="3:3">
+      <c r="C112" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B113" s="2" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="2" t="s">
+    <row r="114" spans="3:3">
+      <c r="C114" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C115" s="2" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B116" s="2" t="s">
+    <row r="116" spans="2:2">
+      <c r="B116" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B117" s="2" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B120" s="2" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B121" s="2" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B122" s="2" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="3" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4">
+      <c r="C228" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5">
+      <c r="C230" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6">
+      <c r="C232" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B100" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B101" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B102" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B105" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B106" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B107" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B110" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B111" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B112" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B113" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B114" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B117" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B120" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B121" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B122" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B125" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B126" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B127" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B130" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B131" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B132" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B133" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B136" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B137" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C138" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C139" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B140" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B141" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B144" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B145" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B146" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B149" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B150" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B151" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B154" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B155" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B156" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B157" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B158" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B162" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B163" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B166" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B167" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B170" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B171" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B174" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B175" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B178" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B179" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B182" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B185" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B188" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B189" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B192" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B193" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B194" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B195" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A197" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B198" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B199" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A201" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B202" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B203" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A205" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B206" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B207" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C208" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B209" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C210" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B211" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C212" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B213" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B214" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A216" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B217" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B218" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B219" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B220" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A222" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B223" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B224" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B227" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C228" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B229" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C230" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B231" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C232" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
         <v>295</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC689AA-2390-42CB-B676-B9685655FB72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="400">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -915,77 +921,397 @@
     <t>公共政策的主体分类</t>
   </si>
   <si>
+    <t>代议机关</t>
+  </si>
+  <si>
+    <t>行政机关</t>
+  </si>
+  <si>
+    <t>司法机关</t>
+  </si>
+  <si>
+    <t>其他直接主体（军队领导人，政党）</t>
+  </si>
+  <si>
+    <t>间接主体：既【不拥有合法强制力】，但能【通过压力，舆论，私人接触】等方式【影响公共政策】</t>
+  </si>
+  <si>
+    <t>【次国家】政策行为者</t>
+  </si>
+  <si>
+    <t>【跨国】政策行为者</t>
+  </si>
+  <si>
+    <t>【全球】性政策行为者</t>
+  </si>
+  <si>
+    <t>公共政策的【主体系统】</t>
+  </si>
+  <si>
+    <t>由【各种政策行为者】【相互作用】所构成的【系统】</t>
+  </si>
+  <si>
+    <t>政策【制定】系统：法定决策权的高层组织活个人组成，组织领导整个决策过程</t>
+  </si>
+  <si>
+    <t>基本功能：</t>
+  </si>
+  <si>
+    <t>认定政策问题</t>
+  </si>
+  <si>
+    <t>确定政策目标</t>
+  </si>
+  <si>
+    <t>组织政策方案设计</t>
+  </si>
+  <si>
+    <t>主持备选方案的决策</t>
+  </si>
+  <si>
+    <t>完成政策合法化程序</t>
+  </si>
+  <si>
+    <t>政策【执行】系统：观念形态的政策内容转化为现实形态的政策结果的系统</t>
+  </si>
+  <si>
     <t>直接主体：公共政策的法定生产者，就是那些获得先发和法律授权，掌握公共权力，对社会价值进行分配，主导政策过程的个人群体</t>
-  </si>
-  <si>
-    <t>代议机关</t>
-  </si>
-  <si>
-    <t>行政机关</t>
-  </si>
-  <si>
-    <t>司法机关</t>
-  </si>
-  <si>
-    <t>其他直接主体（军队领导人，政党）</t>
-  </si>
-  <si>
-    <t>间接主体：既【不拥有合法强制力】，但能【通过压力，舆论，私人接触】等方式【影响公共政策】</t>
-  </si>
-  <si>
-    <t>【次国家】政策行为者</t>
-  </si>
-  <si>
-    <t>【跨国】政策行为者</t>
-  </si>
-  <si>
-    <t>【全球】性政策行为者</t>
-  </si>
-  <si>
-    <t>公共政策的【主体系统】</t>
-  </si>
-  <si>
-    <t>由【各种政策行为者】【相互作用】所构成的【系统】</t>
-  </si>
-  <si>
-    <t>政策【制定】系统：法定决策权的高层组织活个人组成，组织领导整个决策过程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基本功能：</t>
-  </si>
-  <si>
-    <t>认定政策问题</t>
-  </si>
-  <si>
-    <t>确定政策目标</t>
-  </si>
-  <si>
-    <t>组织政策方案设计</t>
-  </si>
-  <si>
-    <t>主持备选方案的决策</t>
-  </si>
-  <si>
-    <t>完成政策合法化程序</t>
-  </si>
-  <si>
-    <t>政策【执行】系统：观念形态的政策内容转化为现实形态的政策结果的系统</t>
-  </si>
-  <si>
-    <t>【间接主体】系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为政策方案的实施做好准备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效实施政策方案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析和总结执行情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【间接主体】系统：由政策的间接主体构成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益表达与利益综合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出公共问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响并改变政策环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填补政策直接主体所无法达到的空间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响公共政策制定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策网络</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政府】和【其他行为者】围绕共同的，实际上是【不断协商的信念】和利益而结成的【正式】和【非正式】的【联系】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策网络形成的原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流信息和意见的需要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换资源的需要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结盟的需要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>追逐权力的需要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调的需要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策支持】系统的构成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息传播系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策咨询系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策监控系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策评估系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策系统的一般环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理自然环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治法治环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会文化环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策反馈系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将【政策主体系统】与【客体系统】，【政策系统】，【政策环境】链接起来的系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策系统的运行步骤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益输入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益综合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策形成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策发布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策执行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策反馈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政府权力/职能两重性】决定【公共政策两重性】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共政策】是政府【推行政治统治】的【基本工具】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共政策】是政府【实施社会管理】的【重要手段】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政府权力/职能】【决定政策】的【性能，类型，数量】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政治统治】以【社会管理】的【面目】出现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【统治领域】的【政策数量】和【类型】【相对稳定】；社会管理领域的政策数量和类型日益增多。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策权的【配置】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首长/委员会</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权制/分权制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策的【规则】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体一致规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多数规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单多数规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对多数规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共利益的内涵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增进公共利益是出发点（最大多数公民利益的最大化）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共利益的确定（三个视角）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【直接/间接】利益</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【现实/未来】利益</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【形式/内容】利益</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共利益与公共代价四种基本类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益范围宽，代价范围宽（社会保障，警察消防，国防政策，公共教育）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益范围广，代价范围窄（环保政策，反垄断政策）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益范围窄，代价范围宽（残疾人的政策）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益范围窄，代价范围窄（最低工资保障政策，强制医疗保险政策）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么公民是【政策客体】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民的真正意愿很难确定（人多嘴杂）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民的意见多数短见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民参与成本高效率低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民参与可能导致社会不稳定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么公民作为【政策主体】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策运行过程以【公民为基础】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有参与政策过程，公民才能理解和配合提高政策，进而提高效率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策过程【民主化】，法制化要求【公民参与】。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息网络技术，大众传媒的发展，减低了获取信息的成本，提高了公民参与的效率。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为政策主体的公民通过【哪些途径】【影响公共政策】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全民公决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定“谁制定政策”（选举）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略行为（威胁，抗拒）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>团体力量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造社会舆论，游说</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息抵抗，不合作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民社会的【主体是社会团体】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,345 +1339,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1359,255 +1368,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,62 +1387,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1962,125 +1688,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
@@ -2091,27 +1817,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2122,137 +1848,137 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>54</v>
       </c>
@@ -2260,117 +1986,117 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
@@ -2378,17 +2104,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B98" s="3" t="s">
         <v>82</v>
       </c>
@@ -2396,319 +2122,318 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C99" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B100" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B103" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C104" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C105" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B106" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C110" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C111" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C112" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B113" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C114" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C115" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B116" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B117" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B120" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B121" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B122" s="3" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>141</v>
       </c>
@@ -2716,732 +2441,732 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B95" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B106" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B107" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B120" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B125" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B130" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B131" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B133" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B136" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B137" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C138" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C139" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B140" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B141" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B144" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B145" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B146" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B149" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B150" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B151" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B154" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B155" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B156" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B157" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B158" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B166" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B167" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B170" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B171" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B178" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B182" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B185" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B188" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B189" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B193" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B194" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B195" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B198" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B199" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B202" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B203" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B206" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B207" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="3:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C208" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B209" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="210" spans="3:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C210" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B211" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C212" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B213" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B214" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B217" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B218" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B219" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B220" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B223" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B224" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B227" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="3:4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C228" s="3" t="s">
         <v>279</v>
       </c>
@@ -3449,12 +3174,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B229" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="3:5">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C230" s="3" t="s">
         <v>282</v>
       </c>
@@ -3465,12 +3190,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B231" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="232" spans="3:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C232" s="3" t="s">
         <v>286</v>
       </c>
@@ -3485,187 +3210,590 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D31" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D32" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
         <v>318</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D45" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D46" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B103" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B104" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B114" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B115" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B117" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B121" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B122" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B123" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B126" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B127" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B128" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B129" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B130" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B131" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B132" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="4" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC689AA-2390-42CB-B676-B9685655FB72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C4BF4-40B4-49FD-A97B-F97B04B12180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="424">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1304,6 +1304,102 @@
   </si>
   <si>
     <t>公民社会的【主体是社会团体】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区组织</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【社会团体，公民社会】与【公共政策】之间的关系是什么</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>底层和政府之间政策信息沟通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响制约公共决策</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定公共政策秩序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色替代（政府）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会团体的消极影响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会团体关心管辖权限胜于关心正义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团发展到一定规模时，必然采取排他策略</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加剧新的不平等，并固定下来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【暴露或提出】某些公共【问题】，【推动问题认定】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过检测【环境变化】，发现和提出公共问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>促进信息交流，释放社会多元诉求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造“焦点效应”，催生热点公共问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众传播与政策执行和【监控】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为政策执行提供舆论支持</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控政策执行过程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众传播与政策评估和【调整】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集，反馈公众意见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策评估</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动政策调整</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1447,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1374,7 +1478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +1492,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3218,19 +3325,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3245,7 +3353,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3255,7 +3363,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3275,7 +3383,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3285,7 +3393,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3335,7 +3443,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3434,7 +3542,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3444,7 +3552,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3474,7 +3582,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>336</v>
       </c>
     </row>
@@ -3499,7 +3607,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="5" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3529,7 +3637,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3539,7 +3647,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="5" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3574,7 +3682,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="5" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3589,7 +3697,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="5" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3604,7 +3712,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="5" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3619,7 +3727,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3642,7 +3750,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3652,7 +3760,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="5" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3672,7 +3780,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="5" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3697,7 +3805,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="5" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3722,7 +3830,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3747,7 +3855,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3766,29 +3874,143 @@
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B131" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B132" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="5" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B135" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B138" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B139" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B140" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B141" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B144" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B145" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B146" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B149" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B150" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B151" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B154" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B155" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B158" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B159" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B160" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C4BF4-40B4-49FD-A97B-F97B04B12180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13725" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="423">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -921,6 +915,9 @@
     <t>公共政策的主体分类</t>
   </si>
   <si>
+    <t>直接主体：公共政策的【法定生产者】，就是那些获得宪法和法律授权，【掌握公共权力】，对社会价值进行分配，【主导政策过程的个人群体】</t>
+  </si>
+  <si>
     <t>代议机关</t>
   </si>
   <si>
@@ -951,469 +948,375 @@
     <t>由【各种政策行为者】【相互作用】所构成的【系统】</t>
   </si>
   <si>
-    <t>政策【制定】系统：法定决策权的高层组织活个人组成，组织领导整个决策过程</t>
+    <t>政策【制定】系统：【法定决策权】的【高层组织或个人】组成，【组织领导整个决策过程】</t>
   </si>
   <si>
     <t>基本功能：</t>
   </si>
   <si>
-    <t>认定政策问题</t>
-  </si>
-  <si>
-    <t>确定政策目标</t>
-  </si>
-  <si>
-    <t>组织政策方案设计</t>
-  </si>
-  <si>
-    <t>主持备选方案的决策</t>
-  </si>
-  <si>
-    <t>完成政策合法化程序</t>
-  </si>
-  <si>
-    <t>政策【执行】系统：观念形态的政策内容转化为现实形态的政策结果的系统</t>
-  </si>
-  <si>
-    <t>直接主体：公共政策的法定生产者，就是那些获得先发和法律授权，掌握公共权力，对社会价值进行分配，主导政策过程的个人群体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本功能：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为政策方案的实施做好准备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效实施政策方案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析和总结执行情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>【认定】政策【问题】</t>
+  </si>
+  <si>
+    <t>【确定】政策【目标】</t>
+  </si>
+  <si>
+    <t>【组织】政策【方案设计】</t>
+  </si>
+  <si>
+    <t>【主持】【备选方案】的决策</t>
+  </si>
+  <si>
+    <t>【完成】政策【合法化程序】</t>
+  </si>
+  <si>
+    <t>政策【执行】系统：【观念形态的政策内容】【转化为】【现实形态】的【政策结果】的系统</t>
+  </si>
+  <si>
+    <t>【为】政策【方案的实施】做好【准备】</t>
+  </si>
+  <si>
+    <t>有效【实施政策方案】</t>
+  </si>
+  <si>
+    <t>【分析和总结】执行情况</t>
   </si>
   <si>
     <t>【间接主体】系统：由政策的间接主体构成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>利益表达与利益综合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出公共问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响并改变政策环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>填补政策直接主体所无法达到的空间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响公共政策制定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【利益表达】与【利益】综合</t>
+  </si>
+  <si>
+    <t>【提出】【公共问题】</t>
+  </si>
+  <si>
+    <t>【影响】【公共政策制定】</t>
+  </si>
+  <si>
+    <t>【影响并改变】政策【环境】</t>
+  </si>
+  <si>
+    <t>【填补】政策【直接主体】所【无法达到的空间】</t>
   </si>
   <si>
     <t>政策网络</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【政府】和【其他行为者】围绕共同的，实际上是【不断协商的信念】和利益而结成的【正式】和【非正式】的【联系】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策网络形成的原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流信息和意见的需要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交换资源的需要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结盟的需要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>追逐权力的需要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>协调的需要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【交流】【信息和意见】的需要</t>
+  </si>
+  <si>
+    <t>【交换】【资源】的需要</t>
+  </si>
+  <si>
+    <t>【结盟】的需要</t>
+  </si>
+  <si>
+    <t>【追逐权力】的需要</t>
+  </si>
+  <si>
+    <t>【协调】的需要</t>
   </si>
   <si>
     <t>【政策支持】系统的构成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息传播系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策咨询系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策监控系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策评估系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【信息传播】系统</t>
+  </si>
+  <si>
+    <t>政策【咨询】系统</t>
+  </si>
+  <si>
+    <t>政策【监控】系统</t>
+  </si>
+  <si>
+    <t>政策【评估】系统</t>
   </si>
   <si>
     <t>政策系统的一般环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理自然环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治法治环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会文化环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地理自然】环境</t>
+  </si>
+  <si>
+    <t>【经济】环境</t>
+  </si>
+  <si>
+    <t>【政治法治】环境</t>
+  </si>
+  <si>
+    <t>【社会文化】环境</t>
+  </si>
+  <si>
+    <t>【国际】环境</t>
   </si>
   <si>
     <t>政策反馈系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>将【政策主体系统】与【客体系统】，【政策系统】，【政策环境】链接起来的系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策系统的运行步骤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>利益输入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>利益综合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策形成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策发布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策执行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策反馈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【政府权力/职能两重性】决定【公共政策两重性】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>【公共政策】是政府【推行政治统治】的【基本工具】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>【公共政策】是政府【实施社会管理】的【重要手段】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共政策】是【政府】【推行】【政治统治】的【基本工具】</t>
+  </si>
+  <si>
+    <t>【公共政策】是【政府】【实施】【社会管理】的【重要手段】</t>
   </si>
   <si>
     <t>【政府权力/职能】【决定政策】的【性能，类型，数量】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【政治统治】以【社会管理】的【面目】出现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【统治领域】的【政策数量】和【类型】【相对稳定】；社会管理领域的政策数量和类型日益增多。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共决策权的【配置】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共决策权】的【配置】</t>
   </si>
   <si>
     <t>首长/委员会</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>集权制/分权制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共决策的【规则】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共决策】的【规则】</t>
   </si>
   <si>
     <t>全体一致规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>多数规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>简单多数规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绝对多数规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>公共利益的内涵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>增进公共利益是出发点（最大多数公民利益的最大化）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>公共利益的确定（三个视角）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【直接/间接】利益</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【现实/未来】利益</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【形式/内容】利益</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>公共利益与公共代价四种基本类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>利益范围宽，代价范围宽（社会保障，警察消防，国防政策，公共教育）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>利益范围广，代价范围窄（环保政策，反垄断政策）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>利益范围窄，代价范围宽（残疾人的政策）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>利益范围窄，代价范围窄（最低工资保障政策，强制医疗保险政策）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为什么公民是【政策客体】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公民的真正意愿很难确定（人多嘴杂）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公民的意见多数短见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公民参与成本高效率低</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公民参与可能导致社会不稳定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民的【真正意愿很难确定】（人多嘴杂）</t>
+  </si>
+  <si>
+    <t>公民的【意见多数短见】</t>
+  </si>
+  <si>
+    <t>【公民参与】【成本高】【效率低】</t>
+  </si>
+  <si>
+    <t>【公民参与】可能导致【社会不稳定】</t>
   </si>
   <si>
     <t>为什么公民作为【政策主体】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策运行过程以【公民为基础】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有参与政策过程，公民才能理解和配合提高政策，进而提高效率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有【参与政策过程】，公民才能【理解】和【配合】提高政策，进而【提高效率】</t>
   </si>
   <si>
     <t>政策过程【民主化】，法制化要求【公民参与】。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息网络技术，大众传媒的发展，减低了获取信息的成本，提高了公民参与的效率。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【信息网络技术】，【大众传媒】的发展，【减低了】【获取信息的成本】，【提高】了公民参与的【效率】。</t>
   </si>
   <si>
     <t>作为政策主体的公民通过【哪些途径】【影响公共政策】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全民公决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>决定“谁制定政策”（选举）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策略行为（威胁，抗拒）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>团体力量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>制造社会舆论，游说</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息抵抗，不合作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【团体】力量</t>
+  </si>
+  <si>
+    <t>制造【社会舆论】，游说</t>
+  </si>
+  <si>
+    <t>消息抵抗，【不合作】</t>
   </si>
   <si>
     <t>知识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>公民社会的【主体是社会团体】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NGO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>社团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>协会</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>社区组织</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【社会团体，公民社会】与【公共政策】之间的关系是什么</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>底层和政府之间政策信息沟通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响制约公共决策</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定公共政策秩序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【底层】和【政府】之间政策【信息沟通】</t>
+  </si>
+  <si>
+    <t>【影响制约】公共决策</t>
+  </si>
+  <si>
+    <t>【稳定】公共政策秩序</t>
   </si>
   <si>
     <t>角色替代（政府）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>社会团体的消极影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会团体关心管辖权限胜于关心正义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>社团发展到一定规模时，必然采取排他策略</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加剧新的不平等，并固定下来</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会团体关心【管辖权限】【胜于关心正义】</t>
+  </si>
+  <si>
+    <t>社团发展到一定规模时，必然采取【排他策略】</t>
+  </si>
+  <si>
+    <t>【加剧】新的【不平等】，并固定下来</t>
   </si>
   <si>
     <t>【暴露或提出】某些公共【问题】，【推动问题认定】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>通过检测【环境变化】，发现和提出公共问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>促进信息交流，释放社会多元诉求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制造“焦点效应”，催生热点公共问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>大众传播与政策执行和【监控】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为政策执行提供舆论支持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>监控政策执行过程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>大众传播与政策评估和【调整】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>收集，反馈公众意见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>政策评估</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>推动政策调整</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1435,36 +1338,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1472,9 +1684,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1491,24 +1945,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1795,2227 +2293,2229 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="2:3">
+      <c r="B66" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B71" s="3" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B76" s="3" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B80" s="3" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B87" s="3" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B90" s="3" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B92" s="3" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:3">
+      <c r="B95" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="3" t="s">
+    <row r="96" spans="3:3">
+      <c r="C96" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B97" s="3" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B98" s="3" t="s">
+    <row r="98" spans="2:3">
+      <c r="B98" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="3" t="s">
+    <row r="99" spans="3:3">
+      <c r="C99" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B100" s="3" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B103" s="3" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="3" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="3" t="s">
+    <row r="105" spans="3:3">
+      <c r="C105" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B106" s="3" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="3" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="3" t="s">
+    <row r="110" spans="3:3">
+      <c r="C110" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="3" t="s">
+    <row r="111" spans="3:3">
+      <c r="C111" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="3" t="s">
+    <row r="112" spans="3:3">
+      <c r="C112" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="3" t="s">
+    <row r="114" spans="3:3">
+      <c r="C114" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C115" s="3" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B116" s="3" t="s">
+    <row r="116" spans="2:2">
+      <c r="B116" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B117" s="3" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B120" s="3" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B121" s="3" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B122" s="3" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="5" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="3:3">
+      <c r="C6" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="3:3">
+      <c r="C7" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="3:3">
+      <c r="C9" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="3:3">
+      <c r="C13" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="3" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="3" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="3" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="3" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="3" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="3" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B100" s="3" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B102" s="3" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B105" s="3" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B106" s="3" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B107" s="3" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B110" s="3" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B111" s="3" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B112" s="3" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B114" s="3" t="s">
+    <row r="114" spans="2:2">
+      <c r="B114" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B117" s="3" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B120" s="3" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B121" s="3" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B122" s="3" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B125" s="3" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B126" s="3" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B127" s="3" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B130" s="3" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B131" s="3" t="s">
+    <row r="131" spans="2:2">
+      <c r="B131" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B132" s="3" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B133" s="3" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B136" s="3" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B137" s="3" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C138" s="3" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C139" s="3" t="s">
+    <row r="139" spans="3:3">
+      <c r="C139" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B140" s="3" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B141" s="3" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B144" s="3" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B145" s="3" t="s">
+    <row r="145" spans="2:2">
+      <c r="B145" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B146" s="3" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B149" s="3" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B150" s="3" t="s">
+    <row r="150" spans="2:2">
+      <c r="B150" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B151" s="3" t="s">
+    <row r="151" spans="2:2">
+      <c r="B151" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="2" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B154" s="3" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B155" s="3" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B156" s="3" t="s">
+    <row r="156" spans="2:2">
+      <c r="B156" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B157" s="3" t="s">
+    <row r="157" spans="2:2">
+      <c r="B157" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B158" s="3" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B162" s="3" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B163" s="3" t="s">
+    <row r="163" spans="2:2">
+      <c r="B163" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="2" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B166" s="3" t="s">
+    <row r="166" spans="2:2">
+      <c r="B166" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B167" s="3" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" s="2" t="s">
+    <row r="169" spans="1:1">
+      <c r="A169" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B170" s="3" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B171" s="3" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" s="2" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B174" s="3" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B175" s="3" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177" s="2" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B178" s="3" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B179" s="3" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" s="2" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B182" s="3" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" s="2" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B185" s="3" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="2" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B188" s="3" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B189" s="3" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191" s="2" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B192" s="3" t="s">
+    <row r="192" spans="2:2">
+      <c r="B192" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B193" s="3" t="s">
+    <row r="193" spans="2:2">
+      <c r="B193" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B194" s="3" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B195" s="3" t="s">
+    <row r="195" spans="2:2">
+      <c r="B195" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A197" s="2" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B198" s="3" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B199" s="3" t="s">
+    <row r="199" spans="2:2">
+      <c r="B199" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A201" s="2" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B202" s="3" t="s">
+    <row r="202" spans="2:2">
+      <c r="B202" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B203" s="3" t="s">
+    <row r="203" spans="2:2">
+      <c r="B203" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A205" s="2" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B206" s="3" t="s">
+    <row r="206" spans="2:2">
+      <c r="B206" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B207" s="3" t="s">
+    <row r="207" spans="2:2">
+      <c r="B207" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C208" s="3" t="s">
+    <row r="208" spans="3:3">
+      <c r="C208" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B209" s="3" t="s">
+    <row r="209" spans="2:2">
+      <c r="B209" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C210" s="3" t="s">
+    <row r="210" spans="3:3">
+      <c r="C210" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B211" s="3" t="s">
+    <row r="211" spans="2:2">
+      <c r="B211" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C212" s="3" t="s">
+    <row r="212" spans="3:3">
+      <c r="C212" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B213" s="3" t="s">
+    <row r="213" spans="2:2">
+      <c r="B213" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B214" s="3" t="s">
+    <row r="214" spans="2:2">
+      <c r="B214" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A216" s="2" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B217" s="3" t="s">
+    <row r="217" spans="2:2">
+      <c r="B217" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B218" s="3" t="s">
+    <row r="218" spans="2:2">
+      <c r="B218" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B219" s="3" t="s">
+    <row r="219" spans="2:2">
+      <c r="B219" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B220" s="3" t="s">
+    <row r="220" spans="2:2">
+      <c r="B220" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A222" s="2" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B223" s="3" t="s">
+    <row r="223" spans="2:2">
+      <c r="B223" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B224" s="3" t="s">
+    <row r="224" spans="2:2">
+      <c r="B224" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226" s="2" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B227" s="3" t="s">
+    <row r="227" spans="2:2">
+      <c r="B227" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C228" s="3" t="s">
+    <row r="228" spans="3:4">
+      <c r="C228" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B229" s="3" t="s">
+    <row r="229" spans="2:2">
+      <c r="B229" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C230" s="3" t="s">
+    <row r="230" spans="3:5">
+      <c r="C230" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B231" s="3" t="s">
+    <row r="231" spans="2:2">
+      <c r="B231" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C232" s="3" t="s">
+    <row r="232" spans="3:6">
+      <c r="C232" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F232" s="5" t="s">
         <v>289</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C17" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C25" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    <row r="37" spans="3:4">
+      <c r="C37" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D31" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D32" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D33" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D34" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D38" s="1" t="s">
+    <row r="39" spans="4:4">
+      <c r="D39" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="1" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="3:4">
+      <c r="C42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C42" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    <row r="43" spans="4:4">
+      <c r="D43" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D43" s="1" t="s">
+    <row r="44" spans="4:4">
+      <c r="D44" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D44" s="1" t="s">
+    <row r="45" spans="4:4">
+      <c r="D45" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D45" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D46" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B88" s="1" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B92" s="1" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="2:3">
+      <c r="B96" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="1" t="s">
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="1" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="5" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B100" s="1" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="5" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B105" s="1" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B111" s="1" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="5" t="s">
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="2:2">
+      <c r="B115" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B117" s="1" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="5" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B120" s="4" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B121" s="4" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B122" s="4" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B123" s="4" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="5" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B126" s="4" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B127" s="4" t="s">
+    <row r="128" spans="2:2">
+      <c r="B128" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B128" s="4" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B129" s="4" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B130" s="4" t="s">
+    <row r="131" spans="2:2">
+      <c r="B131" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B131" s="4" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B132" s="4" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="5" t="s">
+    <row r="135" spans="2:5">
+      <c r="B135" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E135" s="1" t="s">
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="5" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B141" s="1" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="5" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B146" s="1" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="5" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B151" s="1" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B154" s="1" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B155" s="1" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="5" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B158" s="1" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B159" s="1" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B160" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
     <sheet name="公共政策与政策工具" sheetId="2" r:id="rId2"/>
     <sheet name="政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
+    <sheet name="政策过程及其理论模型" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="510">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -387,7 +388,7 @@
     <t>形式上【可以是积极】的，也【可以是消极】的</t>
   </si>
   <si>
-    <t>公共政策的产生（三要素）</t>
+    <t>公共政策的产生（3个初始条件，核心要素）</t>
   </si>
   <si>
     <t>公共【问题】</t>
@@ -402,7 +403,7 @@
     <t>公共政策的发展</t>
   </si>
   <si>
-    <t>在政策问题行程过程中，【公民参与】的作用越来越大</t>
+    <t>在政策问题【行程过程中】，【公民参与】的作用越来越大</t>
   </si>
   <si>
     <t>公共政策需体现【主权在民】原则</t>
@@ -1285,6 +1286,267 @@
   </si>
   <si>
     <t>推动政策调整</t>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>依据【相似性原则】构造出来的一种【理念系统】，以代表作为研究对象的正时系统即【实际存在的事物】</t>
+  </si>
+  <si>
+    <t>模型的认识论意义</t>
+  </si>
+  <si>
+    <t>通过模型来【认识】【原型】的【本质】，进而对原型的运作与发展趋势做出【有效预测】</t>
+  </si>
+  <si>
+    <t>科学抽象的重要工具（帮助研究者阻止思想，激发想象力与洞察力）</t>
+  </si>
+  <si>
+    <t>经验观察和资料收集的指南（避免“眉毛胡子一把抓”）</t>
+  </si>
+  <si>
+    <t>揭示【认识论本质】（决策者理性认识如何）的【政策过程】模型：</t>
+  </si>
+  <si>
+    <t>【理性决策】模型</t>
+  </si>
+  <si>
+    <t>【完全理性】模型：决策者依据【完整而综合的信息】作出【理性的决策】，最大化原则，选择最优方案</t>
+  </si>
+  <si>
+    <t>基本假设</t>
+  </si>
+  <si>
+    <t>决策者【面临】一个既定的【问题】（问题摆着了，怎么解决）</t>
+  </si>
+  <si>
+    <t>决策者的【价值或目标】是【明确的】，可以排序（我想要什么不想要什么）</t>
+  </si>
+  <si>
+    <t>我能【获得解决问题的方案】</t>
+  </si>
+  <si>
+    <t>【每种决策结果】可以【预见到的】</t>
+  </si>
+  <si>
+    <t>各种决策【方案之间】【具有可比性】（A,B,C哪个最合适）</t>
+  </si>
+  <si>
+    <t>最终的选择肯定是【最优的】</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>【否定了传统“经验决策”】，将决策建立在科学基础上</t>
+  </si>
+  <si>
+    <t>从【应当如何决策】，而【非实际如何决策】的角度【研究决策过程】（比如考试要求自己60分，最终肯定拿不到60分）</t>
+  </si>
+  <si>
+    <t>缺陷</t>
+  </si>
+  <si>
+    <t>【很少有】【绝对理性的人】</t>
+  </si>
+  <si>
+    <t>【大部分】有着【自身利益】的</t>
+  </si>
+  <si>
+    <t>【过高估计】了【逻辑推理，数学模型的作用】</t>
+  </si>
+  <si>
+    <t>决策者【全知全能】假定【不成立】</t>
+  </si>
+  <si>
+    <t>【渐进主义决策】模型</t>
+  </si>
+  <si>
+    <t>适用于【解释开放，自由】的【多元主义社会中】</t>
+  </si>
+  <si>
+    <t>对【非多元主义民主国家】【不具有解释力】</t>
+  </si>
+  <si>
+    <t>具有【保守型】，模型【排除了政策创新】的可能</t>
+  </si>
+  <si>
+    <t>【混合扫描】模型（奥奇奥尼）</t>
+  </si>
+  <si>
+    <t>试图【保留理性主义模型】和【渐进注意模型】的【优势】，弥补两者的缺点</t>
+  </si>
+  <si>
+    <t>价值取向模棱两可</t>
+  </si>
+  <si>
+    <t>【政治系统】模型（戴维伊斯顿）</t>
+  </si>
+  <si>
+    <t>决策过程是“输入——决策——输出——反馈” 不断循环的过程</t>
+  </si>
+  <si>
+    <t>【最具解释力】的【宏观模型】</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>【不分析】政策的具体【特性】</t>
+  </si>
+  <si>
+    <t>揭示【社会本质的政策过程】模型：</t>
+  </si>
+  <si>
+    <t>【机构——制度】模型（应用最广泛，缺乏理论色彩的模型，托马斯戴伊）</t>
+  </si>
+  <si>
+    <t>要点：要指定一个国家的政策，【了解国家的制度】就行</t>
+  </si>
+  <si>
+    <t>不足：没有认识到【政策】【制度】的【区别】</t>
+  </si>
+  <si>
+    <t>【制度】虽然【决定政策的活动空间】，但是【无法限定政策的内容】</t>
+  </si>
+  <si>
+    <t>【政策相对灵活】，而【制度比较死板】，因此两者并不完全对应</t>
+  </si>
+  <si>
+    <t>【集团】模型（戴维杜鲁门）</t>
+  </si>
+  <si>
+    <t>要点：</t>
+  </si>
+  <si>
+    <t>【决策过程】（政治过程）是各级团争取【影响】政策的【行为过程】</t>
+  </si>
+  <si>
+    <t>【决策】是集团间【妥协的产物】</t>
+  </si>
+  <si>
+    <t>【决策的关键问题】是指定【合理的，法制化】的【竞争规则】</t>
+  </si>
+  <si>
+    <t>【政策反应】的是【占支配地位的利益集团】的【利益】</t>
+  </si>
+  <si>
+    <t>优点：反应多元社会，特别是美国公共政策的本质，过程</t>
+  </si>
+  <si>
+    <t>【重视利益集团】的作用，【否认国家的自主性】</t>
+  </si>
+  <si>
+    <t>【忽略其他重要因素】【对公共政策行程】的【影响】</t>
+  </si>
+  <si>
+    <t>【精英】模型</t>
+  </si>
+  <si>
+    <t>要点</t>
+  </si>
+  <si>
+    <t>社会分为【有权的少数人】，【无权的多数人】，公共政策由【少数精英决定】</t>
+  </si>
+  <si>
+    <t>【统治精英】并【不代表】被统治的【多数人的利益】</t>
+  </si>
+  <si>
+    <t>非精英分子被推荐到精英集团，必须接受精英集团的基本观念</t>
+  </si>
+  <si>
+    <t>精英集团基本是“铁板一块”</t>
+  </si>
+  <si>
+    <t>【政策内容】【不反应民众要求】，【只反映精英价值观】</t>
+  </si>
+  <si>
+    <t>揭示了【理论上强调】”【主权在民】“【实际】上【由少数精英主导】的【悖论】</t>
+  </si>
+  <si>
+    <t>【忽视】了现代民主国家的【公民的力量】及其参与政治的能力</t>
+  </si>
+  <si>
+    <t>上下来去，政策过程模型的构建</t>
+  </si>
+  <si>
+    <t>从认识论角度看</t>
+  </si>
+  <si>
+    <t>【基本原则】：【实事求是，一切从实际出发】</t>
+  </si>
+  <si>
+    <t>【政策指定】是【从形而上】到【形而下】的过程</t>
+  </si>
+  <si>
+    <t>【政策执行】是从形而上到形而下的过程</t>
+  </si>
+  <si>
+    <t>从主客体的关系看</t>
+  </si>
+  <si>
+    <t>【政策指定过程】：从群众中来（从民主到集中，从点到面）</t>
+  </si>
+  <si>
+    <t>【政策执行过程】：到群众中去（从集中到民主，从面到点）</t>
+  </si>
+  <si>
+    <t>容纳，开放</t>
+  </si>
+  <si>
+    <t>本土化，中国化</t>
+  </si>
+  <si>
+    <t>公共决策的【科学化】与【民主化】</t>
+  </si>
+  <si>
+    <t>决策过程的【理性化】</t>
+  </si>
+  <si>
+    <t>【公共决策的现代】化首先【是公共决策过程】的【理论化】。</t>
+  </si>
+  <si>
+    <t>【政策】指定【以科学的精神】，经【由合法的公共权力机关】，经【由合法的程序】，【获得其合法性和强制力】</t>
+  </si>
+  <si>
+    <t>决策过程的【专业化】</t>
+  </si>
+  <si>
+    <t>【政策议程的确立】需考虑【专业技术人员的意见】</t>
+  </si>
+  <si>
+    <t>【专业技术人员】提供【政策建议】，【充当参谋】</t>
+  </si>
+  <si>
+    <t>【专业人员的价值】【素质和利益】等因素经常【影响到政策实施效果】</t>
+  </si>
+  <si>
+    <t>政策效果需【专业人员来评估】</t>
+  </si>
+  <si>
+    <t>决策过程的【科学化】</t>
+  </si>
+  <si>
+    <t>【科学理论指导】【遵从科学原则】【运用科学方法】</t>
+  </si>
+  <si>
+    <t>遵循科学决策程序</t>
+  </si>
+  <si>
+    <t>决策手段科学化</t>
+  </si>
+  <si>
+    <t>决策过程的【民主化】</t>
+  </si>
+  <si>
+    <t>公民充分参与</t>
+  </si>
+  <si>
+    <t>政策内容【公益化】</t>
+  </si>
+  <si>
+    <t>体质，程序【民主】</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1556,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,12 +1569,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -1339,13 +1595,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1353,44 +1602,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1406,6 +1623,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1414,24 +1639,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,7 +1662,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1467,8 +1706,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,7 +1732,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,13 +1747,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,7 +1867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,31 +1879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,43 +1903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,73 +1915,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,56 +1946,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1782,6 +1988,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1790,10 +2046,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,137 +2058,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,13 +2198,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2302,533 +2561,533 @@
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2844,974 +3103,974 @@
   <sheetPr/>
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="208" spans="3:3">
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="6" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="223" spans="2:2">
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="224" spans="2:2">
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="228" spans="3:4">
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D228" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="230" spans="3:5">
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D230" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E230" s="5" t="s">
+      <c r="E230" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="232" spans="3:6">
-      <c r="C232" s="5" t="s">
+      <c r="C232" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="D232" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="E232" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="F232" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3827,695 +4086,1166 @@
   <sheetPr/>
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>290</v>
+      <c r="A1" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
-        <v>299</v>
+        <v>432</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>300</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>305</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="2" t="s">
-        <v>306</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
+        <v>439</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
-        <v>331</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2" t="s">
-        <v>334</v>
+        <v>457</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>475</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
+        <v>439</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>344</v>
+        <v>457</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="2" t="s">
-        <v>366</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
       <c r="C96" s="2" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="2" t="s">
-        <v>422</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="510">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -403,7 +403,7 @@
     <t>公共政策的发展</t>
   </si>
   <si>
-    <t>在政策问题【行程过程中】，【公民参与】的作用越来越大</t>
+    <t>在政策问题【行程过程中】，【公民参与】的【作用越来越大】</t>
   </si>
   <si>
     <t>公共政策需体现【主权在民】原则</t>
@@ -421,7 +421,7 @@
     <t>元政策</t>
   </si>
   <si>
-    <t>指导和规范政府政策行为的理论和方法，举例：公民在法律面前一律平等【宪法】</t>
+    <t>【指导和规范】【政府政策行为】的【理论和方法】，举例：公民在法律面前一律平等【宪法】</t>
   </si>
   <si>
     <t>按政策内容社会性不同的分类</t>
@@ -589,7 +589,7 @@
     <t>执行党政决策</t>
   </si>
   <si>
-    <t>是指国家行政机关在法定的权力和只能范围内，按一定程序和方法做出的决定</t>
+    <t>是指【国家行政机关】在法定的【权力】和【职能】【范围内】，按一定程序和方法【做出的决定】</t>
   </si>
   <si>
     <t>当代中国的行政决策几种形式</t>
@@ -634,22 +634,22 @@
     <t>中国司法决策</t>
   </si>
   <si>
-    <t>现行宪法规定人民法院，人民检察院，独立行使司法权力，不受行政机关，社会团体和个人干涉</t>
-  </si>
-  <si>
-    <t>我国法律机关参与与立法过程的情况是：</t>
-  </si>
-  <si>
-    <t>最高人民法院可负责【起草】与司法审判有关的法律草案</t>
-  </si>
-  <si>
-    <t>最高人民检察院负责起草与检查工作相关的法律草案</t>
-  </si>
-  <si>
-    <t>我国司法机关在法律事实过程中做出的适用法律的决定</t>
-  </si>
-  <si>
-    <t>法律解释是在法律事实过程中具体的解释法律内容的一种特殊的活动</t>
+    <t>现行宪法规定人民法院，【人民检察院】，【独立行使司法权力】【不受】【行政机关】社会团体和个人【干涉】</t>
+  </si>
+  <si>
+    <t>我国【法律机关】【参与与立法过程】的情况是：</t>
+  </si>
+  <si>
+    <t>【最高人民法院】可负责【起草】与【司法审判】有关的【法律草案】</t>
+  </si>
+  <si>
+    <t>【最高人民检察院】负责【起草】与【检查工作相关】的【法律草案】</t>
+  </si>
+  <si>
+    <t>我国【司法机关】在【法律实施过程中】做出的【适用法律的决定】</t>
+  </si>
+  <si>
+    <t>【法律解释】是在【法律实施过程中】具体的【解释法律内容】的一种【特殊的活动】</t>
   </si>
   <si>
     <t>美国的司法决策主要形式</t>
@@ -703,16 +703,16 @@
     <t>政策：【强制】按规则进行【价值分配】和资源配置，政策强调可行为性（要做什么，怎么做）</t>
   </si>
   <si>
-    <t>法：强调就差，【矫正】【价值分配】和资源配置中的违规行为，法强调对不可行之行为的可诉讼性（不能做什么，做了会怎么样）</t>
+    <t>法：强调就差，【矫正】【价值分配】和资源配置中的【违规行为】，法强调对不可行之行为的可诉讼性（不能做什么，做了会怎么样）</t>
   </si>
   <si>
     <t>权利不同</t>
   </si>
   <si>
-    <t>政策执行者主要是行动机关（积极权利）【积极有为】</t>
-  </si>
-  <si>
-    <t>法执行者主要是司法机关（消息权利）【不告不理】</t>
+    <t>【政策执行者】主要是【行动机关】（积极权利）【积极有为】</t>
+  </si>
+  <si>
+    <t>【法执行者】主要是【司法机关】（消息权利）【不告不理】</t>
   </si>
   <si>
     <t>权利和义务</t>
@@ -727,10 +727,10 @@
     <t>适用性</t>
   </si>
   <si>
-    <t>政策执行强调精神优于条文，实质重于形式</t>
-  </si>
-  <si>
-    <t>法的适用性强调统一，法律条文优于精神</t>
+    <t>政策执行【强调】【精神优于条文】【实质重于形式】</t>
+  </si>
+  <si>
+    <t>法的【适用性强调统一】【法律条文优于精神】</t>
   </si>
   <si>
     <t>是否动用国家强制力</t>
@@ -766,16 +766,16 @@
     <t>公共政策的【基本功能】</t>
   </si>
   <si>
-    <t>管制功能（通过政策对象【不做什么】（禁止）来【达成政策目标】）</t>
-  </si>
-  <si>
-    <t>引导功能（为人民的观念和行为确定方向，正向/负向引导）</t>
-  </si>
-  <si>
-    <t>调控功能（调节控制的是利益和冲突）</t>
-  </si>
-  <si>
-    <t>分配功能（分配的【对象】是【社会价值或利益】。分配【依据】的是社会【公正原则】）</t>
+    <t>【管制】功能（通过政策对象【不做什么】（禁止）来【达成政策目标】）</t>
+  </si>
+  <si>
+    <t>【引导】功能（为人民的观念和行为确定方向，正向/负向引导）</t>
+  </si>
+  <si>
+    <t>【调控】功能（调节控制的是利益和冲突）</t>
+  </si>
+  <si>
+    <t>【分配】功能（分配的【对象】是【社会价值或利益】。分配【依据】的是社会【公正原则】）</t>
   </si>
   <si>
     <t>【政策】与【理论】关系</t>
@@ -853,7 +853,7 @@
     <t>政策工具的类型</t>
   </si>
   <si>
-    <t>两分法</t>
+    <t>两分法：</t>
   </si>
   <si>
     <t>规则</t>
@@ -862,7 +862,7 @@
     <t>非规则</t>
   </si>
   <si>
-    <t>三分法</t>
+    <t>三分法：</t>
   </si>
   <si>
     <t>自愿性</t>
@@ -874,7 +874,7 @@
     <t>强制性</t>
   </si>
   <si>
-    <t>四分法</t>
+    <t>四分法：</t>
   </si>
   <si>
     <t>立法</t>
@@ -3101,976 +3101,945 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
-        <v>149</v>
+      <c r="A65" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="6" t="s">
-        <v>150</v>
+      <c r="B66" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="6" t="s">
-        <v>151</v>
+      <c r="B67" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="5" t="s">
-        <v>157</v>
+      <c r="B68" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="5" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="6" t="s">
-        <v>165</v>
+      <c r="B81" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="6" t="s">
-        <v>166</v>
+      <c r="B82" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
-        <v>167</v>
+      <c r="A84" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
-        <v>168</v>
+      <c r="B85" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="6" t="s">
+      <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
     </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="6" t="s">
-        <v>176</v>
+      <c r="B95" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="6" t="s">
-        <v>177</v>
+      <c r="B96" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="5" t="s">
-        <v>179</v>
+      <c r="A98" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="6" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="6" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="6" t="s">
-        <v>181</v>
+      <c r="B111" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="5" t="s">
-        <v>191</v>
+      <c r="B114" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="6" t="s">
-        <v>192</v>
+      <c r="B120" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="5" t="s">
-        <v>195</v>
+      <c r="B121" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="6" t="s">
-        <v>196</v>
+      <c r="B125" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="6" t="s">
-        <v>197</v>
+      <c r="B126" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="6" t="s">
-        <v>198</v>
+      <c r="B127" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="5" t="s">
-        <v>199</v>
+      <c r="A129" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="6" t="s">
-        <v>200</v>
+      <c r="B130" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="6" t="s">
+      <c r="B131" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
-      <c r="C138" s="6" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
-      <c r="C139" s="6" t="s">
+    <row r="133" spans="3:3">
+      <c r="C133" s="4" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="5" t="s">
-        <v>211</v>
+      <c r="B140" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="6" t="s">
-        <v>212</v>
+      <c r="B144" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="5" t="s">
-        <v>215</v>
+      <c r="B145" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="6" t="s">
-        <v>216</v>
+      <c r="B149" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="6" t="s">
-        <v>217</v>
+      <c r="B150" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="6" t="s">
-        <v>221</v>
+      <c r="B151" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="6" t="s">
-        <v>222</v>
+      <c r="B156" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="6" t="s">
+      <c r="B157" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="5" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="6" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="6" t="s">
+    <row r="161" spans="2:2">
+      <c r="B161" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="5" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="6" t="s">
+    <row r="164" spans="2:2">
+      <c r="B164" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="6" t="s">
+    <row r="165" spans="2:2">
+      <c r="B165" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="5" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="6" t="s">
+    <row r="168" spans="2:2">
+      <c r="B168" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="6" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="5" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="6" t="s">
+    <row r="172" spans="2:2">
+      <c r="B172" s="4" t="s">
         <v>239</v>
       </c>
     </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="6" t="s">
-        <v>240</v>
+      <c r="B179" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="5" t="s">
-        <v>241</v>
+      <c r="A181" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="5" t="s">
-        <v>245</v>
+      <c r="B182" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="6" t="s">
-        <v>246</v>
+      <c r="B188" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="6" t="s">
-        <v>247</v>
+      <c r="B189" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="5" t="s">
-        <v>248</v>
+      <c r="A191" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="6" t="s">
-        <v>249</v>
+      <c r="B192" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="6" t="s">
+      <c r="B193" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="5" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="6" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" s="4" t="s">
         <v>257</v>
       </c>
     </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="6" t="s">
-        <v>260</v>
+      <c r="B203" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="208" spans="3:3">
-      <c r="C208" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="210" spans="3:3">
-      <c r="C210" s="6" t="s">
-        <v>264</v>
+      <c r="B207" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="212" spans="3:3">
-      <c r="C212" s="6" t="s">
-        <v>266</v>
+      <c r="B211" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="6" t="s">
-        <v>267</v>
+      <c r="B213" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="6" t="s">
-        <v>268</v>
+      <c r="B214" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="5" t="s">
-        <v>269</v>
+      <c r="A216" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="6" t="s">
-        <v>270</v>
+      <c r="B217" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="6" t="s">
+      <c r="B218" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="5" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="6" t="s">
+    <row r="221" spans="2:4">
+      <c r="B221" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="228" spans="3:4">
-      <c r="C228" s="6" t="s">
+      <c r="C221" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="D221" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="6" t="s">
+    <row r="222" spans="2:5">
+      <c r="B222" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="230" spans="3:5">
-      <c r="C230" s="6" t="s">
+      <c r="C222" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D222" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="E222" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="6" t="s">
+    <row r="223" spans="2:6">
+      <c r="B223" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="232" spans="3:6">
-      <c r="C232" s="6" t="s">
+      <c r="C223" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D232" s="6" t="s">
+      <c r="D223" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E223" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F232" s="6" t="s">
+      <c r="F223" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4784,8 +4753,8 @@
   <sheetPr/>
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>【探索】其【固有规律】，【形成】【系统性知识】，</t>
   </si>
   <si>
-    <t>【运用这种知识】【进行政策分析】，进而通过公共权力机关【将研究成果转化为政策实践】</t>
+    <t>【运用这种知识】【进行政策分析】，进而通过【公共权力机关】【将研究成果转化为政策实践】</t>
   </si>
   <si>
     <t>公共政策学内涵</t>
@@ -130,7 +130,7 @@
     <t>策略连：解决【同一政策问题】，制定一系列政策，政策【内容一致】，【功能上具有差别】的【一系列政策】（列宁）</t>
   </si>
   <si>
-    <t>从多个政策中抽离出来的所有公共政策都具有的本质和属性（具体表现为公共政策的概念，命题，理论）</t>
+    <t>从【多个政策中】【抽离】出来的【所有公共政策都具有的】【本质和属性】（具体表现为公共政策的概念，命题，理论）</t>
   </si>
   <si>
     <t>公共政策系统内部结构</t>
@@ -2560,8 +2560,8 @@
   <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -3103,8 +3103,8 @@
   <sheetPr/>
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
     <sheet name="公共政策与政策工具" sheetId="2" r:id="rId2"/>
     <sheet name="政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
     <sheet name="政策过程及其理论模型" sheetId="4" r:id="rId4"/>
+    <sheet name="政策问题与议程设定" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="613">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1547,6 +1548,315 @@
   </si>
   <si>
     <t>体质，程序【民主】</t>
+  </si>
+  <si>
+    <t>公共问题</t>
+  </si>
+  <si>
+    <t>一定数量的【社会成员】感知其【预期的目标，价值】或境况与【现实获得的价值】，利益或境况【存在差异】，</t>
+  </si>
+  <si>
+    <t>因而【通过各种方式将其缩小差距的要求公之于众】，以争取社会的同情和支持，并谋求【引起政府关注】和【予以解决】的情景</t>
+  </si>
+  <si>
+    <t>私人问题</t>
+  </si>
+  <si>
+    <t>【实际】状态与【期望】之间的【差距】</t>
+  </si>
+  <si>
+    <t>公共政策问题的基本内涵</t>
+  </si>
+  <si>
+    <t>客观的事实或问题情境（存在矛盾）</t>
+  </si>
+  <si>
+    <t>问题的察觉（要有问题）</t>
+  </si>
+  <si>
+    <t>显示与利益期望的冲突</t>
+  </si>
+  <si>
+    <t>团体或组织活动</t>
+  </si>
+  <si>
+    <t>政府或社会公共组织的必要政策行动</t>
+  </si>
+  <si>
+    <t>【私人问题】到【政策问题】的【转化】</t>
+  </si>
+  <si>
+    <t>某人汽油用完了——私人问题</t>
+  </si>
+  <si>
+    <t>行政区出现了油慌——社会问题</t>
+  </si>
+  <si>
+    <t>油慌引起了地方政府关注，纳入当地政府的议事日程——政策问题</t>
+  </si>
+  <si>
+    <t>政策问题的基本属性</t>
+  </si>
+  <si>
+    <t>【关联性】与【公共性】（【关联性】：【不同政策】之间是【密切相关】的；【公共性】：【社会成员】存在的【公共问题】）</t>
+  </si>
+  <si>
+    <t>【客观性】与【主观性】（客观性：现实；主观性：期望；）</t>
+  </si>
+  <si>
+    <t>【历史性】与【动态性】（历史性：问题存在一段时间才会有问题；问题是随着时间变化会变化）</t>
+  </si>
+  <si>
+    <t>政策问题的【分类】（选择题，看书）</t>
+  </si>
+  <si>
+    <t>【政策问题】的【结构】</t>
+  </si>
+  <si>
+    <t>结构优良</t>
+  </si>
+  <si>
+    <t>结构适度</t>
+  </si>
+  <si>
+    <t>结构不良</t>
+  </si>
+  <si>
+    <t>【政策问题】发生的【领域】</t>
+  </si>
+  <si>
+    <t>政治问题</t>
+  </si>
+  <si>
+    <t>经济问题</t>
+  </si>
+  <si>
+    <t>文化问题</t>
+  </si>
+  <si>
+    <t>外交问题</t>
+  </si>
+  <si>
+    <t>民族问题</t>
+  </si>
+  <si>
+    <t>作用范围</t>
+  </si>
+  <si>
+    <t>国际问题</t>
+  </si>
+  <si>
+    <t>全国性问题</t>
+  </si>
+  <si>
+    <t>区域性问题</t>
+  </si>
+  <si>
+    <t>地方性问题</t>
+  </si>
+  <si>
+    <t>提出公共问题的主体（由谁提出，8类）</t>
+  </si>
+  <si>
+    <t>政府部门</t>
+  </si>
+  <si>
+    <t>政治人物</t>
+  </si>
+  <si>
+    <t>政党组织</t>
+  </si>
+  <si>
+    <t>利益集团</t>
+  </si>
+  <si>
+    <t>大众传媒</t>
+  </si>
+  <si>
+    <t>专家人士及咨询机构</t>
+  </si>
+  <si>
+    <t>公民和社会团体</t>
+  </si>
+  <si>
+    <t>是指由【政府机构】与【民间组织】及市场主体，【利益相关者】【组成】对有关【政策过程产生一定影响】的【政策社群】</t>
+  </si>
+  <si>
+    <t>不是正式组织，介于正式和飞正式组织之间的网络话联合体</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>利益型</t>
+  </si>
+  <si>
+    <t>混合型</t>
+  </si>
+  <si>
+    <t>意见型（议题网络）</t>
+  </si>
+  <si>
+    <t>问题认定的含义</t>
+  </si>
+  <si>
+    <t>【问题认定是关键第一步】，是指对需要有【公共政策】来【解决的公共问题】进行性质，范围，设计领域及【相关利益关系】的【界定过程】（比如乙肝是个人问题还是社会问题）</t>
+  </si>
+  <si>
+    <t>问题认定的方法</t>
+  </si>
+  <si>
+    <t>【边界】分析法（相关的人对同一个问题的看法）</t>
+  </si>
+  <si>
+    <t>对【政策问题】的【本质】熟悉金与【设计范围】进行【分析】和【界定方法】</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>饱和抽样</t>
+  </si>
+  <si>
+    <t>诱导性提问</t>
+  </si>
+  <si>
+    <t>边界估值</t>
+  </si>
+  <si>
+    <t>【多角度】问题</t>
+  </si>
+  <si>
+    <t>系统【运用】【个人，组织，技术】等【多重认识】来【获得】对【政策问题】的全面【了解】和【解决办法】的分析方法</t>
+  </si>
+  <si>
+    <t>【类别】分析</t>
+  </si>
+  <si>
+    <t>逻辑区分</t>
+  </si>
+  <si>
+    <t>贫富差距是经济问题，政治问题，还是自然问题</t>
+  </si>
+  <si>
+    <t>逻辑归类</t>
+  </si>
+  <si>
+    <t>水源减少，土地沙化，臭氧破坏，属于生态恶化</t>
+  </si>
+  <si>
+    <t>【层次】分析法（洋葱）</t>
+  </si>
+  <si>
+    <t>【可能】原因</t>
+  </si>
+  <si>
+    <t>合理原因</t>
+  </si>
+  <si>
+    <t>可诉原因</t>
+  </si>
+  <si>
+    <t>头脑风暴</t>
+  </si>
+  <si>
+    <t>组建团队——意见产出——意见评估——意见排序</t>
+  </si>
+  <si>
+    <t>【假设】分析</t>
+  </si>
+  <si>
+    <t>将【相互冲突的政策问题】【立论假设创】造性的综合为一体的【分析】</t>
+  </si>
+  <si>
+    <t>问题认定的步骤</t>
+  </si>
+  <si>
+    <t>四步法则（邓恩）</t>
+  </si>
+  <si>
+    <t>七步法（帕顿，沙维奇）</t>
+  </si>
+  <si>
+    <t>公共政策议程</t>
+  </si>
+  <si>
+    <t>有关【公共问题】受到【政府及公共组织】的【重视】并被正式【纳入政策讨论】和被确定为【要解决的政策问题】的过程。</t>
+  </si>
+  <si>
+    <t>公共政策议程类型</t>
+  </si>
+  <si>
+    <t>系统议程</t>
+  </si>
+  <si>
+    <t>政府议程</t>
+  </si>
+  <si>
+    <t>进入【政策议程】的【条件】和【障碍】（那些问题能进议程，哪些不能进）</t>
+  </si>
+  <si>
+    <t>进入的条件</t>
+  </si>
+  <si>
+    <t>【事件】或【问题】明朗而【严重】</t>
+  </si>
+  <si>
+    <t>【政治权威】及【专家学者】的【预测】性发动</t>
+  </si>
+  <si>
+    <t>正常，民主，开放的察觉机制与过程</t>
+  </si>
+  <si>
+    <t>障碍（进不了的情况）</t>
+  </si>
+  <si>
+    <t>事件和问题不够严重，政策问题潜在而轻微</t>
+  </si>
+  <si>
+    <t>领导人和有关学者没有观察其严重性</t>
+  </si>
+  <si>
+    <t>社会缺乏正常，民主，开发的观察机制</t>
+  </si>
+  <si>
+    <t>政策问题不符合社会既得利益者的价值规范，不符合社会制度和程序要求</t>
+  </si>
+  <si>
+    <t>表达方式不当</t>
+  </si>
+  <si>
+    <t>【政策议程】【确立过程】的模型</t>
+  </si>
+  <si>
+    <t>【外在创始模型】（【非政府提出问题】，进入公共议程，试图进入政府议程，制度基础：民主，平等社会）</t>
+  </si>
+  <si>
+    <t>【动员模型】（【政府提出问题】，扩散到公众议程，再进入政府议程，制度基础：专制社会）</t>
+  </si>
+  <si>
+    <t>【内在创始模型】（【政府提出问题】（内部事务），进入政府议程，制度基础：财富和权力高度集中的社会</t>
+  </si>
+  <si>
+    <t>【约翰金登的模型理论】（三源流理论）</t>
+  </si>
+  <si>
+    <t>【问题】流</t>
+  </si>
+  <si>
+    <t>涉及问题的是，问题如何被认知的，客观条件如何定义为问题的</t>
+  </si>
+  <si>
+    <t>【政策】流</t>
+  </si>
+  <si>
+    <t>与解决问题的技术可行性，公众接受有关</t>
+  </si>
+  <si>
+    <t>【政治】流</t>
+  </si>
+  <si>
+    <t>设计政治对于问题解决方案的影响，包括民族情绪，公众舆论，选举政治，利益集团等</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1595,29 +1905,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1625,67 +1913,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1706,11 +1934,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1730,9 +2003,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1747,13 +2057,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,19 +2111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,85 +2135,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,19 +2171,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,19 +2225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,39 +2248,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1991,10 +2268,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2011,6 +2286,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2038,6 +2339,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2046,10 +2356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2058,133 +2368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2560,8 +2870,8 @@
   <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -4753,464 +5063,980 @@
   <sheetPr/>
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>423</v>
+        <v>510</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>427</v>
+        <v>513</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>430</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>454</v>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>460</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>461</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="C53" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
-        <v>473</v>
+        <v>556</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>476</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
       <c r="C61" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
+        <v>564</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="2" t="s">
-        <v>457</v>
-      </c>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
       <c r="C66" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
       <c r="C70" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>488</v>
+        <v>573</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="2" t="s">
-        <v>501</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94" s="2" t="s">
-        <v>506</v>
+        <v>592</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="2" t="s">
-        <v>507</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="2" t="s">
-        <v>509</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9ECF5B-5D01-4101-AFAF-185FCD15FE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,14 @@
     <sheet name="政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
     <sheet name="政策过程及其理论模型" sheetId="4" r:id="rId4"/>
     <sheet name="政策问题与议程设定" sheetId="5" r:id="rId5"/>
+    <sheet name="政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="719">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1857,19 +1864,436 @@
   </si>
   <si>
     <t>设计政治对于问题解决方案的影响，包括民族情绪，公众舆论，选举政治，利益集团等</t>
+  </si>
+  <si>
+    <t>【政策目标】的【含义】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了【解决特定政策问题】而【采取的行动】所要【达到的目的，指标，效果】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策目标】特征</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的针对性（不能脱离政策目标）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来的预期性（目标要有超前性，因为问题会随着环境变化而变化）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的的多元性（目标可能存在多个）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策目标的分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地位：基本（元目标），具体目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：长远，中期，近期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间：对外，对内</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策领域：政治，经济，文化，社会</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务主体：公益性，特殊性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共政策】的【基本目标】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公平</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机会公平</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配公平（付出回报公平）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终公平（平均主义）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率（成本——收益最大化）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消极自由（有权从事某些活动，不接外界干预）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极自由（做某些事情的自由）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【确定政策目标】的意义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【为政策方案的规划】和实施提供【核心的评估标准】（可能存在多个方案，所以需要评判的指标）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【为指定政策方案】提供【方向性指导】（定目标要有方向，否则会迷失）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【确定政策目标】原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实事求是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向未来</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统协调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确具体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦理考量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划（整个过程阶段论）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为【实现】一定的【政策目标】，【公共机关】组织力量【草拟整治方案】与【行为步骤】的【过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体：【多元化】与【政府主导】【并存】（应该有政府来解决）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>介于确定【政策目标】与【政策抉择】之间（有了目标才有选择）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策分析者】通过【系统的探讨政策问题】，【组合政策要素】，【产生政策方案】，以达成【政策问题能解决】的【动态调适过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【方案设计】的基本【要素】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果（多个结果尽可能接近一致）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人群</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行机构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法规</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素间联系机制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策设计逻辑结构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定（技术假定，行为假定，规范假定）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策规划】与【政策设计】的关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策规划】是政策过程【阶段论中的概念】；【政策设计】是政策过程【理论中的概念】</t>
+  </si>
+  <si>
+    <t>【政策规划】与【政策形成】密切相关；【政策设计】与【政策过程】各阶段都有密切关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策规划】偏重【理性和技术】，【政策设计】强调【技术】，也强调【政治】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体多元化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现为政府组织，管理政策规划</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要政府主导化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【主体单一】【有利于把握全局】，但【难以保证公正，科学，民主】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【主体多元】【有利于公正，科学，民主】，却可能【失于片面】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策方案的设计原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧扣政策目标（方案目的就是实现目标）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划多重方案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案彼此独立</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案要有创新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案切实可行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划的模式与参考框架</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦默和维宁：政策分析两阶段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕顿与沙维奇：政策分析六阶段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>认定和细化问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立评估标准</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认备选政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估备选政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示和区分备选政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督和评估政策实施</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学习</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策制定者】【参考，借鉴】不同国家，地址或【其他部门相关的政策方案】，【学习其中的知识】，技术或政策观念，并从其中【汲取灵感或启发】的【过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种集体学习</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是政策变迁，政策创新的重要来源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响政策学习的因素（成功失败的因素）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府面临问题的性质（别人碰到的问题和我碰到的问题是不是一样）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织内部的文化和价值。（因文化价值的问题阻碍学习）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织环境</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学习的类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念（问题）学习（比如花钱学习就像投资）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具学习，学习是技术，政策制定，政策过程，政策工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会学习，学习政策价值及其规范，目标，责任等深层次的特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用采纳其他国家的公共政策，行政体制，制度其思想来解决本国所面临的的政策问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球化和信息化是政策移植现象增加的重要原因</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策可以发生在政策过程的各个阶段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植对象主要是政策目标，政策内容，政策工具（移植什么）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策借鉴程度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制（完全移植）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效仿（借鉴政策理念）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合（混合不同的政策）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策意愿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自愿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被迫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息不全的政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完全的政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不当的政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1904,345 +2328,36 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2250,255 +2365,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2520,62 +2393,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2862,125 +2697,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -2991,27 +2826,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
@@ -3022,137 +2857,137 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="6" t="s">
         <v>54</v>
       </c>
@@ -3160,117 +2995,117 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B70" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B71" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B77" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B80" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B86" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" s="6" t="s">
         <v>78</v>
       </c>
@@ -3278,17 +3113,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B97" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B98" s="6" t="s">
         <v>82</v>
       </c>
@@ -3296,319 +3131,318 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C99" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B100" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B103" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C105" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B106" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C110" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C111" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C112" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B113" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C114" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C115" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B116" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B117" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B120" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B121" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B122" s="6" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A208" workbookViewId="0">
+    <sheetView topLeftCell="A208" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>141</v>
       </c>
@@ -3616,702 +3450,702 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B99" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B106" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B107" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B115" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B131" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C132" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C133" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B134" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B135" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B139" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B143" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B148" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B149" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B156" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B157" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B161" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B179" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B182" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B183" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B186" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B187" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B188" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B189" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B196" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B197" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B200" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B201" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C202" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B203" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="204" spans="3:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C204" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B205" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="3:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C206" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B207" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B208" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B211" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B212" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B213" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B214" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B217" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B218" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B221" s="4" t="s">
         <v>278</v>
       </c>
@@ -4322,7 +4156,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="222" spans="2:5">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B222" s="4" t="s">
         <v>281</v>
       </c>
@@ -4336,7 +4170,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B223" s="4" t="s">
         <v>285</v>
       </c>
@@ -4354,148 +4188,147 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C18" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C23" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>311</v>
       </c>
@@ -4503,32 +4336,32 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D31" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D32" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D33" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D34" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>311</v>
       </c>
@@ -4536,22 +4369,22 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D38" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D39" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>311</v>
       </c>
@@ -4559,222 +4392,222 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D43" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D44" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D45" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D46" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B88" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
         <v>366</v>
       </c>
@@ -4782,162 +4615,162 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B105" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B115" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B128" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B131" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B132" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B135" s="4" t="s">
         <v>399</v>
       </c>
@@ -4951,174 +4784,173 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B138" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B139" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B146" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B149" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B154" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B155" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B158" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B159" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>432</v>
       </c>
@@ -5126,32 +4958,32 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>439</v>
       </c>
@@ -5159,12 +4991,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>442</v>
       </c>
@@ -5172,27 +5004,27 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>439</v>
       </c>
@@ -5200,7 +5032,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>442</v>
       </c>
@@ -5208,17 +5040,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>439</v>
       </c>
@@ -5226,7 +5058,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>442</v>
       </c>
@@ -5234,17 +5066,17 @@
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>439</v>
       </c>
@@ -5252,7 +5084,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>457</v>
       </c>
@@ -5260,42 +5092,42 @@
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>466</v>
       </c>
@@ -5303,27 +5135,27 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>457</v>
       </c>
@@ -5331,17 +5163,17 @@
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>475</v>
       </c>
@@ -5349,27 +5181,27 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>439</v>
       </c>
@@ -5377,7 +5209,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
         <v>457</v>
       </c>
@@ -5385,47 +5217,47 @@
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C75" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C76" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
         <v>439</v>
       </c>
@@ -5433,118 +5265,117 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C88" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C89" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C91" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C92" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C93" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B94" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C95" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
         <v>509</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>510</v>
       </c>
@@ -5552,12 +5383,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>513</v>
       </c>
@@ -5565,132 +5396,132 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>540</v>
       </c>
@@ -5698,67 +5529,67 @@
         <v>541</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>327</v>
       </c>
@@ -5766,12 +5597,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
         <v>555</v>
       </c>
@@ -5785,32 +5616,32 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
         <v>564</v>
       </c>
@@ -5818,32 +5649,32 @@
         <v>565</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C69" s="2" t="s">
         <v>571</v>
       </c>
@@ -5851,7 +5682,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C70" s="2" t="s">
         <v>573</v>
       </c>
@@ -5859,27 +5690,27 @@
         <v>574</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C73" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
         <v>579</v>
       </c>
@@ -5887,62 +5718,62 @@
         <v>580</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C80" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
         <v>592</v>
       </c>
@@ -5950,72 +5781,72 @@
         <v>593</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C95" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C99" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C100" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C101" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C102" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C103" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B108" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
         <v>607</v>
       </c>
@@ -6023,7 +5854,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
         <v>609</v>
       </c>
@@ -6031,7 +5862,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
         <v>611</v>
       </c>
@@ -6040,7 +5871,543 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F5A48-A18C-48CF-A9E3-974DB1A960ED}">
+  <dimension ref="A1:D122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C43" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C49" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C50" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C51" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C52" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C55" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C56" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C57" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B61" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B62" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C66" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B67" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C68" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C69" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B72" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B73" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B74" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B76" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B79" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C80" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C84" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C85" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C86" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C87" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C88" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C89" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B92" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B93" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B96" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B97" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B98" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B101" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B102" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B103" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B106" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B107" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B108" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B111" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D112" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D113" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B116" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B120" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B121" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B122" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9ECF5B-5D01-4101-AFAF-185FCD15FE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF0A25-BAF4-403B-9830-ECCAEF3EE7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="636" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="802">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2286,6 +2286,338 @@
   </si>
   <si>
     <t>不当的政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的抉择主体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家元首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政首长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>民意代表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法官</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执政党首脑和军事首脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策的抉择原则（不允许犯的低级错误）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊重科学分析的价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑各方利益的平衡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发挥决策者能动作用（决策者不能优柔寡断）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵照有关程序的规定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证六大要素</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策主张</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立论理由</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立论依据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳斥理由</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可信度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证的特殊形式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策探究</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕特定政策议题或对政策方案某些论证进行辩护的过程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证是“自言自语”，政策对话是“双向沟通”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>两类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>共识性政策对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突性政策对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策抉择过程有3个环节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策采纳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后对该方案进行可行性评估，进而形成可供采纳和批准的政策文本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策者对各个方案进行最后的比较，从中选择最满意的一个方案，或以某一方案为主，综合吸收其他方案的优点，从而形成一个新方案；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议方法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议含义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估和择优，两者的基础是比较</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策目标，具体目标，评估标准，测量指标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从【步骤】看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案调查，详细研究，进一步分析，试验式证实</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从【方法】看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外推预测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予目前的状况和观察到的历史趋势，向未来进行外推。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本假设：过去的趋势会向未来延续，而不问其原因。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要方法：均值预测，现行回归法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论预测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本方法：用一系列【技术和假设】【建立】简化的理论【表达式】（模型），然后用该模型【进行预测】（参考黄石公园火灾）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断预测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据：专家的判断，直觉，灵感，洞察力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从【标准】看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议方法预测性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议可行性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案在技术上能否达到预期目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴现，成本——收益分析法，成本——效果分析法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公平性，分析来自于”人“的有利或不利因素</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政环境，执行人员对政策的态度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策抉择主体【依据有关法律】，【按照法定程序】【对政策方案】加以【审查，批准，签署，发布的过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策采纳内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容合法（不能与宪法和法律相抵触）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序合法（合乎法定程序）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政系统的决策程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法制部门审查</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导会议讨论决定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政首长签署发布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法系统的决策程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出议案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审议议案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过议案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公布政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的含义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型的决策，具有【不可逆转性】，要求在【很短时间】里以及【有限资源约束下】做出重大，【快速反应】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的要素</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策问题的发生，发展具有突然性，急剧性，需要当机立断</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可供利用的时间，信息等资源非常有限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事态发展危机根本利益，决策后果很难预料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的【根源】在于【常规决策】的【具体运作效果】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策可以【完善常规决策】，常规决策中的制度建构也必须从危机事件及危机决策过程中西区有益的经验和教训</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策与常规决策的联系</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5878,10 +6210,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F5A48-A18C-48CF-A9E3-974DB1A960ED}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6084,7 +6416,6 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
         <v>652</v>
       </c>
@@ -6404,6 +6735,404 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B122" s="7" t="s">
         <v>718</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B126" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B127" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B128" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B129" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B132" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B133" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B134" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B135" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B138" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B139" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B140" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B141" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B142" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B143" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B146" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B148" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C150" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D151" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B154" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B155" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B156" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B159" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B160" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B163" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B165" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C166" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B169" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C170" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B171" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C172" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B173" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C174" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D175" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D176" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C178" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C180" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B183" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B184" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B185" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B186" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B189" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="8" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B192" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B193" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B194" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C195" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C196" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C197" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B198" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C199" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C200" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C201" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C202" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B205" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B208" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B209" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B210" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B213" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B214" s="7" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF0A25-BAF4-403B-9830-ECCAEF3EE7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BC27E-A49C-49B6-9717-224EF7EC6CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="636" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" tabRatio="636" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -1299,21 +1299,9 @@
     <t>模型</t>
   </si>
   <si>
-    <t>依据【相似性原则】构造出来的一种【理念系统】，以代表作为研究对象的正时系统即【实际存在的事物】</t>
-  </si>
-  <si>
     <t>模型的认识论意义</t>
   </si>
   <si>
-    <t>通过模型来【认识】【原型】的【本质】，进而对原型的运作与发展趋势做出【有效预测】</t>
-  </si>
-  <si>
-    <t>科学抽象的重要工具（帮助研究者阻止思想，激发想象力与洞察力）</t>
-  </si>
-  <si>
-    <t>经验观察和资料收集的指南（避免“眉毛胡子一把抓”）</t>
-  </si>
-  <si>
     <t>揭示【认识论本质】（决策者理性认识如何）的【政策过程】模型：</t>
   </si>
   <si>
@@ -1371,1253 +1359,1272 @@
     <t>【渐进主义决策】模型</t>
   </si>
   <si>
-    <t>适用于【解释开放，自由】的【多元主义社会中】</t>
-  </si>
-  <si>
     <t>对【非多元主义民主国家】【不具有解释力】</t>
   </si>
   <si>
+    <t>【混合扫描】模型（奥奇奥尼）</t>
+  </si>
+  <si>
+    <t>试图【保留理性主义模型】和【渐进注意模型】的【优势】，弥补两者的缺点</t>
+  </si>
+  <si>
+    <t>价值取向模棱两可</t>
+  </si>
+  <si>
+    <t>【政治系统】模型（戴维伊斯顿）</t>
+  </si>
+  <si>
+    <t>决策过程是“输入——决策——输出——反馈” 不断循环的过程</t>
+  </si>
+  <si>
+    <t>【最具解释力】的【宏观模型】</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>【不分析】政策的具体【特性】</t>
+  </si>
+  <si>
+    <t>揭示【社会本质的政策过程】模型：</t>
+  </si>
+  <si>
+    <t>【机构——制度】模型（应用最广泛，缺乏理论色彩的模型，托马斯戴伊）</t>
+  </si>
+  <si>
+    <t>要点：要指定一个国家的政策，【了解国家的制度】就行</t>
+  </si>
+  <si>
+    <t>不足：没有认识到【政策】【制度】的【区别】</t>
+  </si>
+  <si>
+    <t>【制度】虽然【决定政策的活动空间】，但是【无法限定政策的内容】</t>
+  </si>
+  <si>
+    <t>【政策相对灵活】，而【制度比较死板】，因此两者并不完全对应</t>
+  </si>
+  <si>
+    <t>【集团】模型（戴维杜鲁门）</t>
+  </si>
+  <si>
+    <t>要点：</t>
+  </si>
+  <si>
+    <t>【决策】是集团间【妥协的产物】</t>
+  </si>
+  <si>
+    <t>【决策的关键问题】是指定【合理的，法制化】的【竞争规则】</t>
+  </si>
+  <si>
+    <t>【政策反应】的是【占支配地位的利益集团】的【利益】</t>
+  </si>
+  <si>
+    <t>优点：反应多元社会，特别是美国公共政策的本质，过程</t>
+  </si>
+  <si>
+    <t>【重视利益集团】的作用，【否认国家的自主性】</t>
+  </si>
+  <si>
+    <t>【忽略其他重要因素】【对公共政策行程】的【影响】</t>
+  </si>
+  <si>
+    <t>【精英】模型</t>
+  </si>
+  <si>
+    <t>要点</t>
+  </si>
+  <si>
+    <t>社会分为【有权的少数人】，【无权的多数人】，公共政策由【少数精英决定】</t>
+  </si>
+  <si>
+    <t>【统治精英】并【不代表】被统治的【多数人的利益】</t>
+  </si>
+  <si>
+    <t>非精英分子被推荐到精英集团，必须接受精英集团的基本观念</t>
+  </si>
+  <si>
+    <t>精英集团基本是“铁板一块”</t>
+  </si>
+  <si>
+    <t>【政策内容】【不反应民众要求】，【只反映精英价值观】</t>
+  </si>
+  <si>
+    <t>揭示了【理论上强调】”【主权在民】“【实际】上【由少数精英主导】的【悖论】</t>
+  </si>
+  <si>
+    <t>【忽视】了现代民主国家的【公民的力量】及其参与政治的能力</t>
+  </si>
+  <si>
+    <t>上下来去，政策过程模型的构建</t>
+  </si>
+  <si>
+    <t>从认识论角度看</t>
+  </si>
+  <si>
+    <t>【基本原则】：【实事求是，一切从实际出发】</t>
+  </si>
+  <si>
+    <t>【政策指定】是【从形而上】到【形而下】的过程</t>
+  </si>
+  <si>
+    <t>【政策执行】是从形而上到形而下的过程</t>
+  </si>
+  <si>
+    <t>从主客体的关系看</t>
+  </si>
+  <si>
+    <t>【政策指定过程】：从群众中来（从民主到集中，从点到面）</t>
+  </si>
+  <si>
+    <t>【政策执行过程】：到群众中去（从集中到民主，从面到点）</t>
+  </si>
+  <si>
+    <t>容纳，开放</t>
+  </si>
+  <si>
+    <t>本土化，中国化</t>
+  </si>
+  <si>
+    <t>公共决策的【科学化】与【民主化】</t>
+  </si>
+  <si>
+    <t>决策过程的【理性化】</t>
+  </si>
+  <si>
+    <t>【公共决策的现代】化首先【是公共决策过程】的【理论化】。</t>
+  </si>
+  <si>
+    <t>【政策】指定【以科学的精神】，经【由合法的公共权力机关】，经【由合法的程序】，【获得其合法性和强制力】</t>
+  </si>
+  <si>
+    <t>决策过程的【专业化】</t>
+  </si>
+  <si>
+    <t>【政策议程的确立】需考虑【专业技术人员的意见】</t>
+  </si>
+  <si>
+    <t>【专业技术人员】提供【政策建议】，【充当参谋】</t>
+  </si>
+  <si>
+    <t>【专业人员的价值】【素质和利益】等因素经常【影响到政策实施效果】</t>
+  </si>
+  <si>
+    <t>政策效果需【专业人员来评估】</t>
+  </si>
+  <si>
+    <t>决策过程的【科学化】</t>
+  </si>
+  <si>
+    <t>【科学理论指导】【遵从科学原则】【运用科学方法】</t>
+  </si>
+  <si>
+    <t>遵循科学决策程序</t>
+  </si>
+  <si>
+    <t>决策手段科学化</t>
+  </si>
+  <si>
+    <t>决策过程的【民主化】</t>
+  </si>
+  <si>
+    <t>公民充分参与</t>
+  </si>
+  <si>
+    <t>政策内容【公益化】</t>
+  </si>
+  <si>
+    <t>体质，程序【民主】</t>
+  </si>
+  <si>
+    <t>公共问题</t>
+  </si>
+  <si>
+    <t>一定数量的【社会成员】感知其【预期的目标，价值】或境况与【现实获得的价值】，利益或境况【存在差异】，</t>
+  </si>
+  <si>
+    <t>因而【通过各种方式将其缩小差距的要求公之于众】，以争取社会的同情和支持，并谋求【引起政府关注】和【予以解决】的情景</t>
+  </si>
+  <si>
+    <t>私人问题</t>
+  </si>
+  <si>
+    <t>【实际】状态与【期望】之间的【差距】</t>
+  </si>
+  <si>
+    <t>公共政策问题的基本内涵</t>
+  </si>
+  <si>
+    <t>客观的事实或问题情境（存在矛盾）</t>
+  </si>
+  <si>
+    <t>问题的察觉（要有问题）</t>
+  </si>
+  <si>
+    <t>显示与利益期望的冲突</t>
+  </si>
+  <si>
+    <t>团体或组织活动</t>
+  </si>
+  <si>
+    <t>政府或社会公共组织的必要政策行动</t>
+  </si>
+  <si>
+    <t>【私人问题】到【政策问题】的【转化】</t>
+  </si>
+  <si>
+    <t>某人汽油用完了——私人问题</t>
+  </si>
+  <si>
+    <t>行政区出现了油慌——社会问题</t>
+  </si>
+  <si>
+    <t>油慌引起了地方政府关注，纳入当地政府的议事日程——政策问题</t>
+  </si>
+  <si>
+    <t>政策问题的基本属性</t>
+  </si>
+  <si>
+    <t>【关联性】与【公共性】（【关联性】：【不同政策】之间是【密切相关】的；【公共性】：【社会成员】存在的【公共问题】）</t>
+  </si>
+  <si>
+    <t>【客观性】与【主观性】（客观性：现实；主观性：期望；）</t>
+  </si>
+  <si>
+    <t>【历史性】与【动态性】（历史性：问题存在一段时间才会有问题；问题是随着时间变化会变化）</t>
+  </si>
+  <si>
+    <t>政策问题的【分类】（选择题，看书）</t>
+  </si>
+  <si>
+    <t>【政策问题】的【结构】</t>
+  </si>
+  <si>
+    <t>结构优良</t>
+  </si>
+  <si>
+    <t>结构适度</t>
+  </si>
+  <si>
+    <t>结构不良</t>
+  </si>
+  <si>
+    <t>【政策问题】发生的【领域】</t>
+  </si>
+  <si>
+    <t>政治问题</t>
+  </si>
+  <si>
+    <t>经济问题</t>
+  </si>
+  <si>
+    <t>文化问题</t>
+  </si>
+  <si>
+    <t>外交问题</t>
+  </si>
+  <si>
+    <t>民族问题</t>
+  </si>
+  <si>
+    <t>作用范围</t>
+  </si>
+  <si>
+    <t>国际问题</t>
+  </si>
+  <si>
+    <t>全国性问题</t>
+  </si>
+  <si>
+    <t>区域性问题</t>
+  </si>
+  <si>
+    <t>地方性问题</t>
+  </si>
+  <si>
+    <t>提出公共问题的主体（由谁提出，8类）</t>
+  </si>
+  <si>
+    <t>政府部门</t>
+  </si>
+  <si>
+    <t>政治人物</t>
+  </si>
+  <si>
+    <t>政党组织</t>
+  </si>
+  <si>
+    <t>利益集团</t>
+  </si>
+  <si>
+    <t>大众传媒</t>
+  </si>
+  <si>
+    <t>专家人士及咨询机构</t>
+  </si>
+  <si>
+    <t>公民和社会团体</t>
+  </si>
+  <si>
+    <t>是指由【政府机构】与【民间组织】及市场主体，【利益相关者】【组成】对有关【政策过程产生一定影响】的【政策社群】</t>
+  </si>
+  <si>
+    <t>不是正式组织，介于正式和飞正式组织之间的网络话联合体</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>利益型</t>
+  </si>
+  <si>
+    <t>混合型</t>
+  </si>
+  <si>
+    <t>意见型（议题网络）</t>
+  </si>
+  <si>
+    <t>问题认定的含义</t>
+  </si>
+  <si>
+    <t>【问题认定是关键第一步】，是指对需要有【公共政策】来【解决的公共问题】进行性质，范围，设计领域及【相关利益关系】的【界定过程】（比如乙肝是个人问题还是社会问题）</t>
+  </si>
+  <si>
+    <t>问题认定的方法</t>
+  </si>
+  <si>
+    <t>【边界】分析法（相关的人对同一个问题的看法）</t>
+  </si>
+  <si>
+    <t>对【政策问题】的【本质】熟悉金与【设计范围】进行【分析】和【界定方法】</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>饱和抽样</t>
+  </si>
+  <si>
+    <t>诱导性提问</t>
+  </si>
+  <si>
+    <t>边界估值</t>
+  </si>
+  <si>
+    <t>【多角度】问题</t>
+  </si>
+  <si>
+    <t>系统【运用】【个人，组织，技术】等【多重认识】来【获得】对【政策问题】的全面【了解】和【解决办法】的分析方法</t>
+  </si>
+  <si>
+    <t>【类别】分析</t>
+  </si>
+  <si>
+    <t>逻辑区分</t>
+  </si>
+  <si>
+    <t>贫富差距是经济问题，政治问题，还是自然问题</t>
+  </si>
+  <si>
+    <t>逻辑归类</t>
+  </si>
+  <si>
+    <t>水源减少，土地沙化，臭氧破坏，属于生态恶化</t>
+  </si>
+  <si>
+    <t>【层次】分析法（洋葱）</t>
+  </si>
+  <si>
+    <t>【可能】原因</t>
+  </si>
+  <si>
+    <t>合理原因</t>
+  </si>
+  <si>
+    <t>可诉原因</t>
+  </si>
+  <si>
+    <t>头脑风暴</t>
+  </si>
+  <si>
+    <t>组建团队——意见产出——意见评估——意见排序</t>
+  </si>
+  <si>
+    <t>【假设】分析</t>
+  </si>
+  <si>
+    <t>将【相互冲突的政策问题】【立论假设创】造性的综合为一体的【分析】</t>
+  </si>
+  <si>
+    <t>问题认定的步骤</t>
+  </si>
+  <si>
+    <t>四步法则（邓恩）</t>
+  </si>
+  <si>
+    <t>七步法（帕顿，沙维奇）</t>
+  </si>
+  <si>
+    <t>公共政策议程</t>
+  </si>
+  <si>
+    <t>有关【公共问题】受到【政府及公共组织】的【重视】并被正式【纳入政策讨论】和被确定为【要解决的政策问题】的过程。</t>
+  </si>
+  <si>
+    <t>公共政策议程类型</t>
+  </si>
+  <si>
+    <t>系统议程</t>
+  </si>
+  <si>
+    <t>政府议程</t>
+  </si>
+  <si>
+    <t>进入【政策议程】的【条件】和【障碍】（那些问题能进议程，哪些不能进）</t>
+  </si>
+  <si>
+    <t>进入的条件</t>
+  </si>
+  <si>
+    <t>【事件】或【问题】明朗而【严重】</t>
+  </si>
+  <si>
+    <t>【政治权威】及【专家学者】的【预测】性发动</t>
+  </si>
+  <si>
+    <t>正常，民主，开放的察觉机制与过程</t>
+  </si>
+  <si>
+    <t>障碍（进不了的情况）</t>
+  </si>
+  <si>
+    <t>事件和问题不够严重，政策问题潜在而轻微</t>
+  </si>
+  <si>
+    <t>领导人和有关学者没有观察其严重性</t>
+  </si>
+  <si>
+    <t>社会缺乏正常，民主，开发的观察机制</t>
+  </si>
+  <si>
+    <t>政策问题不符合社会既得利益者的价值规范，不符合社会制度和程序要求</t>
+  </si>
+  <si>
+    <t>表达方式不当</t>
+  </si>
+  <si>
+    <t>【政策议程】【确立过程】的模型</t>
+  </si>
+  <si>
+    <t>【外在创始模型】（【非政府提出问题】，进入公共议程，试图进入政府议程，制度基础：民主，平等社会）</t>
+  </si>
+  <si>
+    <t>【动员模型】（【政府提出问题】，扩散到公众议程，再进入政府议程，制度基础：专制社会）</t>
+  </si>
+  <si>
+    <t>【内在创始模型】（【政府提出问题】（内部事务），进入政府议程，制度基础：财富和权力高度集中的社会</t>
+  </si>
+  <si>
+    <t>【约翰金登的模型理论】（三源流理论）</t>
+  </si>
+  <si>
+    <t>【问题】流</t>
+  </si>
+  <si>
+    <t>涉及问题的是，问题如何被认知的，客观条件如何定义为问题的</t>
+  </si>
+  <si>
+    <t>【政策】流</t>
+  </si>
+  <si>
+    <t>与解决问题的技术可行性，公众接受有关</t>
+  </si>
+  <si>
+    <t>【政治】流</t>
+  </si>
+  <si>
+    <t>设计政治对于问题解决方案的影响，包括民族情绪，公众舆论，选举政治，利益集团等</t>
+  </si>
+  <si>
+    <t>【政策目标】的【含义】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了【解决特定政策问题】而【采取的行动】所要【达到的目的，指标，效果】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策目标】特征</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的针对性（不能脱离政策目标）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来的预期性（目标要有超前性，因为问题会随着环境变化而变化）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的的多元性（目标可能存在多个）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策目标的分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地位：基本（元目标），具体目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：长远，中期，近期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间：对外，对内</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策领域：政治，经济，文化，社会</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务主体：公益性，特殊性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共政策】的【基本目标】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公平</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机会公平</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配公平（付出回报公平）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终公平（平均主义）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率（成本——收益最大化）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消极自由（有权从事某些活动，不接外界干预）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极自由（做某些事情的自由）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【确定政策目标】的意义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【为政策方案的规划】和实施提供【核心的评估标准】（可能存在多个方案，所以需要评判的指标）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【为指定政策方案】提供【方向性指导】（定目标要有方向，否则会迷失）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【确定政策目标】原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实事求是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向未来</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统协调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确具体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦理考量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划（整个过程阶段论）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为【实现】一定的【政策目标】，【公共机关】组织力量【草拟整治方案】与【行为步骤】的【过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体：【多元化】与【政府主导】【并存】（应该有政府来解决）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>介于确定【政策目标】与【政策抉择】之间（有了目标才有选择）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策分析者】通过【系统的探讨政策问题】，【组合政策要素】，【产生政策方案】，以达成【政策问题能解决】的【动态调适过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【方案设计】的基本【要素】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果（多个结果尽可能接近一致）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人群</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行机构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法规</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素间联系机制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策设计逻辑结构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定（技术假定，行为假定，规范假定）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策规划】与【政策设计】的关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策规划】是政策过程【阶段论中的概念】；【政策设计】是政策过程【理论中的概念】</t>
+  </si>
+  <si>
+    <t>【政策规划】与【政策形成】密切相关；【政策设计】与【政策过程】各阶段都有密切关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策规划】偏重【理性和技术】，【政策设计】强调【技术】，也强调【政治】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体多元化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现为政府组织，管理政策规划</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要政府主导化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【主体单一】【有利于把握全局】，但【难以保证公正，科学，民主】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【主体多元】【有利于公正，科学，民主】，却可能【失于片面】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策方案的设计原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧扣政策目标（方案目的就是实现目标）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划多重方案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案彼此独立</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案要有创新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案切实可行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划的模式与参考框架</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦默和维宁：政策分析两阶段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕顿与沙维奇：政策分析六阶段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>认定和细化问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立评估标准</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认备选政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估备选政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示和区分备选政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督和评估政策实施</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学习</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策制定者】【参考，借鉴】不同国家，地址或【其他部门相关的政策方案】，【学习其中的知识】，技术或政策观念，并从其中【汲取灵感或启发】的【过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种集体学习</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是政策变迁，政策创新的重要来源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响政策学习的因素（成功失败的因素）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府面临问题的性质（别人碰到的问题和我碰到的问题是不是一样）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织内部的文化和价值。（因文化价值的问题阻碍学习）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织环境</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学习的类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念（问题）学习（比如花钱学习就像投资）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具学习，学习是技术，政策制定，政策过程，政策工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会学习，学习政策价值及其规范，目标，责任等深层次的特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用采纳其他国家的公共政策，行政体制，制度其思想来解决本国所面临的的政策问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球化和信息化是政策移植现象增加的重要原因</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策可以发生在政策过程的各个阶段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植对象主要是政策目标，政策内容，政策工具（移植什么）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策借鉴程度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制（完全移植）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效仿（借鉴政策理念）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合（混合不同的政策）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策意愿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自愿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被迫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息不全的政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完全的政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不当的政策移植</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的抉择主体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家元首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政首长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>民意代表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法官</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执政党首脑和军事首脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策的抉择原则（不允许犯的低级错误）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊重科学分析的价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑各方利益的平衡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发挥决策者能动作用（决策者不能优柔寡断）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵照有关程序的规定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证六大要素</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策主张</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立论理由</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立论依据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳斥理由</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可信度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证的特殊形式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策探究</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕特定政策议题或对政策方案某些论证进行辩护的过程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证是“自言自语”，政策对话是“双向沟通”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>两类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>共识性政策对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突性政策对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策抉择过程有3个环节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策采纳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后对该方案进行可行性评估，进而形成可供采纳和批准的政策文本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策者对各个方案进行最后的比较，从中选择最满意的一个方案，或以某一方案为主，综合吸收其他方案的优点，从而形成一个新方案；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议方法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议含义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估和择优，两者的基础是比较</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策目标，具体目标，评估标准，测量指标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从【步骤】看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案调查，详细研究，进一步分析，试验式证实</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从【方法】看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外推预测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予目前的状况和观察到的历史趋势，向未来进行外推。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本假设：过去的趋势会向未来延续，而不问其原因。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要方法：均值预测，现行回归法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论预测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本方法：用一系列【技术和假设】【建立】简化的理论【表达式】（模型），然后用该模型【进行预测】（参考黄石公园火灾）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断预测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据：专家的判断，直觉，灵感，洞察力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从【标准】看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议方法预测性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议可行性评估</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案在技术上能否达到预期目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴现，成本——收益分析法，成本——效果分析法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公平性，分析来自于”人“的有利或不利因素</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政可行性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政环境，执行人员对政策的态度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策抉择主体【依据有关法律】，【按照法定程序】【对政策方案】加以【审查，批准，签署，发布的过程】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策采纳内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容合法（不能与宪法和法律相抵触）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序合法（合乎法定程序）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政系统的决策程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法制部门审查</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导会议讨论决定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政首长签署发布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法系统的决策程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出议案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审议议案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过议案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公布政策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的含义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型的决策，具有【不可逆转性】，要求在【很短时间】里以及【有限资源约束下】做出重大，【快速反应】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的要素</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策问题的发生，发展具有突然性，急剧性，需要当机立断</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可供利用的时间，信息等资源非常有限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事态发展危机根本利益，决策后果很难预料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的【根源】在于【常规决策】的【具体运作效果】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策可以【完善常规决策】，常规决策中的制度建构也必须从危机事件及危机决策过程中西区有益的经验和教训</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策与常规决策的联系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据【相似性原则】构造出来的一种【理念系统】【以代表】【作为研究对象的正式系统】即【实际存在的事物】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过模型来【认识】【原型】的【本质】，进而【对原型的运作与发展趋势】做出【有效预测】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【经验观察和资料收集】的【指南】（避免“眉毛胡子一把抓”）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【科学抽象】的【重要工具】（帮助研究者阻止思想，激发想象力与洞察力）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>具有【保守型】，模型【排除了政策创新】的可能</t>
-  </si>
-  <si>
-    <t>【混合扫描】模型（奥奇奥尼）</t>
-  </si>
-  <si>
-    <t>试图【保留理性主义模型】和【渐进注意模型】的【优势】，弥补两者的缺点</t>
-  </si>
-  <si>
-    <t>价值取向模棱两可</t>
-  </si>
-  <si>
-    <t>【政治系统】模型（戴维伊斯顿）</t>
-  </si>
-  <si>
-    <t>决策过程是“输入——决策——输出——反馈” 不断循环的过程</t>
-  </si>
-  <si>
-    <t>【最具解释力】的【宏观模型】</t>
-  </si>
-  <si>
-    <t>缺点</t>
-  </si>
-  <si>
-    <t>【不分析】政策的具体【特性】</t>
-  </si>
-  <si>
-    <t>揭示【社会本质的政策过程】模型：</t>
-  </si>
-  <si>
-    <t>【机构——制度】模型（应用最广泛，缺乏理论色彩的模型，托马斯戴伊）</t>
-  </si>
-  <si>
-    <t>要点：要指定一个国家的政策，【了解国家的制度】就行</t>
-  </si>
-  <si>
-    <t>不足：没有认识到【政策】【制度】的【区别】</t>
-  </si>
-  <si>
-    <t>【制度】虽然【决定政策的活动空间】，但是【无法限定政策的内容】</t>
-  </si>
-  <si>
-    <t>【政策相对灵活】，而【制度比较死板】，因此两者并不完全对应</t>
-  </si>
-  <si>
-    <t>【集团】模型（戴维杜鲁门）</t>
-  </si>
-  <si>
-    <t>要点：</t>
-  </si>
-  <si>
-    <t>【决策过程】（政治过程）是各级团争取【影响】政策的【行为过程】</t>
-  </si>
-  <si>
-    <t>【决策】是集团间【妥协的产物】</t>
-  </si>
-  <si>
-    <t>【决策的关键问题】是指定【合理的，法制化】的【竞争规则】</t>
-  </si>
-  <si>
-    <t>【政策反应】的是【占支配地位的利益集团】的【利益】</t>
-  </si>
-  <si>
-    <t>优点：反应多元社会，特别是美国公共政策的本质，过程</t>
-  </si>
-  <si>
-    <t>【重视利益集团】的作用，【否认国家的自主性】</t>
-  </si>
-  <si>
-    <t>【忽略其他重要因素】【对公共政策行程】的【影响】</t>
-  </si>
-  <si>
-    <t>【精英】模型</t>
-  </si>
-  <si>
-    <t>要点</t>
-  </si>
-  <si>
-    <t>社会分为【有权的少数人】，【无权的多数人】，公共政策由【少数精英决定】</t>
-  </si>
-  <si>
-    <t>【统治精英】并【不代表】被统治的【多数人的利益】</t>
-  </si>
-  <si>
-    <t>非精英分子被推荐到精英集团，必须接受精英集团的基本观念</t>
-  </si>
-  <si>
-    <t>精英集团基本是“铁板一块”</t>
-  </si>
-  <si>
-    <t>【政策内容】【不反应民众要求】，【只反映精英价值观】</t>
-  </si>
-  <si>
-    <t>揭示了【理论上强调】”【主权在民】“【实际】上【由少数精英主导】的【悖论】</t>
-  </si>
-  <si>
-    <t>【忽视】了现代民主国家的【公民的力量】及其参与政治的能力</t>
-  </si>
-  <si>
-    <t>上下来去，政策过程模型的构建</t>
-  </si>
-  <si>
-    <t>从认识论角度看</t>
-  </si>
-  <si>
-    <t>【基本原则】：【实事求是，一切从实际出发】</t>
-  </si>
-  <si>
-    <t>【政策指定】是【从形而上】到【形而下】的过程</t>
-  </si>
-  <si>
-    <t>【政策执行】是从形而上到形而下的过程</t>
-  </si>
-  <si>
-    <t>从主客体的关系看</t>
-  </si>
-  <si>
-    <t>【政策指定过程】：从群众中来（从民主到集中，从点到面）</t>
-  </si>
-  <si>
-    <t>【政策执行过程】：到群众中去（从集中到民主，从面到点）</t>
-  </si>
-  <si>
-    <t>容纳，开放</t>
-  </si>
-  <si>
-    <t>本土化，中国化</t>
-  </si>
-  <si>
-    <t>公共决策的【科学化】与【民主化】</t>
-  </si>
-  <si>
-    <t>决策过程的【理性化】</t>
-  </si>
-  <si>
-    <t>【公共决策的现代】化首先【是公共决策过程】的【理论化】。</t>
-  </si>
-  <si>
-    <t>【政策】指定【以科学的精神】，经【由合法的公共权力机关】，经【由合法的程序】，【获得其合法性和强制力】</t>
-  </si>
-  <si>
-    <t>决策过程的【专业化】</t>
-  </si>
-  <si>
-    <t>【政策议程的确立】需考虑【专业技术人员的意见】</t>
-  </si>
-  <si>
-    <t>【专业技术人员】提供【政策建议】，【充当参谋】</t>
-  </si>
-  <si>
-    <t>【专业人员的价值】【素质和利益】等因素经常【影响到政策实施效果】</t>
-  </si>
-  <si>
-    <t>政策效果需【专业人员来评估】</t>
-  </si>
-  <si>
-    <t>决策过程的【科学化】</t>
-  </si>
-  <si>
-    <t>【科学理论指导】【遵从科学原则】【运用科学方法】</t>
-  </si>
-  <si>
-    <t>遵循科学决策程序</t>
-  </si>
-  <si>
-    <t>决策手段科学化</t>
-  </si>
-  <si>
-    <t>决策过程的【民主化】</t>
-  </si>
-  <si>
-    <t>公民充分参与</t>
-  </si>
-  <si>
-    <t>政策内容【公益化】</t>
-  </si>
-  <si>
-    <t>体质，程序【民主】</t>
-  </si>
-  <si>
-    <t>公共问题</t>
-  </si>
-  <si>
-    <t>一定数量的【社会成员】感知其【预期的目标，价值】或境况与【现实获得的价值】，利益或境况【存在差异】，</t>
-  </si>
-  <si>
-    <t>因而【通过各种方式将其缩小差距的要求公之于众】，以争取社会的同情和支持，并谋求【引起政府关注】和【予以解决】的情景</t>
-  </si>
-  <si>
-    <t>私人问题</t>
-  </si>
-  <si>
-    <t>【实际】状态与【期望】之间的【差距】</t>
-  </si>
-  <si>
-    <t>公共政策问题的基本内涵</t>
-  </si>
-  <si>
-    <t>客观的事实或问题情境（存在矛盾）</t>
-  </si>
-  <si>
-    <t>问题的察觉（要有问题）</t>
-  </si>
-  <si>
-    <t>显示与利益期望的冲突</t>
-  </si>
-  <si>
-    <t>团体或组织活动</t>
-  </si>
-  <si>
-    <t>政府或社会公共组织的必要政策行动</t>
-  </si>
-  <si>
-    <t>【私人问题】到【政策问题】的【转化】</t>
-  </si>
-  <si>
-    <t>某人汽油用完了——私人问题</t>
-  </si>
-  <si>
-    <t>行政区出现了油慌——社会问题</t>
-  </si>
-  <si>
-    <t>油慌引起了地方政府关注，纳入当地政府的议事日程——政策问题</t>
-  </si>
-  <si>
-    <t>政策问题的基本属性</t>
-  </si>
-  <si>
-    <t>【关联性】与【公共性】（【关联性】：【不同政策】之间是【密切相关】的；【公共性】：【社会成员】存在的【公共问题】）</t>
-  </si>
-  <si>
-    <t>【客观性】与【主观性】（客观性：现实；主观性：期望；）</t>
-  </si>
-  <si>
-    <t>【历史性】与【动态性】（历史性：问题存在一段时间才会有问题；问题是随着时间变化会变化）</t>
-  </si>
-  <si>
-    <t>政策问题的【分类】（选择题，看书）</t>
-  </si>
-  <si>
-    <t>【政策问题】的【结构】</t>
-  </si>
-  <si>
-    <t>结构优良</t>
-  </si>
-  <si>
-    <t>结构适度</t>
-  </si>
-  <si>
-    <t>结构不良</t>
-  </si>
-  <si>
-    <t>【政策问题】发生的【领域】</t>
-  </si>
-  <si>
-    <t>政治问题</t>
-  </si>
-  <si>
-    <t>经济问题</t>
-  </si>
-  <si>
-    <t>文化问题</t>
-  </si>
-  <si>
-    <t>外交问题</t>
-  </si>
-  <si>
-    <t>民族问题</t>
-  </si>
-  <si>
-    <t>作用范围</t>
-  </si>
-  <si>
-    <t>国际问题</t>
-  </si>
-  <si>
-    <t>全国性问题</t>
-  </si>
-  <si>
-    <t>区域性问题</t>
-  </si>
-  <si>
-    <t>地方性问题</t>
-  </si>
-  <si>
-    <t>提出公共问题的主体（由谁提出，8类）</t>
-  </si>
-  <si>
-    <t>政府部门</t>
-  </si>
-  <si>
-    <t>政治人物</t>
-  </si>
-  <si>
-    <t>政党组织</t>
-  </si>
-  <si>
-    <t>利益集团</t>
-  </si>
-  <si>
-    <t>大众传媒</t>
-  </si>
-  <si>
-    <t>专家人士及咨询机构</t>
-  </si>
-  <si>
-    <t>公民和社会团体</t>
-  </si>
-  <si>
-    <t>是指由【政府机构】与【民间组织】及市场主体，【利益相关者】【组成】对有关【政策过程产生一定影响】的【政策社群】</t>
-  </si>
-  <si>
-    <t>不是正式组织，介于正式和飞正式组织之间的网络话联合体</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>利益型</t>
-  </si>
-  <si>
-    <t>混合型</t>
-  </si>
-  <si>
-    <t>意见型（议题网络）</t>
-  </si>
-  <si>
-    <t>问题认定的含义</t>
-  </si>
-  <si>
-    <t>【问题认定是关键第一步】，是指对需要有【公共政策】来【解决的公共问题】进行性质，范围，设计领域及【相关利益关系】的【界定过程】（比如乙肝是个人问题还是社会问题）</t>
-  </si>
-  <si>
-    <t>问题认定的方法</t>
-  </si>
-  <si>
-    <t>【边界】分析法（相关的人对同一个问题的看法）</t>
-  </si>
-  <si>
-    <t>对【政策问题】的【本质】熟悉金与【设计范围】进行【分析】和【界定方法】</t>
-  </si>
-  <si>
-    <t>步骤</t>
-  </si>
-  <si>
-    <t>饱和抽样</t>
-  </si>
-  <si>
-    <t>诱导性提问</t>
-  </si>
-  <si>
-    <t>边界估值</t>
-  </si>
-  <si>
-    <t>【多角度】问题</t>
-  </si>
-  <si>
-    <t>系统【运用】【个人，组织，技术】等【多重认识】来【获得】对【政策问题】的全面【了解】和【解决办法】的分析方法</t>
-  </si>
-  <si>
-    <t>【类别】分析</t>
-  </si>
-  <si>
-    <t>逻辑区分</t>
-  </si>
-  <si>
-    <t>贫富差距是经济问题，政治问题，还是自然问题</t>
-  </si>
-  <si>
-    <t>逻辑归类</t>
-  </si>
-  <si>
-    <t>水源减少，土地沙化，臭氧破坏，属于生态恶化</t>
-  </si>
-  <si>
-    <t>【层次】分析法（洋葱）</t>
-  </si>
-  <si>
-    <t>【可能】原因</t>
-  </si>
-  <si>
-    <t>合理原因</t>
-  </si>
-  <si>
-    <t>可诉原因</t>
-  </si>
-  <si>
-    <t>头脑风暴</t>
-  </si>
-  <si>
-    <t>组建团队——意见产出——意见评估——意见排序</t>
-  </si>
-  <si>
-    <t>【假设】分析</t>
-  </si>
-  <si>
-    <t>将【相互冲突的政策问题】【立论假设创】造性的综合为一体的【分析】</t>
-  </si>
-  <si>
-    <t>问题认定的步骤</t>
-  </si>
-  <si>
-    <t>四步法则（邓恩）</t>
-  </si>
-  <si>
-    <t>七步法（帕顿，沙维奇）</t>
-  </si>
-  <si>
-    <t>公共政策议程</t>
-  </si>
-  <si>
-    <t>有关【公共问题】受到【政府及公共组织】的【重视】并被正式【纳入政策讨论】和被确定为【要解决的政策问题】的过程。</t>
-  </si>
-  <si>
-    <t>公共政策议程类型</t>
-  </si>
-  <si>
-    <t>系统议程</t>
-  </si>
-  <si>
-    <t>政府议程</t>
-  </si>
-  <si>
-    <t>进入【政策议程】的【条件】和【障碍】（那些问题能进议程，哪些不能进）</t>
-  </si>
-  <si>
-    <t>进入的条件</t>
-  </si>
-  <si>
-    <t>【事件】或【问题】明朗而【严重】</t>
-  </si>
-  <si>
-    <t>【政治权威】及【专家学者】的【预测】性发动</t>
-  </si>
-  <si>
-    <t>正常，民主，开放的察觉机制与过程</t>
-  </si>
-  <si>
-    <t>障碍（进不了的情况）</t>
-  </si>
-  <si>
-    <t>事件和问题不够严重，政策问题潜在而轻微</t>
-  </si>
-  <si>
-    <t>领导人和有关学者没有观察其严重性</t>
-  </si>
-  <si>
-    <t>社会缺乏正常，民主，开发的观察机制</t>
-  </si>
-  <si>
-    <t>政策问题不符合社会既得利益者的价值规范，不符合社会制度和程序要求</t>
-  </si>
-  <si>
-    <t>表达方式不当</t>
-  </si>
-  <si>
-    <t>【政策议程】【确立过程】的模型</t>
-  </si>
-  <si>
-    <t>【外在创始模型】（【非政府提出问题】，进入公共议程，试图进入政府议程，制度基础：民主，平等社会）</t>
-  </si>
-  <si>
-    <t>【动员模型】（【政府提出问题】，扩散到公众议程，再进入政府议程，制度基础：专制社会）</t>
-  </si>
-  <si>
-    <t>【内在创始模型】（【政府提出问题】（内部事务），进入政府议程，制度基础：财富和权力高度集中的社会</t>
-  </si>
-  <si>
-    <t>【约翰金登的模型理论】（三源流理论）</t>
-  </si>
-  <si>
-    <t>【问题】流</t>
-  </si>
-  <si>
-    <t>涉及问题的是，问题如何被认知的，客观条件如何定义为问题的</t>
-  </si>
-  <si>
-    <t>【政策】流</t>
-  </si>
-  <si>
-    <t>与解决问题的技术可行性，公众接受有关</t>
-  </si>
-  <si>
-    <t>【政治】流</t>
-  </si>
-  <si>
-    <t>设计政治对于问题解决方案的影响，包括民族情绪，公众舆论，选举政治，利益集团等</t>
-  </si>
-  <si>
-    <t>【政策目标】的【含义】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了【解决特定政策问题】而【采取的行动】所要【达到的目的，指标，效果】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政策目标】特征</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题的针对性（不能脱离政策目标）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来的预期性（目标要有超前性，因为问题会随着环境变化而变化）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的的多元性（目标可能存在多个）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策目标的分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标地位：基本（元目标），具体目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：长远，中期，近期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间：对外，对内</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策领域：政治，经济，文化，社会</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务主体：公益性，特殊性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【公共政策】的【基本目标】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公平</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机会公平</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分配公平（付出回报公平）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终公平（平均主义）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>效率（成本——收益最大化）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消极自由（有权从事某些活动，不接外界干预）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积极自由（做某些事情的自由）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【确定政策目标】的意义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【为政策方案的规划】和实施提供【核心的评估标准】（可能存在多个方案，所以需要评判的指标）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【为指定政策方案】提供【方向性指导】（定目标要有方向，否则会迷失）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【确定政策目标】原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实事求是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向未来</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统协调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确具体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伦理考量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策规划（整个过程阶段论）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>特点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为【实现】一定的【政策目标】，【公共机关】组织力量【草拟整治方案】与【行为步骤】的【过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主体：【多元化】与【政府主导】【并存】（应该有政府来解决）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>介于确定【政策目标】与【政策抉择】之间（有了目标才有选择）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政策分析者】通过【系统的探讨政策问题】，【组合政策要素】，【产生政策方案】，以达成【政策问题能解决】的【动态调适过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【方案设计】的基本【要素】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果（多个结果尽可能接近一致）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人群</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行机构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>法规</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要素间联系机制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策设计逻辑结构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>假定（技术假定，行为假定，规范假定）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政策规划】与【政策设计】的关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政策规划】是政策过程【阶段论中的概念】；【政策设计】是政策过程【理论中的概念】</t>
-  </si>
-  <si>
-    <t>【政策规划】与【政策形成】密切相关；【政策设计】与【政策过程】各阶段都有密切关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政策规划】偏重【理性和技术】，【政策设计】强调【技术】，也强调【政治】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主体多元化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体现为政府组织，管理政策规划</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要政府主导化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【主体单一】【有利于把握全局】，但【难以保证公正，科学，民主】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【主体多元】【有利于公正，科学，民主】，却可能【失于片面】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策方案的设计原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧扣政策目标（方案目的就是实现目标）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划多重方案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案彼此独立</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案要有创新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案切实可行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策规划的模式与参考框架</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦默和维宁：政策分析两阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕顿与沙维奇：政策分析六阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>认定和细化问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立评估标准</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认备选政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估备选政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示和区分备选政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>监督和评估政策实施</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策学习</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政策制定者】【参考，借鉴】不同国家，地址或【其他部门相关的政策方案】，【学习其中的知识】，技术或政策观念，并从其中【汲取灵感或启发】的【过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是一种集体学习</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是政策变迁，政策创新的重要来源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响政策学习的因素（成功失败的因素）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府面临问题的性质（别人碰到的问题和我碰到的问题是不是一样）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织内部的文化和价值。（因文化价值的问题阻碍学习）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织环境</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策学习的类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>概念（问题）学习（比如花钱学习就像投资）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具学习，学习是技术，政策制定，政策过程，政策工具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会学习，学习政策价值及其规范，目标，责任等深层次的特性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用采纳其他国家的公共政策，行政体制，制度其思想来解决本国所面临的的政策问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球化和信息化是政策移植现象增加的重要原因</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策可以发生在政策过程的各个阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>移植对象主要是政策目标，政策内容，政策工具（移植什么）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策移植类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策借鉴程度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制（完全移植）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>效仿（借鉴政策理念）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合（混合不同的政策）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策意愿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自愿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>被迫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策移植失败</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息不全的政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不完全的政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不当的政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共政策的抉择主体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家元首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政首长</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>民意代表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>法官</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>执政党首脑和军事首脑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共决策的抉择原则（不允许犯的低级错误）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊重科学分析的价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑各方利益的平衡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>发挥决策者能动作用（决策者不能优柔寡断）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>遵照有关程序的规定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策论证六大要素</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策主张</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>立论理由</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>立论依据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>驳斥理由</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可信度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策论证的特殊形式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策探究</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>围绕特定政策议题或对政策方案某些论证进行辩护的过程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策论证是“自言自语”，政策对话是“双向沟通”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>两类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>共识性政策对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲突性政策对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策抉择过程有3个环节</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策论证</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策审议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策采纳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后对该方案进行可行性评估，进而形成可供采纳和批准的政策文本</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策者对各个方案进行最后的比较，从中选择最满意的一个方案，或以某一方案为主，综合吸收其他方案的优点，从而形成一个新方案；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策审议方法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策审议含义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估和择优，两者的基础是比较</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>两种</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可行性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策目标，具体目标，评估标准，测量指标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从【步骤】看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案调查，详细研究，进一步分析，试验式证实</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从【方法】看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>外推预测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予目前的状况和观察到的历史趋势，向未来进行外推。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本假设：过去的趋势会向未来延续，而不问其原因。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要方法：均值预测，现行回归法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论预测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本方法：用一系列【技术和假设】【建立】简化的理论【表达式】（模型），然后用该模型【进行预测】（参考黄石公园火灾）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断预测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>依据：专家的判断，直觉，灵感，洞察力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从【标准】看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策审议方法预测性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策审议可行性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案在技术上能否达到预期目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴现，成本——收益分析法，成本——效果分析法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公平性，分析来自于”人“的有利或不利因素</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政环境，执行人员对政策的态度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策抉择主体【依据有关法律】，【按照法定程序】【对政策方案】加以【审查，批准，签署，发布的过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策采纳内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容合法（不能与宪法和法律相抵触）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序合法（合乎法定程序）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政系统的决策程序</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>法制部门审查</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导会议讨论决定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政首长签署发布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>立法系统的决策程序</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出议案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>审议议案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过议案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公布政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>危机决策的含义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊类型的决策，具有【不可逆转性】，要求在【很短时间】里以及【有限资源约束下】做出重大，【快速反应】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>危机决策的要素</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策问题的发生，发展具有突然性，急剧性，需要当机立断</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可供利用的时间，信息等资源非常有限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>事态发展危机根本利益，决策后果很难预料</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>危机决策的【根源】在于【常规决策】的【具体运作效果】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>危机决策可以【完善常规决策】，常规决策中的制度建构也必须从危机事件及危机决策过程中西区有益的经验和教训</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>危机决策与常规决策的联系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于【解释】【开放，自由】的【多元主义社会中】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【决策过程】（政治过程）是【各集团争取影响政策】的【行为过程】</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5227,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5244,447 +5251,447 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
-        <v>424</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>426</v>
+      <c r="B5" s="7" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>427</v>
+      <c r="B6" s="7" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>428</v>
+      <c r="B7" s="7" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>448</v>
+        <v>435</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="4" t="s">
-        <v>450</v>
+      <c r="C31" s="7" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C75" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C76" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C88" s="4" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C89" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C91" s="4" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C92" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C93" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B94" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C95" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5709,211 +5716,211 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -5926,280 +5933,280 @@
         <v>327</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C69" s="2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C70" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C73" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C80" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C95" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C99" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C100" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C101" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C102" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C103" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B108" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -6212,7 +6219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F5A48-A18C-48CF-A9E3-974DB1A960ED}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
@@ -6224,915 +6231,915 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C24" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C49" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C50" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C51" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C55" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C56" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C57" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C66" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C68" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C69" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C80" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C81" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C85" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C86" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C87" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C88" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C89" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B93" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B96" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B97" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B98" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B101" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B108" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D112" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D113" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D114" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B116" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C117" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B120" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B121" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B122" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="8" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B126" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B129" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="8" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="8" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B138" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B139" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" s="7" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B141" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B142" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B146" s="7" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B148" s="7" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C150" s="7" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D151" s="7" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B154" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B156" s="7" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="8" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B159" s="7" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B160" s="7" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="8" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B163" s="7" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" s="7" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C166" s="7" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="8" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B169" s="7" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C170" s="7" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B171" s="7" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C172" s="7" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B173" s="7" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C174" s="7" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D175" s="7" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D176" s="7" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C178" s="7" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C180" s="7" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="8" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B183" s="7" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B184" s="7" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B185" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B186" s="7" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="8" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B189" s="7" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="8" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B192" s="7" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B193" s="7" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B194" s="7" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C195" s="7" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C196" s="7" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C197" s="7" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B198" s="7" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C199" s="7" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C200" s="7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C201" s="7" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C202" s="7" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="8" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B205" s="7" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="8" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B208" s="7" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B209" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B210" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="8" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B213" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B214" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BC27E-A49C-49B6-9717-224EF7EC6CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" tabRatio="636" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="636" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="802">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1299,9 +1293,21 @@
     <t>模型</t>
   </si>
   <si>
+    <t>依据【相似性原则】构造出来的一种【理念系统】【以代表】【作为研究对象的正式系统】即【实际存在的事物】</t>
+  </si>
+  <si>
     <t>模型的认识论意义</t>
   </si>
   <si>
+    <t>通过模型来【认识】【原型】的【本质】，进而【对原型的运作与发展趋势】做出【有效预测】</t>
+  </si>
+  <si>
+    <t>【科学抽象】的【重要工具】（帮助研究者阻止思想，激发想象力与洞察力）</t>
+  </si>
+  <si>
+    <t>【经验观察和资料收集】的【指南】（避免“眉毛胡子一把抓”）</t>
+  </si>
+  <si>
     <t>揭示【认识论本质】（决策者理性认识如何）的【政策过程】模型：</t>
   </si>
   <si>
@@ -1359,9 +1365,15 @@
     <t>【渐进主义决策】模型</t>
   </si>
   <si>
+    <t>适用于【解释】【开放，自由】的【多元主义社会中】</t>
+  </si>
+  <si>
     <t>对【非多元主义民主国家】【不具有解释力】</t>
   </si>
   <si>
+    <t>具有【保守型】，模型【排除了政策创新】的可能</t>
+  </si>
+  <si>
     <t>【混合扫描】模型（奥奇奥尼）</t>
   </si>
   <si>
@@ -1410,6 +1422,9 @@
     <t>要点：</t>
   </si>
   <si>
+    <t>【决策过程】（政治过程）是【各集团争取影响政策】的【行为过程】</t>
+  </si>
+  <si>
     <t>【决策】是集团间【妥协的产物】</t>
   </si>
   <si>
@@ -1539,10 +1554,13 @@
     <t>公共问题</t>
   </si>
   <si>
-    <t>一定数量的【社会成员】感知其【预期的目标，价值】或境况与【现实获得的价值】，利益或境况【存在差异】，</t>
-  </si>
-  <si>
-    <t>因而【通过各种方式将其缩小差距的要求公之于众】，以争取社会的同情和支持，并谋求【引起政府关注】和【予以解决】的情景</t>
+    <t>一定数量的【社会成员】【感知】其【预期的目标，价值】或境况与【现实获得的价值】，利益或境况【存在差异】，</t>
+  </si>
+  <si>
+    <t>因而【通过各种方式将其缩小差距的要求公之于众】，</t>
+  </si>
+  <si>
+    <t>以争取社会的同情和支持，并谋求【引起政府关注】和【予以解决】的情景</t>
   </si>
   <si>
     <t>私人问题</t>
@@ -1560,13 +1578,13 @@
     <t>问题的察觉（要有问题）</t>
   </si>
   <si>
-    <t>显示与利益期望的冲突</t>
-  </si>
-  <si>
-    <t>团体或组织活动</t>
-  </si>
-  <si>
-    <t>政府或社会公共组织的必要政策行动</t>
+    <t>【显示】【与利益期望的】【冲突】</t>
+  </si>
+  <si>
+    <t>【团体】或【组织活动】</t>
+  </si>
+  <si>
+    <t>政府或社会公共组织的必要【政策行动】</t>
   </si>
   <si>
     <t>【私人问题】到【政策问题】的【转化】</t>
@@ -1593,7 +1611,7 @@
     <t>【历史性】与【动态性】（历史性：问题存在一段时间才会有问题；问题是随着时间变化会变化）</t>
   </si>
   <si>
-    <t>政策问题的【分类】（选择题，看书）</t>
+    <t>政策问题的【分类】（选择题，看书）：</t>
   </si>
   <si>
     <t>【政策问题】的【结构】</t>
@@ -1665,7 +1683,7 @@
     <t>公民和社会团体</t>
   </si>
   <si>
-    <t>是指由【政府机构】与【民间组织】及市场主体，【利益相关者】【组成】对有关【政策过程产生一定影响】的【政策社群】</t>
+    <t>是指由【政府机构】与【民间组织】及市场主体，【利益相关者】【组成】【对】有关【政策过程产生一定影响】的【政策社群】</t>
   </si>
   <si>
     <t>不是正式组织，介于正式和飞正式组织之间的网络话联合体</t>
@@ -1686,7 +1704,7 @@
     <t>问题认定的含义</t>
   </si>
   <si>
-    <t>【问题认定是关键第一步】，是指对需要有【公共政策】来【解决的公共问题】进行性质，范围，设计领域及【相关利益关系】的【界定过程】（比如乙肝是个人问题还是社会问题）</t>
+    <t>【问题认定是关键第一步】，是指对【需要有公共政策来解决的公共问题】进行【性质，范围，设计领域】及【相关利益关系】的【界定过程】（比如乙肝是个人问题还是社会问题）</t>
   </si>
   <si>
     <t>问题认定的方法</t>
@@ -1752,7 +1770,7 @@
     <t>【假设】分析</t>
   </si>
   <si>
-    <t>将【相互冲突的政策问题】【立论假设创】造性的综合为一体的【分析】</t>
+    <t>将【相互冲突的政策问题】【立论假设】创造性的综合为一体的【分析】</t>
   </si>
   <si>
     <t>问题认定的步骤</t>
@@ -1767,7 +1785,7 @@
     <t>公共政策议程</t>
   </si>
   <si>
-    <t>有关【公共问题】受到【政府及公共组织】的【重视】并被正式【纳入政策讨论】和被确定为【要解决的政策问题】的过程。</t>
+    <t>有关【公共问题】受到【政府及公共组织】的【重视】并被正式【纳入政策讨论】和被确定为【要解决的政策问题】的【过程】</t>
   </si>
   <si>
     <t>公共政策议程类型</t>
@@ -1791,22 +1809,22 @@
     <t>【政治权威】及【专家学者】的【预测】性发动</t>
   </si>
   <si>
-    <t>正常，民主，开放的察觉机制与过程</t>
+    <t>【正常，民主，开放】的【察觉机制与过程】</t>
   </si>
   <si>
     <t>障碍（进不了的情况）</t>
   </si>
   <si>
-    <t>事件和问题不够严重，政策问题潜在而轻微</t>
-  </si>
-  <si>
-    <t>领导人和有关学者没有观察其严重性</t>
-  </si>
-  <si>
-    <t>社会缺乏正常，民主，开发的观察机制</t>
-  </si>
-  <si>
-    <t>政策问题不符合社会既得利益者的价值规范，不符合社会制度和程序要求</t>
+    <t>【事件和问题不够严重】，政策问题潜在而轻微</t>
+  </si>
+  <si>
+    <t>领导人和有关学者【没有观察其严重性】</t>
+  </si>
+  <si>
+    <t>社会【缺乏】【正常，民主，开发的观察机制】</t>
+  </si>
+  <si>
+    <t>政策问题【不符合社会既得利益者的价值规范】，不符合社会制度和程序要求</t>
   </si>
   <si>
     <t>表达方式不当</t>
@@ -1846,799 +1864,599 @@
   </si>
   <si>
     <t>【政策目标】的【含义】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>为了【解决特定政策问题】而【采取的行动】所要【达到的目的，指标，效果】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【政策目标】特征</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>问题的针对性（不能脱离政策目标）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>未来的预期性（目标要有超前性，因为问题会随着环境变化而变化）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目的的多元性（目标可能存在多个）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策目标的分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目标地位：基本（元目标），具体目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>时间：长远，中期，近期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>空间：对外，对内</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策领域：政治，经济，文化，社会</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>服务主体：公益性，特殊性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【公共政策】的【基本目标】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公平</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>机会公平</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分配公平（付出回报公平）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最终公平（平均主义）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>效率（成本——收益最大化）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自由</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>消极自由（有权从事某些活动，不接外界干预）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>积极自由（做某些事情的自由）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>安全</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【确定政策目标】的意义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【为指定政策方案】提供【方向性指导】（定目标要有方向，否则会迷失）</t>
   </si>
   <si>
     <t>【为政策方案的规划】和实施提供【核心的评估标准】（可能存在多个方案，所以需要评判的指标）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【为指定政策方案】提供【方向性指导】（定目标要有方向，否则会迷失）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【确定政策目标】原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实事求是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>面向未来</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>系统协调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>明确具体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伦理考量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策规划（整个过程阶段论）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为【实现】一定的【政策目标】，【公共机关】组织力量【草拟整治方案】与【行为步骤】的【过程】</t>
   </si>
   <si>
     <t>特点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为【实现】一定的【政策目标】，【公共机关】组织力量【草拟整治方案】与【行为步骤】的【过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主体：【多元化】与【政府主导】【并存】（应该有政府来解决）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>介于确定【政策目标】与【政策抉择】之间（有了目标才有选择）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【政策分析者】通过【系统的探讨政策问题】，【组合政策要素】，【产生政策方案】，以达成【政策问题能解决】的【动态调适过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策设计逻辑结构</t>
   </si>
   <si>
     <t>【方案设计】的基本【要素】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>结果（多个结果尽可能接近一致）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人群</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>执行机构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法规</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>要素间联系机制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策设计逻辑结构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>假定（技术假定，行为假定，规范假定）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【政策规划】与【政策设计】的关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【政策规划】是政策过程【阶段论中的概念】；【政策设计】是政策过程【理论中的概念】</t>
   </si>
   <si>
     <t>【政策规划】与【政策形成】密切相关；【政策设计】与【政策过程】各阶段都有密切关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【政策规划】偏重【理性和技术】，【政策设计】强调【技术】，也强调【政治】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要政府主导化</t>
+  </si>
+  <si>
+    <t>体现为政府组织，管理政策规划</t>
   </si>
   <si>
     <t>主体多元化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体现为政府组织，管理政策规划</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要政府主导化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【主体单一】【有利于把握全局】，但【难以保证公正，科学，民主】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【主体多元】【有利于公正，科学，民主】，却可能【失于片面】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策方案的设计原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>紧扣政策目标（方案目的就是实现目标）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规划多重方案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方案彼此独立</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方案要有创新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方案切实可行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策规划的模式与参考框架</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>韦默和维宁：政策分析两阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>问题分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>解决问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>帕顿与沙维奇：政策分析六阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>认定和细化问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>建立评估标准</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>确认备选政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评估备选政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示和区分备选政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>监督和评估政策实施</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策学习</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【政策制定者】【参考，借鉴】不同国家，地址或【其他部门相关的政策方案】，【学习其中的知识】，技术或政策观念，并从其中【汲取灵感或启发】的【过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是一种集体学习</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是政策变迁，政策创新的重要来源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>影响政策学习的因素（成功失败的因素）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政府面临问题的性质（别人碰到的问题和我碰到的问题是不是一样）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>组织内部的文化和价值。（因文化价值的问题阻碍学习）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>组织环境</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策学习的类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具学习，学习是技术，政策制定，政策过程，政策工具</t>
   </si>
   <si>
     <t>概念（问题）学习（比如花钱学习就像投资）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具学习，学习是技术，政策制定，政策过程，政策工具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>社会学习，学习政策价值及其规范，目标，责任等深层次的特性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>借用采纳其他国家的公共政策，行政体制，制度其思想来解决本国所面临的的政策问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全球化和信息化是政策移植现象增加的重要原因</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策可以发生在政策过程的各个阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移植对象主要是政策目标，政策内容，政策工具（移植什么）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策移植类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策借鉴程度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>复制（完全移植）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>效仿（借鉴政策理念）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>混合（混合不同的政策）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>启发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策意愿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自愿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>被迫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策移植失败</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>信息不全的政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不完全的政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不当的政策移植</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的抉择主体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>国家元首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行政首长</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>民意代表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法官</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>执政党首脑和军事首脑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公共决策的抉择原则（不允许犯的低级错误）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>尊重科学分析的价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>考虑各方利益的平衡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发挥决策者能动作用（决策者不能优柔寡断）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>遵照有关程序的规定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策论证六大要素</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策主张</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>立论理由</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>立论依据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>驳斥理由</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可信度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策论证的特殊形式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策探究</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>围绕特定政策议题或对政策方案某些论证进行辩护的过程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策论证是“自言自语”，政策对话是“双向沟通”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>两类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>共识性政策对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>冲突性政策对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策抉择过程有3个环节</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策论证</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策审议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策采纳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议含义</t>
+  </si>
+  <si>
+    <t>决策者对各个方案进行最后的比较，从中选择最满意的一个方案，或以某一方案为主，综合吸收其他方案的优点，从而形成一个新方案；</t>
   </si>
   <si>
     <t>然后对该方案进行可行性评估，进而形成可供采纳和批准的政策文本</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策者对各个方案进行最后的比较，从中选择最满意的一个方案，或以某一方案为主，综合吸收其他方案的优点，从而形成一个新方案；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策审议方法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策审议含义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评估和择优，两者的基础是比较</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>两种</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>预测性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可行性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议方法预测性评估</t>
+  </si>
+  <si>
+    <t>从【标准】看</t>
   </si>
   <si>
     <t>政策目标，具体目标，评估标准，测量指标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>从【步骤】看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方案调查，详细研究，进一步分析，试验式证实</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>从【方法】看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>外推预测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>给予目前的状况和观察到的历史趋势，向未来进行外推。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基本假设：过去的趋势会向未来延续，而不问其原因。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主要方法：均值预测，现行回归法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>理论预测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基本方法：用一系列【技术和假设】【建立】简化的理论【表达式】（模型），然后用该模型【进行预测】（参考黄石公园火灾）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>判断预测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>依据：专家的判断，直觉，灵感，洞察力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>从【标准】看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策审议方法预测性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策审议可行性评估</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技术可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方案在技术上能否达到预期目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>经济可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>贴现，成本——收益分析法，成本——效果分析法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政治可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公平性，分析来自于”人“的有利或不利因素</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行政可行性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行政环境，执行人员对政策的态度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>决策抉择主体【依据有关法律】，【按照法定程序】【对政策方案】加以【审查，批准，签署，发布的过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策采纳内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>内容合法（不能与宪法和法律相抵触）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>程序合法（合乎法定程序）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行政系统的决策程序</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法制部门审查</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>领导会议讨论决定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行政首长签署发布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>立法系统的决策程序</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>提出议案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>审议议案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通过议案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公布政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>危机决策的含义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>特殊类型的决策，具有【不可逆转性】，要求在【很短时间】里以及【有限资源约束下】做出重大，【快速反应】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>危机决策的要素</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>决策问题的发生，发展具有突然性，急剧性，需要当机立断</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可供利用的时间，信息等资源非常有限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>事态发展危机根本利益，决策后果很难预料</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策与常规决策的联系</t>
   </si>
   <si>
     <t>危机决策的【根源】在于【常规决策】的【具体运作效果】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>危机决策可以【完善常规决策】，常规决策中的制度建构也必须从危机事件及危机决策过程中西区有益的经验和教训</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>危机决策与常规决策的联系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>依据【相似性原则】构造出来的一种【理念系统】【以代表】【作为研究对象的正式系统】即【实际存在的事物】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过模型来【认识】【原型】的【本质】，进而【对原型的运作与发展趋势】做出【有效预测】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【经验观察和资料收集】的【指南】（避免“眉毛胡子一把抓”）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【科学抽象】的【重要工具】（帮助研究者阻止思想，激发想象力与洞察力）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有【保守型】，模型【排除了政策创新】的可能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用于【解释】【开放，自由】的【多元主义社会中】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【决策过程】（政治过程）是【各集团争取影响政策】的【行为过程】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2667,36 +2485,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2704,20 +2831,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2732,24 +3095,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3036,125 +3443,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -3165,27 +3572,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
@@ -3196,137 +3603,137 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2">
       <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2">
       <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2">
       <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2">
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2">
       <c r="B55" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2">
       <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2">
       <c r="B59" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:2">
       <c r="B60" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2">
       <c r="B61" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:2">
       <c r="B63" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:3">
       <c r="B66" s="6" t="s">
         <v>54</v>
       </c>
@@ -3334,117 +3741,117 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:2">
       <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2">
       <c r="B70" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:2">
       <c r="B71" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:2">
       <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:2">
       <c r="B75" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:2">
       <c r="B76" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:2">
       <c r="B77" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:2">
       <c r="B80" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2">
       <c r="B81" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2">
       <c r="B82" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2">
       <c r="B85" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2">
       <c r="B86" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:2">
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1">
       <c r="A89" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:2">
       <c r="B90" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:2">
       <c r="B91" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:2">
       <c r="B92" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
         <v>78</v>
       </c>
@@ -3452,17 +3859,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:3">
       <c r="C96" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:2">
       <c r="B97" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
         <v>82</v>
       </c>
@@ -3470,318 +3877,319 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:3">
       <c r="C99" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:2">
       <c r="B100" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:2">
       <c r="B103" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:3">
       <c r="C104" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:3">
       <c r="C105" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:2">
       <c r="B106" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:2">
       <c r="B109" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:3">
       <c r="C110" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:3">
       <c r="C111" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:3">
       <c r="C112" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:2">
       <c r="B113" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:3">
       <c r="C114" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:3">
       <c r="C115" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:2">
       <c r="B116" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:2">
       <c r="B117" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:2">
       <c r="B120" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:2">
       <c r="B121" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:2">
       <c r="B122" s="6" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A208" workbookViewId="0">
       <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:3">
       <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:3">
       <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:3">
       <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2">
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:3">
       <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:3">
       <c r="B45" s="4" t="s">
         <v>141</v>
       </c>
@@ -3789,702 +4197,702 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2">
       <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2">
       <c r="B57" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2">
       <c r="B58" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2">
       <c r="B59" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:2">
       <c r="B63" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2">
       <c r="B66" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:2">
       <c r="B67" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:2">
       <c r="B68" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:2">
       <c r="B71" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:2">
       <c r="B72" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:2">
       <c r="B75" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:2">
       <c r="B76" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:2">
       <c r="B79" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:2">
       <c r="B80" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2">
       <c r="B81" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2">
       <c r="B82" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2">
       <c r="B85" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2">
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:2">
       <c r="B89" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:2">
       <c r="B90" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:2">
       <c r="B94" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:2">
       <c r="B95" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:2">
       <c r="B96" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:2">
       <c r="B99" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:2">
       <c r="B100" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:2">
       <c r="B101" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:2">
       <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:2">
       <c r="B105" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:2">
       <c r="B106" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:2">
       <c r="B107" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:2">
       <c r="B108" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1">
       <c r="A110" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:2">
       <c r="B111" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:2">
       <c r="B114" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:2">
       <c r="B115" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:2">
       <c r="B116" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1">
       <c r="A118" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:2">
       <c r="B119" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:2">
       <c r="B120" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:2">
       <c r="B121" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1">
       <c r="A123" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:2">
       <c r="B124" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:2">
       <c r="B125" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:2">
       <c r="B126" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:2">
       <c r="B127" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:2">
       <c r="B130" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:2">
       <c r="B131" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:3">
       <c r="C132" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:3">
       <c r="C133" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:2">
       <c r="B134" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:2">
       <c r="B135" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:2">
       <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:2">
       <c r="B139" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:2">
       <c r="B140" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:2">
       <c r="B143" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:2">
       <c r="B144" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:2">
       <c r="B145" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:2">
       <c r="B148" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:2">
       <c r="B149" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:2">
       <c r="B150" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:2">
       <c r="B151" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:2">
       <c r="B152" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1">
       <c r="A154" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1">
       <c r="A155" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:2">
       <c r="B156" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:2">
       <c r="B157" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:2">
       <c r="B160" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:2">
       <c r="B161" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:2">
       <c r="B164" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:2">
       <c r="B165" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:2">
       <c r="B168" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:2">
       <c r="B169" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:2">
       <c r="B172" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:2">
       <c r="B173" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:2">
       <c r="B176" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1">
       <c r="A178" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:2">
       <c r="B179" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1">
       <c r="A181" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:2">
       <c r="B182" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:2">
       <c r="B183" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1">
       <c r="A185" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:2">
       <c r="B186" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:2">
       <c r="B187" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:2">
       <c r="B188" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:2">
       <c r="B189" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1">
       <c r="A191" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:2">
       <c r="B192" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:2">
       <c r="B193" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1">
       <c r="A195" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:2">
       <c r="B196" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:2">
       <c r="B197" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:2">
       <c r="B200" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:2">
       <c r="B201" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:3">
       <c r="C202" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:2">
       <c r="B203" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:3">
       <c r="C204" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:2">
       <c r="B205" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:3">
       <c r="C206" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:2">
       <c r="B207" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:2">
       <c r="B208" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1">
       <c r="A210" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:2">
       <c r="B211" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:2">
       <c r="B212" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:2">
       <c r="B213" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:2">
       <c r="B214" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1">
       <c r="A216" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:2">
       <c r="B217" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:2">
       <c r="B218" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:4">
       <c r="B221" s="4" t="s">
         <v>278</v>
       </c>
@@ -4495,7 +4903,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:5">
       <c r="B222" s="4" t="s">
         <v>281</v>
       </c>
@@ -4509,7 +4917,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:6">
       <c r="B223" s="4" t="s">
         <v>285</v>
       </c>
@@ -4527,147 +4935,148 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3">
       <c r="C17" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3">
       <c r="C18" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3">
       <c r="C19" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3">
       <c r="C20" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:3">
       <c r="C23" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:3">
       <c r="C24" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:3">
       <c r="C25" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:4">
       <c r="C30" s="4" t="s">
         <v>311</v>
       </c>
@@ -4675,32 +5084,32 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:4">
       <c r="D31" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:4">
       <c r="D32" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:4">
       <c r="D33" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:4">
       <c r="D34" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:4">
       <c r="C37" s="4" t="s">
         <v>311</v>
       </c>
@@ -4708,22 +5117,22 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:4">
       <c r="D38" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:4">
       <c r="D39" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:4">
       <c r="C42" s="4" t="s">
         <v>311</v>
       </c>
@@ -4731,222 +5140,222 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:4">
       <c r="D43" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:4">
       <c r="D44" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:4">
       <c r="D45" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:4">
       <c r="D46" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2">
       <c r="B55" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2">
       <c r="B59" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:2">
       <c r="B60" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2">
       <c r="B61" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:2">
       <c r="B65" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2">
       <c r="B66" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:2">
       <c r="B67" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:2">
       <c r="B68" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:2">
       <c r="B69" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:2">
       <c r="B72" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:2">
       <c r="B75" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:2">
       <c r="B76" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:2">
       <c r="B77" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:2">
       <c r="B78" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:2">
       <c r="B79" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:2">
       <c r="B80" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:2">
       <c r="B83" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:2">
       <c r="B84" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:2">
       <c r="B87" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:2">
       <c r="B88" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:2">
       <c r="B91" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:2">
       <c r="B92" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:2">
       <c r="B95" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:3">
       <c r="B96" s="4" t="s">
         <v>366</v>
       </c>
@@ -4954,162 +5363,162 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:3">
       <c r="C97" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:2">
       <c r="B100" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:2">
       <c r="B103" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:2">
       <c r="B104" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:2">
       <c r="B105" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:2">
       <c r="B108" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:2">
       <c r="B109" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:2">
       <c r="B110" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:2">
       <c r="B111" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:2">
       <c r="B114" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:2">
       <c r="B115" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:2">
       <c r="B116" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:2">
       <c r="B117" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:2">
       <c r="B120" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:2">
       <c r="B121" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:2">
       <c r="B122" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:2">
       <c r="B123" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:2">
       <c r="B126" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:2">
       <c r="B127" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:2">
       <c r="B128" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:2">
       <c r="B129" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:2">
       <c r="B130" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:2">
       <c r="B131" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:2">
       <c r="B132" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5">
       <c r="B135" s="4" t="s">
         <v>399</v>
       </c>
@@ -5123,2027 +5532,2035 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:2">
       <c r="B138" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:2">
       <c r="B139" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:2">
       <c r="B140" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:2">
       <c r="B141" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:2">
       <c r="B144" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:2">
       <c r="B145" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:2">
       <c r="B146" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:2">
       <c r="B149" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:2">
       <c r="B150" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:2">
       <c r="B151" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:2">
       <c r="B154" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:2">
       <c r="B155" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:2">
       <c r="B158" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:2">
       <c r="B159" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:2">
       <c r="B160" s="4" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
       <c r="C15" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C25" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="4" t="s">
+      <c r="C29" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
       <c r="B40" s="4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
       <c r="C46" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C47" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B50" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C53" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B54" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B55" s="4" t="s">
-        <v>451</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
       <c r="C56" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59" s="4" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
       <c r="C60" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
       <c r="C61" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
       <c r="C62" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
       <c r="C63" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
       <c r="C70" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
       <c r="C71" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
       <c r="C75" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
       <c r="C76" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
       <c r="C79" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
       <c r="C83" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
       <c r="C84" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
       <c r="C86" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
       <c r="C87" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
       <c r="C88" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
       <c r="C89" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
       <c r="C91" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
       <c r="C92" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
       <c r="C93" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
       <c r="B94" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
       <c r="C95" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
       <c r="C96" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
       <c r="C97" s="4" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="2" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C60" s="2" t="s">
+    <row r="54" spans="2:5">
+      <c r="B54" s="4" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C61" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D62" s="2" t="s">
+      <c r="E54" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D63" s="2" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="2" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B68" s="2" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="2" t="s">
+    <row r="61" spans="3:3">
+      <c r="C61" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="D69" s="2" t="s">
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="4" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="2" t="s">
+      <c r="D62" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="D70" s="2" t="s">
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
+    <row r="64" spans="4:4">
+      <c r="D64" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="2" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="2" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" s="4" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="2" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
+    <row r="71" spans="3:4">
+      <c r="C71" s="4" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="2" t="s">
+      <c r="D71" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B83" s="2" t="s">
+    <row r="74" spans="3:3">
+      <c r="C74" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
+    <row r="75" spans="3:3">
+      <c r="C75" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
+    <row r="76" spans="3:3">
+      <c r="C76" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
+    <row r="78" spans="2:3">
+      <c r="B78" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B90" s="2" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B94" s="2" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C94" s="2" t="s">
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="2" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="2" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="4" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B98" s="2" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="2" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="4" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="2" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="2" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="2" t="s">
+    <row r="95" spans="2:3">
+      <c r="B95" s="4" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
+    <row r="96" spans="3:3">
+      <c r="C96" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B106" s="2" t="s">
+    <row r="97" spans="3:3">
+      <c r="C97" s="4" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="2" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="2" t="s">
+    <row r="100" spans="3:3">
+      <c r="C100" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
+    <row r="101" spans="3:3">
+      <c r="C101" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B111" s="2" t="s">
+    <row r="102" spans="3:3">
+      <c r="C102" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C111" s="2" t="s">
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="4" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B112" s="2" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C112" s="2" t="s">
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B113" s="2" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C113" s="2" t="s">
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="4" t="s">
         <v>605</v>
       </c>
     </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F5A48-A18C-48CF-A9E3-974DB1A960ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="7" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C17" s="7" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C18" s="7" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="7" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="7" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C23" s="7" t="s">
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="7" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="7" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="7" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="7" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="7" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C40" s="7" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="C42" s="7" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C43" s="7" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C45" s="7" t="s">
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B48" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C50" s="7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B54" s="7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C55" s="7" t="s">
+      <c r="C45" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C56" s="7" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C57" s="7" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B60" s="7" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B61" s="7" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B62" s="7" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B65" s="7" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C66" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B67" s="7" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C68" s="7" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C69" s="7" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B72" s="7" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B73" s="7" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B74" s="7" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="7" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B76" s="7" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B79" s="7" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="7" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="7" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B83" s="7" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="7" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="7" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="7" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="7" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="7" t="s">
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="7" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B91" s="7" t="s">
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B92" s="7" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B93" s="7" t="s">
+    <row r="86" spans="3:3">
+      <c r="C86" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B96" s="7" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B97" s="7" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B98" s="7" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="B91" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B101" s="7" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B102" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B103" s="7" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="8" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B105" s="7" t="s">
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B106" s="7" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B107" s="7" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B108" s="7" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="8" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B111" s="7" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D111" s="7" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D112" s="7" t="s">
+      <c r="B105" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D113" s="7" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D114" s="7" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B116" s="7" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C116" s="7" t="s">
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="7" t="s">
+    <row r="111" spans="2:4">
+      <c r="B111" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="8" t="s">
+      <c r="D111" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B120" s="7" t="s">
+    <row r="112" spans="4:4">
+      <c r="D112" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B121" s="7" t="s">
+    <row r="113" spans="4:4">
+      <c r="D113" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B122" s="7" t="s">
+    <row r="114" spans="4:4">
+      <c r="D114" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="8" t="s">
+    <row r="116" spans="2:3">
+      <c r="B116" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B125" s="7" t="s">
+      <c r="C116" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B126" s="7" t="s">
+    <row r="117" spans="3:3">
+      <c r="C117" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B127" s="7" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B128" s="7" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B129" s="7" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="8" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="7" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B133" s="7" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B134" s="7" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B135" s="7" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" s="8" t="s">
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B138" s="7" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B139" s="7" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B140" s="7" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B141" s="7" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B142" s="7" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B143" s="7" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="8" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="7" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C146" s="7" t="s">
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B148" s="7" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C148" s="7" t="s">
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="7" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D150" s="7" t="s">
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D151" s="7" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="8" t="s">
+    <row r="146" spans="2:3">
+      <c r="B146" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B154" s="7" t="s">
+      <c r="C146" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B155" s="7" t="s">
+    <row r="148" spans="2:3">
+      <c r="B148" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B156" s="7" t="s">
+      <c r="C148" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="8" t="s">
+    <row r="150" spans="3:4">
+      <c r="C150" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="7" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="7" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B163" s="7" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B165" s="7" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C165" s="7" t="s">
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="7" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="8" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4">
+      <c r="C174" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B169" s="7" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C170" s="7" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B171" s="7" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C172" s="7" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B173" s="7" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C174" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D175" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D176" s="7" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C178" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C180" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="8" t="s">
+      <c r="D174" s="2" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B183" s="7" t="s">
+    <row r="175" spans="4:4">
+      <c r="D175" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C183" s="7" t="s">
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B184" s="7" t="s">
+    <row r="178" spans="3:4">
+      <c r="C178" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="D178" s="2" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B185" s="7" t="s">
+    <row r="180" spans="3:4">
+      <c r="C180" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="D180" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B186" s="7" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C186" s="7" t="s">
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="8" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B189" s="7" t="s">
+      <c r="C183" s="2" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="8" t="s">
+    <row r="184" spans="2:3">
+      <c r="B184" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B192" s="7" t="s">
+      <c r="C184" s="2" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B193" s="7" t="s">
+    <row r="185" spans="2:3">
+      <c r="B185" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B194" s="7" t="s">
+      <c r="C185" s="2" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C195" s="7" t="s">
+    <row r="186" spans="2:3">
+      <c r="B186" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C196" s="7" t="s">
+      <c r="C186" s="2" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C197" s="7" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="2" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B198" s="7" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C199" s="7" t="s">
+    <row r="192" spans="2:2">
+      <c r="B192" s="2" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C200" s="7" t="s">
+    <row r="193" spans="2:2">
+      <c r="B193" s="2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C201" s="7" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" s="2" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C202" s="7" t="s">
+    <row r="195" spans="3:3">
+      <c r="C195" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A204" s="8" t="s">
+    <row r="196" spans="3:3">
+      <c r="C196" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B205" s="7" t="s">
+    <row r="197" spans="3:3">
+      <c r="C197" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A207" s="8" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B208" s="7" t="s">
+    <row r="199" spans="3:3">
+      <c r="C199" s="2" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B209" s="7" t="s">
+    <row r="200" spans="3:3">
+      <c r="C200" s="2" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B210" s="7" t="s">
+    <row r="201" spans="3:3">
+      <c r="C201" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A212" s="8" t="s">
+    <row r="202" spans="3:3">
+      <c r="C202" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B213" s="7" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B214" s="7" t="s">
-        <v>793</v>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="636" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="636" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -2010,13 +2010,13 @@
     <t>【政策规划】与【政策设计】的关系</t>
   </si>
   <si>
-    <t>【政策规划】是政策过程【阶段论中的概念】；【政策设计】是政策过程【理论中的概念】</t>
-  </si>
-  <si>
-    <t>【政策规划】与【政策形成】密切相关；【政策设计】与【政策过程】各阶段都有密切关系</t>
-  </si>
-  <si>
-    <t>【政策规划】偏重【理性和技术】，【政策设计】强调【技术】，也强调【政治】</t>
+    <t>概念：【政策规划】是政策过程【阶段论中的概念】；【政策设计】是政策过程【理论中的概念】</t>
+  </si>
+  <si>
+    <t>密切相关：【政策规划】与【政策形成】密切相关；【政策设计】与【政策过程】各阶段都有密切关系</t>
+  </si>
+  <si>
+    <t>强调：【政策规划】偏重【理性和技术】，【政策设计】强调【技术】，也强调【政治】</t>
   </si>
   <si>
     <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
@@ -2040,19 +2040,19 @@
     <t>政策方案的设计原则</t>
   </si>
   <si>
-    <t>紧扣政策目标（方案目的就是实现目标）</t>
-  </si>
-  <si>
-    <t>规划多重方案</t>
-  </si>
-  <si>
-    <t>方案彼此独立</t>
-  </si>
-  <si>
-    <t>方案要有创新</t>
-  </si>
-  <si>
-    <t>方案切实可行</t>
+    <t>【紧扣】政策目标（方案目的就是实现目标）</t>
+  </si>
+  <si>
+    <t>规划【多重方案】</t>
+  </si>
+  <si>
+    <t>方案【彼此独立】</t>
+  </si>
+  <si>
+    <t>方案要有【创新】</t>
+  </si>
+  <si>
+    <t>方案切实【可行】</t>
   </si>
   <si>
     <t>政策规划的模式与参考框架</t>
@@ -2127,16 +2127,16 @@
     <t>政策移植</t>
   </si>
   <si>
-    <t>借用采纳其他国家的公共政策，行政体制，制度其思想来解决本国所面临的的政策问题</t>
-  </si>
-  <si>
-    <t>全球化和信息化是政策移植现象增加的重要原因</t>
-  </si>
-  <si>
-    <t>政策可以发生在政策过程的各个阶段</t>
-  </si>
-  <si>
-    <t>移植对象主要是政策目标，政策内容，政策工具（移植什么）</t>
+    <t>【借用采纳】【其他国家的公共政策】，行政体制，制度其思想来【解决本国所面临的的政策问题】</t>
+  </si>
+  <si>
+    <t>【全球化和信息化】是政策移植现象增加的【重要原因】</t>
+  </si>
+  <si>
+    <t>政策可以发生在【政策过程的各个阶段】</t>
+  </si>
+  <si>
+    <t>移植【对象】主要是【政策目标，政策内容，政策工具（移植什么）】</t>
   </si>
   <si>
     <t>政策移植类型</t>
@@ -2199,16 +2199,16 @@
     <t>公共决策的抉择原则（不允许犯的低级错误）</t>
   </si>
   <si>
-    <t>尊重科学分析的价值</t>
-  </si>
-  <si>
-    <t>考虑各方利益的平衡</t>
-  </si>
-  <si>
-    <t>发挥决策者能动作用（决策者不能优柔寡断）</t>
-  </si>
-  <si>
-    <t>遵照有关程序的规定</t>
+    <t>【尊重】科学分析的【价值】</t>
+  </si>
+  <si>
+    <t>【考虑】各方利益的【平衡】</t>
+  </si>
+  <si>
+    <t>【发挥】决策者能动【作用】（决策者不能优柔寡断）</t>
+  </si>
+  <si>
+    <t>【遵照】有关程序的【规定】</t>
   </si>
   <si>
     <t>政策论证六大要素</t>
@@ -2271,10 +2271,10 @@
     <t>政策审议含义</t>
   </si>
   <si>
-    <t>决策者对各个方案进行最后的比较，从中选择最满意的一个方案，或以某一方案为主，综合吸收其他方案的优点，从而形成一个新方案；</t>
-  </si>
-  <si>
-    <t>然后对该方案进行可行性评估，进而形成可供采纳和批准的政策文本</t>
+    <t>【决策者】对【各个方案】进行最后的【比较】，从中【选择最满意的一个方案】，或以某一方案为主，综合【吸收其他方案的优点】，从而【形成一个新方案】；</t>
+  </si>
+  <si>
+    <t>然后对该方案进行【可行性评估】，进而【形成】可供采纳和批准的【政策文本】</t>
   </si>
   <si>
     <t>政策审议方法</t>
@@ -2432,31 +2432,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2486,7 +2473,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2495,6 +2535,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2509,67 +2580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2583,14 +2594,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2599,31 +2602,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2638,7 +2625,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2650,175 +2799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2829,30 +2816,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2895,26 +2858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2929,6 +2872,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2937,10 +2924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2949,137 +2936,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3093,12 +3080,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3457,528 +3438,528 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4000,937 +3981,937 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="206" spans="3:3">
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="D221" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D222" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="E222" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D223" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E223" s="4" t="s">
+      <c r="E223" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F223" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4952,683 +4933,683 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="45" spans="4:4">
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="2" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="2" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="2" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="135" spans="2:5">
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="2" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="2" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="2" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5650,22 +5631,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5685,96 +5666,96 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>439</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -5782,10 +5763,10 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5795,89 +5776,89 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>466</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -5885,222 +5866,222 @@
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6115,513 +6096,513 @@
   <sheetPr/>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="1" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6636,8 +6617,8 @@
   <sheetPr/>
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -7,12 +7,12 @@
     <workbookView windowWidth="28125" windowHeight="12690" tabRatio="636" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
-    <sheet name="公共政策与政策工具" sheetId="2" r:id="rId2"/>
-    <sheet name="政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
-    <sheet name="政策过程及其理论模型" sheetId="4" r:id="rId4"/>
-    <sheet name="政策问题与议程设定" sheetId="5" r:id="rId5"/>
-    <sheet name="政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
+    <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
+    <sheet name="2.公共政策与政策工具" sheetId="2" r:id="rId2"/>
+    <sheet name="3.政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
+    <sheet name="4.政策过程及其理论模型" sheetId="4" r:id="rId4"/>
+    <sheet name="5.政策问题与议程设定" sheetId="5" r:id="rId5"/>
+    <sheet name="6.政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2432,10 +2432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2487,10 +2487,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2501,11 +2508,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2517,8 +2523,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2532,9 +2578,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2543,44 +2596,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2600,21 +2615,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2625,7 +2625,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,37 +2727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2679,43 +2745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2727,19 +2763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2751,19 +2787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2775,37 +2799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,6 +2828,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2844,16 +2877,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2883,39 +2916,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2924,10 +2924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2936,133 +2936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3975,8 +3975,8 @@
   <sheetPr/>
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -6618,7 +6618,7 @@
   <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+      <selection activeCell="N223" sqref="N223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="636" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="636" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="4.政策过程及其理论模型" sheetId="4" r:id="rId4"/>
     <sheet name="5.政策问题与议程设定" sheetId="5" r:id="rId5"/>
     <sheet name="6.政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
+    <sheet name="7.公共政策执行" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="920">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2425,6 +2426,360 @@
   </si>
   <si>
     <t>危机决策可以【完善常规决策】，常规决策中的制度建构也必须从危机事件及危机决策过程中西区有益的经验和教训</t>
+  </si>
+  <si>
+    <t>公共政策执行的含义</t>
+  </si>
+  <si>
+    <t>政策执行主体为【实现政策目标】，【通过各种措施和手段】作用于政策对象，【使政策内容变为现实】的【行动过程】</t>
+  </si>
+  <si>
+    <t>公共政策的特点</t>
+  </si>
+  <si>
+    <t>目标的导向性（通过手段实现目标）</t>
+  </si>
+  <si>
+    <t>内容的务实性</t>
+  </si>
+  <si>
+    <t>行为的能动性</t>
+  </si>
+  <si>
+    <t>手段的权威性</t>
+  </si>
+  <si>
+    <t>公共政策的作用</t>
+  </si>
+  <si>
+    <t>实现政策目标的重要途径</t>
+  </si>
+  <si>
+    <t>检验政策质量的唯一环节</t>
+  </si>
+  <si>
+    <t>制定后续政策的基本依据</t>
+  </si>
+  <si>
+    <t>“上下来去”模型含义</t>
+  </si>
+  <si>
+    <t>在【当代中国的政策实践中】【执行主体】坚持【实事求是】一切【从实际出发原则】【采进行政策试点】【取得经验】后再【全面推广】的政策试验方式</t>
+  </si>
+  <si>
+    <t>“上下来去”模型内涵</t>
+  </si>
+  <si>
+    <t>从群众中来，到群众中去的过程</t>
+  </si>
+  <si>
+    <t>实验，推广的过程</t>
+  </si>
+  <si>
+    <t>执行，总结的过程</t>
+  </si>
+  <si>
+    <t>给予西方经验的政策执行理论模型：</t>
+  </si>
+  <si>
+    <t>过程模型（史密斯模型）影响政策执行的因素</t>
+  </si>
+  <si>
+    <t>理想化的政策</t>
+  </si>
+  <si>
+    <t>执行机关</t>
+  </si>
+  <si>
+    <t>目标群体（政策对象）</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>循环模型政策执行要经历三个阶段</t>
+  </si>
+  <si>
+    <t>拟定纲领</t>
+  </si>
+  <si>
+    <t>分配资源</t>
+  </si>
+  <si>
+    <t>监督执行</t>
+  </si>
+  <si>
+    <t>循环模型政策执行要经历三个原则</t>
+  </si>
+  <si>
+    <t>合法</t>
+  </si>
+  <si>
+    <t>理性</t>
+  </si>
+  <si>
+    <t>共识</t>
+  </si>
+  <si>
+    <t>循环模型政策执行</t>
+  </si>
+  <si>
+    <t>“上令下行”与“下情上达”的循环回路</t>
+  </si>
+  <si>
+    <t>系统模型（霍恩，米特模型）影响政策执行的5个变量</t>
+  </si>
+  <si>
+    <t>政策目标（价值）</t>
+  </si>
+  <si>
+    <t>政策资源</t>
+  </si>
+  <si>
+    <t>执行者属性</t>
+  </si>
+  <si>
+    <t>执行方式</t>
+  </si>
+  <si>
+    <t>系统环境</t>
+  </si>
+  <si>
+    <t>政策执行机关的特性</t>
+  </si>
+  <si>
+    <t>执行性（最主要最核心属性）</t>
+  </si>
+  <si>
+    <t>服务性</t>
+  </si>
+  <si>
+    <t>法制性</t>
+  </si>
+  <si>
+    <t>权威性</t>
+  </si>
+  <si>
+    <t>公共政策执行力含义</t>
+  </si>
+  <si>
+    <t>公共政策有效执行的程度</t>
+  </si>
+  <si>
+    <t>公共政策执行力影响因素</t>
+  </si>
+  <si>
+    <t>执行者</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>创新政策执行力的机制</t>
+  </si>
+  <si>
+    <t>优化决策机制（科学化，民主化）</t>
+  </si>
+  <si>
+    <t>创新动力机制（公众参与，激励执行者）</t>
+  </si>
+  <si>
+    <t>构建功能共享机制（信息沟通，责任追究，执行监督）</t>
+  </si>
+  <si>
+    <t>完善利益均衡机制（利益表达，利益引导，利益约束）</t>
+  </si>
+  <si>
+    <t>影响公共政策执行的主要原因：</t>
+  </si>
+  <si>
+    <t>政策本身</t>
+  </si>
+  <si>
+    <t>合理性</t>
+  </si>
+  <si>
+    <t>具体性</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>执行主体执行组织</t>
+  </si>
+  <si>
+    <t>结构是否合理（纵向，横向）</t>
+  </si>
+  <si>
+    <t>权责是否明确</t>
+  </si>
+  <si>
+    <t>执行主体执行人员</t>
+  </si>
+  <si>
+    <t>利益</t>
+  </si>
+  <si>
+    <t>心理</t>
+  </si>
+  <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>政策对象特点</t>
+  </si>
+  <si>
+    <t>（政策）规定性</t>
+  </si>
+  <si>
+    <t>受动性（被动型）</t>
+  </si>
+  <si>
+    <t>差异性</t>
+  </si>
+  <si>
+    <t>政策对象影响政策执行</t>
+  </si>
+  <si>
+    <t>政策认知（公民参与）</t>
+  </si>
+  <si>
+    <t>对政策成本的接受程度</t>
+  </si>
+  <si>
+    <t>政策环境</t>
+  </si>
+  <si>
+    <t>自然环境</t>
+  </si>
+  <si>
+    <t>社会环境</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差及其矫正：</t>
+  </si>
+  <si>
+    <t>什么是公共政策执行偏差</t>
+  </si>
+  <si>
+    <t>执行者因【受主客观因素的制约】，使政策执行效果【偏离了政策目标】，并产生了【不良后果】的政策现象</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差表现形式</t>
+  </si>
+  <si>
+    <t>象征性执行（表面文章，做给上级看看）</t>
+  </si>
+  <si>
+    <t>附加式执行（土政策，政策中夹带了本部门的私货）</t>
+  </si>
+  <si>
+    <t>残缺式执行（有选择的执行）</t>
+  </si>
+  <si>
+    <t>替代是执行（挂羊头，卖狗肉）</t>
+  </si>
+  <si>
+    <t>观望式执行（先看人家做得怎么样）</t>
+  </si>
+  <si>
+    <t>照搬式执行（一字不差的照做，不动脑子）</t>
+  </si>
+  <si>
+    <t>规避式执行</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差的矫正</t>
+  </si>
+  <si>
+    <t>加强成本——收益分析</t>
+  </si>
+  <si>
+    <t>加强政策认知</t>
+  </si>
+  <si>
+    <t>加强执行者素质</t>
+  </si>
+  <si>
+    <t>加强控制与监督</t>
+  </si>
+  <si>
+    <t>加强制度创新</t>
+  </si>
+  <si>
+    <t>公共政策的无效执行与有效执行：</t>
+  </si>
+  <si>
+    <t>政策失灵的含义</t>
+  </si>
+  <si>
+    <t>是指政策执行结果未能产生政策主体期望的结果</t>
+  </si>
+  <si>
+    <t>未能解决政策问题</t>
+  </si>
+  <si>
+    <t>没有达到预期的政策目标</t>
+  </si>
+  <si>
+    <t>政策无效执行的含义</t>
+  </si>
+  <si>
+    <t>政策无效执行属于政策失灵的一种类型，即政策执行偏离了政策目标</t>
+  </si>
+  <si>
+    <t>为什么会出现无效执行</t>
+  </si>
+  <si>
+    <t>执行机制与执行者的缺陷</t>
+  </si>
+  <si>
+    <t>利益群体的影响</t>
+  </si>
+  <si>
+    <t>政策执行原则把握不好</t>
+  </si>
+  <si>
+    <t>政策执行环境的影响</t>
+  </si>
+  <si>
+    <t>目标群体不配合或抵触</t>
+  </si>
+  <si>
+    <t>公共政策有效执行的原则</t>
+  </si>
+  <si>
+    <t>忠实</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>法制</t>
+  </si>
+  <si>
+    <t>创新</t>
+  </si>
+  <si>
+    <t>公共政策有效执行的机制</t>
+  </si>
+  <si>
+    <t>信息沟通机制</t>
+  </si>
+  <si>
+    <t>公民参与机制</t>
+  </si>
+  <si>
+    <t>激励，责任与监督机制</t>
   </si>
 </sst>
 </file>
@@ -2432,10 +2787,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2473,13 +2828,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2487,17 +2835,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2508,18 +2849,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2548,6 +2882,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2557,6 +2906,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2578,16 +2956,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,21 +2966,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2625,7 +2980,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,37 +3088,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2679,25 +3142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2709,103 +3154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,15 +3183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2848,6 +3194,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2891,6 +3248,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2905,17 +3271,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2924,10 +3279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2936,138 +3291,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3438,528 +3799,528 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3981,937 +4342,937 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="206" spans="3:3">
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F223" s="2" t="s">
+      <c r="F223" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4933,683 +5294,683 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="45" spans="4:4">
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="4" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="4" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="4" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="4" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="4" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="4" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="4" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="4" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="135" spans="2:5">
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="4" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="4" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="4" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="4" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="4" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="4" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="4" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5631,457 +5992,457 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="4" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="4" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="4" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="4" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="4" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="4" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="4" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="4" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="4" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="4" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="4" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="4" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6102,507 +6463,507 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="4" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="4" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="4" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="4" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="4" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="4" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="4" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="4" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="4" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="4" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="4" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="4" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="4" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="4" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="4" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="4" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="4" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="4" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="4" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="4" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="4" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="4" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6617,931 +6978,1528 @@
   <sheetPr/>
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="N223" sqref="N223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4">
+      <c r="C174" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4">
+      <c r="C178" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4">
+      <c r="C180" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>614</v>
+      <c r="A1" s="3" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>615</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>616</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>617</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>618</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>621</v>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>622</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>623</v>
+        <v>811</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
-        <v>630</v>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
-        <v>634</v>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>643</v>
+        <v>830</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>644</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>653</v>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="2" t="s">
+        <v>849</v>
+      </c>
       <c r="C56" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>662</v>
+      <c r="E56" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>663</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>664</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>665</v>
+        <v>855</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>857</v>
+      </c>
       <c r="B65" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="2" t="s">
-        <v>671</v>
+        <v>858</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
       <c r="B72" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>675</v>
+        <v>865</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>676</v>
+        <v>869</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="2" t="s">
+        <v>877</v>
+      </c>
       <c r="C85" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>878</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>690</v>
+        <v>884</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>691</v>
+        <v>885</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>693</v>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>694</v>
+        <v>889</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>695</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>696</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>697</v>
+        <v>892</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>698</v>
+        <v>893</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>699</v>
+        <v>894</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>701</v>
-      </c>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>715</v>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>716</v>
+        <v>909</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
-        <v>719</v>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>720</v>
+        <v>913</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>721</v>
+        <v>914</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>725</v>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4">
-      <c r="C150" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="151" spans="4:4">
-      <c r="D151" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="166" spans="3:3">
-      <c r="C166" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="172" spans="3:3">
-      <c r="C172" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="174" spans="3:4">
-      <c r="C174" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4">
-      <c r="D175" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4">
-      <c r="D176" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="178" spans="3:4">
-      <c r="C178" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="180" spans="3:4">
-      <c r="C180" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3">
-      <c r="B183" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3">
-      <c r="B184" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3">
-      <c r="B185" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3">
-      <c r="B186" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3">
-      <c r="C195" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="196" spans="3:3">
-      <c r="C196" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3">
-      <c r="C197" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3">
-      <c r="C199" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3">
-      <c r="C200" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="201" spans="3:3">
-      <c r="C201" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3">
-      <c r="C202" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="2" t="s">
-        <v>801</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="636" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="662" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="5.政策问题与议程设定" sheetId="5" r:id="rId5"/>
     <sheet name="6.政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
     <sheet name="7.公共政策执行" sheetId="7" r:id="rId7"/>
+    <sheet name="8.公共政策的评估与监控" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1096">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2668,6 +2669,45 @@
     <t>公共政策执行偏差及其矫正：</t>
   </si>
   <si>
+    <t>政策失灵类型：</t>
+  </si>
+  <si>
+    <t>以失灵时间为准：</t>
+  </si>
+  <si>
+    <t>早起失灵</t>
+  </si>
+  <si>
+    <t>中期失灵</t>
+  </si>
+  <si>
+    <t>后期失灵</t>
+  </si>
+  <si>
+    <t>以失灵程度为准：</t>
+  </si>
+  <si>
+    <t>严重失灵</t>
+  </si>
+  <si>
+    <t>轻度失灵</t>
+  </si>
+  <si>
+    <t>完全失灵</t>
+  </si>
+  <si>
+    <t>以持续性为准：</t>
+  </si>
+  <si>
+    <t>突变失灵</t>
+  </si>
+  <si>
+    <t>渐变失灵</t>
+  </si>
+  <si>
+    <t>间歇失灵</t>
+  </si>
+  <si>
     <t>什么是公共政策执行偏差</t>
   </si>
   <si>
@@ -2780,6 +2820,495 @@
   </si>
   <si>
     <t>激励，责任与监督机制</t>
+  </si>
+  <si>
+    <t>公共政策评估的作用，主体与类型：</t>
+  </si>
+  <si>
+    <t>什么是公共政策评估含义</t>
+  </si>
+  <si>
+    <t>评估主体【依据】一定的【评价标准和程序】【通过考察政策过程的各阶段各环节】【对政策产出和政策影响进行检测】以【判断政策结果】【实现政策目标的程度】</t>
+  </si>
+  <si>
+    <t>公共政策评估的目的</t>
+  </si>
+  <si>
+    <t>积极目的</t>
+  </si>
+  <si>
+    <t>发现政策制定中的偏差</t>
+  </si>
+  <si>
+    <t>明确政策的可行程度</t>
+  </si>
+  <si>
+    <t>改善政策执行程序与技术</t>
+  </si>
+  <si>
+    <t>合理配置政策执行资源</t>
+  </si>
+  <si>
+    <t>消极目的</t>
+  </si>
+  <si>
+    <t>炫耀工作业绩</t>
+  </si>
+  <si>
+    <t>勒索资源</t>
+  </si>
+  <si>
+    <t>规避责任</t>
+  </si>
+  <si>
+    <t>批评政策来达到改变政策目的</t>
+  </si>
+  <si>
+    <t>公共政策评估的作用</t>
+  </si>
+  <si>
+    <t>获取政策运行有效可靠信息的重要手段</t>
+  </si>
+  <si>
+    <t>进行政策调整，提出政策建议的重要依据</t>
+  </si>
+  <si>
+    <t>检验政策结果的必要途径</t>
+  </si>
+  <si>
+    <t>重新配置政策工具和政策资源的基本前提</t>
+  </si>
+  <si>
+    <t>构建良好公共关系的有效策略</t>
+  </si>
+  <si>
+    <t>管理科学化和民主化的必要保证</t>
+  </si>
+  <si>
+    <t>公共政策评估的主体</t>
+  </si>
+  <si>
+    <t>政策制定者和执行者</t>
+  </si>
+  <si>
+    <t>专业机构和人员</t>
+  </si>
+  <si>
+    <t>政策制定者和执行者评估结构表现为</t>
+  </si>
+  <si>
+    <t>政策调差报告</t>
+  </si>
+  <si>
+    <t>政府工作报告</t>
+  </si>
+  <si>
+    <t>共鸣意见和投诉</t>
+  </si>
+  <si>
+    <t>政策听证会</t>
+  </si>
+  <si>
+    <t>公共政策额评估的类型</t>
+  </si>
+  <si>
+    <t>正式评估与非正式评估（评估组织的活动形式）</t>
+  </si>
+  <si>
+    <t>内部评估和外部评估（评估者的权力与地位）</t>
+  </si>
+  <si>
+    <t>预测评估，过程评估和结果评估（评估所处的阶段）</t>
+  </si>
+  <si>
+    <t>单一政策评估与复核政策评估（评估对象的数量来分类）</t>
+  </si>
+  <si>
+    <t>正式评估特点</t>
+  </si>
+  <si>
+    <t>有评估组织机构人员专门从事评估</t>
+  </si>
+  <si>
+    <t>评估方法比较规范</t>
+  </si>
+  <si>
+    <t>有一定的客观性</t>
+  </si>
+  <si>
+    <t>内部评估</t>
+  </si>
+  <si>
+    <t>政府内部的评估组织和人员进行个评估</t>
+  </si>
+  <si>
+    <t>分为两类</t>
+  </si>
+  <si>
+    <t>政策运行机构和人员自身所进行的评估</t>
+  </si>
+  <si>
+    <t>政府转至评估组织和人员所进行的评估</t>
+  </si>
+  <si>
+    <t>外部评估</t>
+  </si>
+  <si>
+    <t>政府部门外的评估主体所完成的评估</t>
+  </si>
+  <si>
+    <t>分两类</t>
+  </si>
+  <si>
+    <t>受委托进行的评估</t>
+  </si>
+  <si>
+    <t>不受委托进行的评估</t>
+  </si>
+  <si>
+    <t>不受委托进行的评估包括哪些</t>
+  </si>
+  <si>
+    <t>立法机关评估</t>
+  </si>
+  <si>
+    <t>司法机关评估</t>
+  </si>
+  <si>
+    <t>大众传媒评估</t>
+  </si>
+  <si>
+    <t>投资者（企业）评估</t>
+  </si>
+  <si>
+    <t>公民评估</t>
+  </si>
+  <si>
+    <t>研究机构评估</t>
+  </si>
+  <si>
+    <t>社会团体评估</t>
+  </si>
+  <si>
+    <t>预评估主要有五方面内容</t>
+  </si>
+  <si>
+    <t>政策可行性评估</t>
+  </si>
+  <si>
+    <t>政策优缺点评估</t>
+  </si>
+  <si>
+    <t>政策优先顺序评估</t>
+  </si>
+  <si>
+    <t>政策有效性评估</t>
+  </si>
+  <si>
+    <t>政策影响评估</t>
+  </si>
+  <si>
+    <t>公共政策评估的内容</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>效益</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
+    <t>影响</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>公共政策评估的过程，标准与影响因素：</t>
+  </si>
+  <si>
+    <t>公共政策评估的过程</t>
+  </si>
+  <si>
+    <t>评估筹划</t>
+  </si>
+  <si>
+    <t>评估实施</t>
+  </si>
+  <si>
+    <t>评估总结</t>
+  </si>
+  <si>
+    <t>评估筹划解决的问题</t>
+  </si>
+  <si>
+    <t>明确评估目的</t>
+  </si>
+  <si>
+    <t>选定评估对象</t>
+  </si>
+  <si>
+    <t>制定评估计划</t>
+  </si>
+  <si>
+    <t>明确评估条件</t>
+  </si>
+  <si>
+    <t>公共政策评估的标准</t>
+  </si>
+  <si>
+    <t>事实标准（能够用数量值，比率关系，统计结果等手段反应事物过去，现在和将来的存在状况）</t>
+  </si>
+  <si>
+    <t>技术标准（是指以技术手段，技术规范和技术工具为手段进行政策评估，使评估活动建立在科学，客观的可信基础上。）</t>
+  </si>
+  <si>
+    <t>价值标准</t>
+  </si>
+  <si>
+    <t>事实标准包含哪些</t>
+  </si>
+  <si>
+    <t>政策效率（投入与产出的比例关系（投入包括人力，物力，财力，时间，信息，政策产出政策结果）</t>
+  </si>
+  <si>
+    <t>政策效益（政策目标的实现程度）</t>
+  </si>
+  <si>
+    <t>政策影响（政策产出所引起的人们在行为和态度方面的实际变化）</t>
+  </si>
+  <si>
+    <t>回应性（政策结果满足人们的要求，价值与机会的有效程度）</t>
+  </si>
+  <si>
+    <t>政策效率衡量标准</t>
+  </si>
+  <si>
+    <t>投入或成本</t>
+  </si>
+  <si>
+    <t>行政开支（用于服务对象）与业务开支（管理机构和人员开支）</t>
+  </si>
+  <si>
+    <t>人均开支（单位成）</t>
+  </si>
+  <si>
+    <t>技术标准内容</t>
+  </si>
+  <si>
+    <t>多样化</t>
+  </si>
+  <si>
+    <t>技术化</t>
+  </si>
+  <si>
+    <t>数量化</t>
+  </si>
+  <si>
+    <t>价值标准包括那些</t>
+  </si>
+  <si>
+    <t>社会生产力发展</t>
+  </si>
+  <si>
+    <t>社会公正</t>
+  </si>
+  <si>
+    <t>社会可持续发展</t>
+  </si>
+  <si>
+    <t>影响公共政策评估的主要原因</t>
+  </si>
+  <si>
+    <t>政策信息，资料</t>
+  </si>
+  <si>
+    <t>政策制定者与执行者</t>
+  </si>
+  <si>
+    <t>政策目标</t>
+  </si>
+  <si>
+    <t>政策的沉淀成本</t>
+  </si>
+  <si>
+    <t>政策评估方式，方法，规范</t>
+  </si>
+  <si>
+    <t>公共政策评估的方法：</t>
+  </si>
+  <si>
+    <t>以定量分析为主的评估方法</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法</t>
+  </si>
+  <si>
+    <t>指标法（是指将公共统计数值用于评估公共政策的衡量工具）</t>
+  </si>
+  <si>
+    <t>回归分析法（找到事物变化的趋势）</t>
+  </si>
+  <si>
+    <t>实验法</t>
+  </si>
+  <si>
+    <t>政策指标体系三类价值取向</t>
+  </si>
+  <si>
+    <t>经济效益取向（成本效益比）</t>
+  </si>
+  <si>
+    <t>主观的福利取向（问卷调查，了解公民满意度如何）</t>
+  </si>
+  <si>
+    <t>公平取向</t>
+  </si>
+  <si>
+    <t>回归分析法</t>
+  </si>
+  <si>
+    <t>线性回归分析（一元线性回归，多远线性回归）</t>
+  </si>
+  <si>
+    <t>非线性回归分析</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法含义</t>
+  </si>
+  <si>
+    <t>也称“质化政策评估”，认为【评估者】与【被评估者】是【伙伴关系】强调【吸纳】【被评估者】的【意见和看法】并通过【政策调整各利益相关者】逐步【达成共识】</t>
+  </si>
+  <si>
+    <t>方法论基础：建构主义</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法程序</t>
+  </si>
+  <si>
+    <t>认定政策利益相关者（与政策关系有关的人都是利益相关者，包括受损者）</t>
+  </si>
+  <si>
+    <t>界定利益相关者的政策【认知】（认知是了解多少，尤其是利益诉求者）</t>
+  </si>
+  <si>
+    <t>营造评估的网络与方法</t>
+  </si>
+  <si>
+    <t>寻找利益诉求的平衡点</t>
+  </si>
+  <si>
+    <t>设定妥协议程</t>
+  </si>
+  <si>
+    <t>采集与妥协议程相关的信息</t>
+  </si>
+  <si>
+    <t>建立利益相关者论坛</t>
+  </si>
+  <si>
+    <t>形成政策诉求报告</t>
+  </si>
+  <si>
+    <t>对未达成工时的各种政策诉求，【重新构建】，【直至满足大多数人的政策诉求】</t>
+  </si>
+  <si>
+    <t>公共政策监控的含义</t>
+  </si>
+  <si>
+    <t>对政策运行过程各环节进行的检查，督促，知道和纠偏</t>
+  </si>
+  <si>
+    <t>政策监控内容</t>
+  </si>
+  <si>
+    <t>主体</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>公共政策监控的类型</t>
+  </si>
+  <si>
+    <t>实施时间</t>
+  </si>
+  <si>
+    <t>监控的频率</t>
+  </si>
+  <si>
+    <t>参与程度</t>
+  </si>
+  <si>
+    <t>预防性监控</t>
+  </si>
+  <si>
+    <t>过程性监控</t>
+  </si>
+  <si>
+    <t>结果监控</t>
+  </si>
+  <si>
+    <t>经常性监控</t>
+  </si>
+  <si>
+    <t>引发性监控</t>
+  </si>
+  <si>
+    <t>单方面监控</t>
+  </si>
+  <si>
+    <t>抗辩性监控</t>
+  </si>
+  <si>
+    <t>公共政策监控的功能（为什么要对政策进行监控）</t>
+  </si>
+  <si>
+    <t>使政策指定【过程】【合法化】，【决策】【科学化】，【民主化】</t>
+  </si>
+  <si>
+    <t>确保政策【执行】过程有效性</t>
+  </si>
+  <si>
+    <t>体现政策【评估】活动的价值取向</t>
+  </si>
+  <si>
+    <t>明确政策【调整】活动的方向</t>
+  </si>
+  <si>
+    <t>公共政策监控机制的构成：</t>
+  </si>
+  <si>
+    <t>内部监控机制（通过监控方向）</t>
+  </si>
+  <si>
+    <t>自上而下监控（行政体系）</t>
+  </si>
+  <si>
+    <t>自下而上监控（下级对上级的监督）</t>
+  </si>
+  <si>
+    <t>监控过程</t>
+  </si>
+  <si>
+    <t>对公共政策制定过程的监控</t>
+  </si>
+  <si>
+    <t>对公共政策执行过程的监控</t>
+  </si>
+  <si>
+    <t>对公共政策评估过程的监控</t>
+  </si>
+  <si>
+    <t>对公共政策调整的监控</t>
   </si>
 </sst>
 </file>
@@ -2828,6 +3357,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2835,10 +3371,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2851,9 +3403,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2882,30 +3442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2934,30 +3471,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2980,37 +3509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3022,13 +3527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3046,7 +3545,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3058,109 +3683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,50 +3700,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3251,8 +3736,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3279,10 +3808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3291,133 +3820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7910,13 +8439,663 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G185"/>
+  <sheetViews>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A167" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
@@ -7924,578 +9103,809 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>937</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>815</v>
+        <v>942</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>816</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>817</v>
+        <v>951</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>819</v>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>820</v>
+      <c r="A24" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>821</v>
+        <v>955</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>822</v>
+        <v>956</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>833</v>
+        <v>959</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
-        <v>837</v>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>838</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>839</v>
+        <v>969</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>973</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>976</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>851</v>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>852</v>
+        <v>986</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>853</v>
+        <v>987</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>857</v>
-      </c>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>861</v>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>867</v>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="A74" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
-        <v>872</v>
+        <v>1004</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="2" t="s">
-        <v>873</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>875</v>
-      </c>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" s="2" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>881</v>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>882</v>
+      <c r="A88" s="3" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>884</v>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="2" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="2" t="s">
-        <v>887</v>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="2" t="s">
-        <v>888</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>889</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>892</v>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>893</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2" t="s">
-        <v>896</v>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="2" t="s">
-        <v>900</v>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>901</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>903</v>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>904</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>905</v>
+      <c r="A116" s="3" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>906</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="2" t="s">
-        <v>909</v>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="3" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="2" t="s">
-        <v>913</v>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>914</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
-        <v>917</v>
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="2" t="s">
-        <v>918</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>919</v>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="2" t="s">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0A8BA-332E-4A03-A45E-16AA15AB6CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="662" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="662" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -15,13 +21,14 @@
     <sheet name="6.政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
     <sheet name="7.公共政策执行" sheetId="7" r:id="rId7"/>
     <sheet name="8.公共政策的评估与监控" sheetId="8" r:id="rId8"/>
+    <sheet name="9.公共政策的稳定，变动与终结" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1107">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -3309,19 +3316,57 @@
   </si>
   <si>
     <t>对公共政策调整的监控</t>
+  </si>
+  <si>
+    <t>公共政策的稳定和变动：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策稳定的内涵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>现行政策在【收到外部和内部的压力影响下】仍【保持其既定的目标】由原来的执行机构【按照既定的方式】【沿着既定的方向】【继续得以实施】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定是相对的，表现在两个方面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从时间上看，稳定是阶段与连续性的统一（社会主义初期“一百年不动摇，与，三步走）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从空间上看，政策稳定是局部性与全局性的统一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于国家与社会【稳定】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于贯彻【落实执行者的意志和决定】，进而【取得预期成效】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于【提高政策的可预见性】，提高【政策效果】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于【降低政府成本】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策稳定的积极意义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3356,345 +3401,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3702,255 +3430,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3972,62 +3458,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4314,125 +3759,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -4443,27 +3888,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
@@ -4474,137 +3919,137 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="6" t="s">
         <v>54</v>
       </c>
@@ -4612,117 +4057,117 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B70" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B71" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B77" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B80" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B86" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" s="6" t="s">
         <v>78</v>
       </c>
@@ -4730,17 +4175,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B97" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B98" s="6" t="s">
         <v>82</v>
       </c>
@@ -4748,319 +4193,318 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C99" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B100" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B103" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C105" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B106" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C110" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C111" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C112" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B113" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C114" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C115" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B116" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B117" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B120" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B121" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B122" s="6" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>141</v>
       </c>
@@ -5068,702 +4512,702 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B99" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B106" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B107" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B115" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B131" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C132" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C133" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B134" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B135" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B139" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B143" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B148" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B149" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B156" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B157" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B161" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B179" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B182" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B183" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B186" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B187" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B188" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B189" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B196" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B197" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B200" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B201" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C202" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B203" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="204" spans="3:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C204" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B205" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="3:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C206" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B207" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B208" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B211" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B212" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B213" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B214" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B217" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B218" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B221" s="4" t="s">
         <v>278</v>
       </c>
@@ -5774,7 +5218,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="222" spans="2:5">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B222" s="4" t="s">
         <v>281</v>
       </c>
@@ -5788,7 +5232,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B223" s="4" t="s">
         <v>285</v>
       </c>
@@ -5806,148 +5250,147 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C18" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C23" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>311</v>
       </c>
@@ -5955,32 +5398,32 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D31" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D32" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D33" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D34" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>311</v>
       </c>
@@ -5988,22 +5431,22 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D38" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D39" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>311</v>
       </c>
@@ -6011,222 +5454,222 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D43" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D44" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D45" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D46" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B88" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
         <v>366</v>
       </c>
@@ -6234,162 +5677,162 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B105" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B115" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B128" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B131" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B132" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B135" s="4" t="s">
         <v>399</v>
       </c>
@@ -6403,174 +5846,173 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B138" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B139" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B146" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B149" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B154" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B155" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B158" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B159" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>432</v>
       </c>
@@ -6578,32 +6020,32 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>439</v>
       </c>
@@ -6611,12 +6053,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>442</v>
       </c>
@@ -6624,27 +6066,27 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>439</v>
       </c>
@@ -6652,7 +6094,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>442</v>
       </c>
@@ -6660,17 +6102,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>439</v>
       </c>
@@ -6678,7 +6120,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>442</v>
       </c>
@@ -6686,17 +6128,17 @@
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>439</v>
       </c>
@@ -6704,7 +6146,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>457</v>
       </c>
@@ -6712,42 +6154,42 @@
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>466</v>
       </c>
@@ -6755,27 +6197,27 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>457</v>
       </c>
@@ -6783,17 +6225,17 @@
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>475</v>
       </c>
@@ -6801,27 +6243,27 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>439</v>
       </c>
@@ -6829,7 +6271,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
         <v>457</v>
       </c>
@@ -6837,47 +6279,47 @@
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C75" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C76" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
         <v>439</v>
       </c>
@@ -6885,118 +6327,117 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C88" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C89" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C91" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C92" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C93" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B94" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C95" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
         <v>509</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>510</v>
       </c>
@@ -7004,17 +6445,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>514</v>
       </c>
@@ -7022,132 +6463,132 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>541</v>
       </c>
@@ -7155,67 +6596,67 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>327</v>
       </c>
@@ -7223,12 +6664,12 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>556</v>
       </c>
@@ -7242,32 +6683,32 @@
         <v>559</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C62" s="4" t="s">
         <v>565</v>
       </c>
@@ -7275,32 +6716,32 @@
         <v>566</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D63" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D64" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
         <v>572</v>
       </c>
@@ -7308,7 +6749,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>574</v>
       </c>
@@ -7316,27 +6757,27 @@
         <v>575</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C74" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C75" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C76" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
         <v>580</v>
       </c>
@@ -7344,62 +6785,62 @@
         <v>581</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B88" s="4" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
         <v>593</v>
       </c>
@@ -7407,72 +6848,72 @@
         <v>594</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C96" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B99" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C100" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C101" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C102" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C103" s="4" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C104" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B107" s="4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B112" s="4" t="s">
         <v>608</v>
       </c>
@@ -7480,7 +6921,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B113" s="4" t="s">
         <v>610</v>
       </c>
@@ -7488,7 +6929,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>612</v>
       </c>
@@ -7497,92 +6938,91 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="N223" sqref="N223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>627</v>
       </c>
@@ -7590,22 +7030,22 @@
         <v>628</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="4" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>632</v>
       </c>
@@ -7613,67 +7053,67 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>646</v>
       </c>
@@ -7681,7 +7121,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
         <v>648</v>
       </c>
@@ -7689,12 +7129,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>651</v>
       </c>
@@ -7705,192 +7145,192 @@
         <v>652</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C50" s="4" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C66" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C68" s="4" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C69" s="4" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B73" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" s="4" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C88" s="4" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C89" s="4" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>689</v>
       </c>
@@ -7898,57 +7338,57 @@
         <v>690</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B101" s="4" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B102" s="4" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>701</v>
       </c>
@@ -7956,27 +7396,27 @@
         <v>702</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B106" s="4" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B107" s="4" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
         <v>707</v>
       </c>
@@ -7984,22 +7424,22 @@
         <v>708</v>
       </c>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D112" s="4" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D113" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D114" s="4" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>712</v>
       </c>
@@ -8007,127 +7447,127 @@
         <v>713</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C117" s="4" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B122" s="4" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B126" s="4" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B127" s="4" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B128" s="4" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" s="4" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B133" s="4" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B134" s="4" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B135" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B138" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B139" s="4" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B142" s="4" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B143" s="4" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B146" s="4" t="s">
         <v>738</v>
       </c>
@@ -8135,7 +7575,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B148" s="4" t="s">
         <v>740</v>
       </c>
@@ -8143,7 +7583,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C150" s="4" t="s">
         <v>742</v>
       </c>
@@ -8151,57 +7591,57 @@
         <v>743</v>
       </c>
     </row>
-    <row r="151" spans="4:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D151" s="4" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B154" s="4" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B155" s="4" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B156" s="4" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B159" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" s="4" t="s">
         <v>754</v>
       </c>
@@ -8209,42 +7649,42 @@
         <v>755</v>
       </c>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C166" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C170" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B171" s="4" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C172" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B173" s="4" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="174" spans="3:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C174" s="4" t="s">
         <v>763</v>
       </c>
@@ -8252,17 +7692,17 @@
         <v>764</v>
       </c>
     </row>
-    <row r="175" spans="4:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D175" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="176" spans="4:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D176" s="4" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="178" spans="3:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C178" s="4" t="s">
         <v>767</v>
       </c>
@@ -8270,7 +7710,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="180" spans="3:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C180" s="4" t="s">
         <v>769</v>
       </c>
@@ -8278,12 +7718,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="183" spans="2:3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B183" s="4" t="s">
         <v>772</v>
       </c>
@@ -8291,7 +7731,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B184" s="4" t="s">
         <v>774</v>
       </c>
@@ -8299,7 +7739,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B185" s="4" t="s">
         <v>776</v>
       </c>
@@ -8307,7 +7747,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B186" s="4" t="s">
         <v>778</v>
       </c>
@@ -8315,263 +7755,262 @@
         <v>779</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B189" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="195" spans="3:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C195" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="196" spans="3:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C196" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="197" spans="3:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C197" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B198" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="199" spans="3:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C199" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C200" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="201" spans="3:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C201" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C202" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B205" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B208" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B209" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B213" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B214" s="4" t="s">
         <v>801</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>826</v>
       </c>
@@ -8582,12 +8021,12 @@
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>830</v>
       </c>
@@ -8598,87 +8037,87 @@
         <v>832</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>849</v>
       </c>
@@ -8692,37 +8131,37 @@
         <v>824</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>857</v>
       </c>
@@ -8736,27 +8175,27 @@
         <v>860</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
         <v>865</v>
       </c>
@@ -8770,47 +8209,47 @@
         <v>867</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B77" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>875</v>
       </c>
@@ -8818,7 +8257,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>877</v>
       </c>
@@ -8832,22 +8271,22 @@
         <v>880</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
         <v>884</v>
       </c>
@@ -8858,12 +8297,12 @@
         <v>886</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>888</v>
       </c>
@@ -8874,12 +8313,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B94" s="4" t="s">
         <v>892</v>
       </c>
@@ -8890,238 +8329,237 @@
         <v>894</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" s="4" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B106" s="4" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" s="4" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" s="4" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B128" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" s="4" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B133" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B134" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B135" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B138" s="4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B139" s="4" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
         <v>932</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A167" sqref="A$1:A$1048576"/>
+      <selection activeCell="A167" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>937</v>
       </c>
@@ -9129,22 +8567,22 @@
         <v>938</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>942</v>
       </c>
@@ -9152,147 +8590,147 @@
         <v>943</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>971</v>
       </c>
@@ -9300,7 +8738,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>973</v>
       </c>
@@ -9308,12 +8746,12 @@
         <v>974</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="2" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>976</v>
       </c>
@@ -9321,7 +8759,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
         <v>978</v>
       </c>
@@ -9329,87 +8767,87 @@
         <v>979</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
         <v>996</v>
       </c>
@@ -9429,17 +8867,17 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
         <v>1004</v>
       </c>
@@ -9450,317 +8888,317 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" s="2" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" s="2" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" s="2" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B118" s="2" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" s="2" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" s="2" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" s="2" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" s="2" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B128" s="2" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B131" s="2" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B135" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B136" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B139" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B141" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B142" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B143" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B145" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B146" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B147" s="2" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B150" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B153" s="2" t="s">
         <v>1068</v>
       </c>
@@ -9774,27 +9212,27 @@
         <v>999</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B156" s="2" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B157" s="2" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
         <v>1072</v>
       </c>
@@ -9802,17 +9240,17 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B161" s="2" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" s="2" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
         <v>1073</v>
       </c>
@@ -9820,12 +9258,12 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>1074</v>
       </c>
@@ -9833,83 +9271,157 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B171" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" s="2" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" s="2" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B178" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B179" s="2" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B182" s="2" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B184" s="2" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B185" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E34BD6-B675-4F30-9CC1-10A4280C75C2}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ggzc/公共政策学.xlsx
+++ b/ggzc/公共政策学.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0A8BA-332E-4A03-A45E-16AA15AB6CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="662" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="844" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1265">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -3319,60 +3313,542 @@
   </si>
   <si>
     <t>公共政策的稳定和变动：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>政策稳定的内涵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>现行政策在【收到外部和内部的压力影响下】仍【保持其既定的目标】由原来的执行机构【按照既定的方式】【沿着既定的方向】【继续得以实施】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>稳定是相对的，表现在两个方面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>从时间上看，稳定是阶段与连续性的统一（社会主义初期“一百年不动摇，与，三步走）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>从空间上看，政策稳定是局部性与全局性的统一</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策稳定的积极意义</t>
   </si>
   <si>
     <t>有利于国家与社会【稳定】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>有利于贯彻【落实执行者的意志和决定】，进而【取得预期成效】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>有利于【提高政策的可预见性】，提高【政策效果】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>有利于【降低政府成本】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策稳定的积极意义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策稳定的消极意义</t>
+  </si>
+  <si>
+    <t>【政策过于稳定】，可能使【政策趋于保守】，甚至僵化</t>
+  </si>
+  <si>
+    <t>政策稳定的动力因素</t>
+  </si>
+  <si>
+    <t>【决策主体】和【决策网络】（执行者)的相对【稳定】（决策主体，政策人员不变，结果就会稳定）</t>
+  </si>
+  <si>
+    <t>政策问题的【解决】需要一个【过程】</t>
+  </si>
+  <si>
+    <t>政策【本身】的【稳定】（主体，目标都不变）</t>
+  </si>
+  <si>
+    <t>政策环境的稳定</t>
+  </si>
+  <si>
+    <t>政策本身的稳定因素</t>
+  </si>
+  <si>
+    <t>政策目标的长期性</t>
+  </si>
+  <si>
+    <t>政策的有效性</t>
+  </si>
+  <si>
+    <t>政策的合法性</t>
+  </si>
+  <si>
+    <t>修改的复杂性</t>
+  </si>
+  <si>
+    <t>接续政策的失效性</t>
+  </si>
+  <si>
+    <t>政策终结的失败</t>
+  </si>
+  <si>
+    <t>政策维持的对策和措施</t>
+  </si>
+  <si>
+    <t>政策主体的政策维持</t>
+  </si>
+  <si>
+    <t>政策客体的政策维持</t>
+  </si>
+  <si>
+    <t>政策环境创设</t>
+  </si>
+  <si>
+    <t>提高政策绩效</t>
+  </si>
+  <si>
+    <t>政策的法制化</t>
+  </si>
+  <si>
+    <t>如何政策主体的【政策维持】</t>
+  </si>
+  <si>
+    <t>保持政策主体的稳定</t>
+  </si>
+  <si>
+    <t>是政策主体认同政策目标（不改变政策）</t>
+  </si>
+  <si>
+    <t>保持政策主体间的【沟通和合作】</t>
+  </si>
+  <si>
+    <t>【建立】【完善】的政策【体质和机制】</t>
+  </si>
+  <si>
+    <t>如何政策客体的【政策维持】</t>
+  </si>
+  <si>
+    <t>明确具体的【界定政策问题】</t>
+  </si>
+  <si>
+    <t>扩大政策受益面</t>
+  </si>
+  <si>
+    <t>缩小政策受损面</t>
+  </si>
+  <si>
+    <t>争取政策观望者</t>
+  </si>
+  <si>
+    <t>公共政策变动的含义</t>
+  </si>
+  <si>
+    <t>政策系统【对内外环境变化】所做的一种【适应性变革】</t>
+  </si>
+  <si>
+    <t>公共政策变动的原因</t>
+  </si>
+  <si>
+    <t>决策者的变动（执政者，决策者发生变化了）</t>
+  </si>
+  <si>
+    <t>政策环境的变化</t>
+  </si>
+  <si>
+    <t>政策资源的限制</t>
+  </si>
+  <si>
+    <t>政策失效或低效</t>
+  </si>
+  <si>
+    <t>政策合法性收到质疑</t>
+  </si>
+  <si>
+    <t>公共政策变动类型：</t>
+  </si>
+  <si>
+    <t>强度不同</t>
+  </si>
+  <si>
+    <t>断裂型（政策终结）</t>
+  </si>
+  <si>
+    <t>渐变型（政策调整）</t>
+  </si>
+  <si>
+    <t>程度不同</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>重大</t>
+  </si>
+  <si>
+    <t>完全</t>
+  </si>
+  <si>
+    <t>内容不同</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>机构</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>替代</t>
+  </si>
+  <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>分解</t>
+  </si>
+  <si>
+    <t>废止</t>
+  </si>
+  <si>
+    <t>规律</t>
+  </si>
+  <si>
+    <t>周期性</t>
+  </si>
+  <si>
+    <t>不规则</t>
+  </si>
+  <si>
+    <t>动力</t>
+  </si>
+  <si>
+    <t>主动</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>公共政策变动模式（西方学者的看法）</t>
+  </si>
+  <si>
+    <t>周期型（像钟摆一样，自由主义与保守主义之间摆动，周期30年）</t>
+  </si>
+  <si>
+    <t>Z字形（次级和反应的交替）</t>
+  </si>
+  <si>
+    <t>学习型</t>
+  </si>
+  <si>
+    <t>公共政策创新含义</t>
+  </si>
+  <si>
+    <t>政策主体【根据环境变化的需求】，【主动改变】【现存政策要素】的【组合形态或功能】，【创造新的】【政策的行为】和过程（属于积极的政策变动）</t>
+  </si>
+  <si>
+    <t>公共政策创新两种形式</t>
+  </si>
+  <si>
+    <t>根本性创新（新旧政策之间无继承性）</t>
+  </si>
+  <si>
+    <t>渐进性创新（性政策是对旧政策的完善）</t>
+  </si>
+  <si>
+    <t>公共政策创新动力（为什么要创新）</t>
+  </si>
+  <si>
+    <t>内部动力（政策主体的变革愿望，政策本身的要求）</t>
+  </si>
+  <si>
+    <t>外部动力（经济制度和体质变革（直接动力），民众诉求（根本动力），地区竞争压力，参与世界竞争）</t>
+  </si>
+  <si>
+    <t>公共政策调整与接续：</t>
+  </si>
+  <si>
+    <t>公共政策调整的含义</t>
+  </si>
+  <si>
+    <t>根据【政策评估和监控】所【反馈的信息】对原有政策中【不适应政策对象】和【政策环境变化的部分】，进行【增删，修正和更新】</t>
+  </si>
+  <si>
+    <t>公共政策调整的特点</t>
+  </si>
+  <si>
+    <t>局部性</t>
+  </si>
+  <si>
+    <t>动态性</t>
+  </si>
+  <si>
+    <t>公共政策调整的内容</t>
+  </si>
+  <si>
+    <t>政策目标的调整</t>
+  </si>
+  <si>
+    <t>政策方案调整</t>
+  </si>
+  <si>
+    <t>政策措施的调整</t>
+  </si>
+  <si>
+    <t>政策关系调整</t>
+  </si>
+  <si>
+    <t>政策主客体的调整</t>
+  </si>
+  <si>
+    <t>公共政策的调整的形式</t>
+  </si>
+  <si>
+    <t>政策新删</t>
+  </si>
+  <si>
+    <t>政策修正</t>
+  </si>
+  <si>
+    <t>政策更新</t>
+  </si>
+  <si>
+    <t>公共政策的调整的程序</t>
+  </si>
+  <si>
+    <t>重新界定问题</t>
+  </si>
+  <si>
+    <t>提出调整方案</t>
+  </si>
+  <si>
+    <t>选择调整方案</t>
+  </si>
+  <si>
+    <t>执行调整方案</t>
+  </si>
+  <si>
+    <t>公共政策的调整的原则</t>
+  </si>
+  <si>
+    <t>渐进调适</t>
+  </si>
+  <si>
+    <t>追踪反馈</t>
+  </si>
+  <si>
+    <t>公共政策调整的原因（政策为什么要调整）</t>
+  </si>
+  <si>
+    <t>利益刚性的限制</t>
+  </si>
+  <si>
+    <t>现行政策的制约</t>
+  </si>
+  <si>
+    <t>公共意志的趋中</t>
+  </si>
+  <si>
+    <t>变革成本的约束</t>
+  </si>
+  <si>
+    <t>人类理性的局限</t>
+  </si>
+  <si>
+    <t>社会稳定的需要</t>
+  </si>
+  <si>
+    <t>公共政策调整的作用</t>
+  </si>
+  <si>
+    <t>及时纠偏，预防失误</t>
+  </si>
+  <si>
+    <t>协调关系，有序运行</t>
+  </si>
+  <si>
+    <t>发展完善，保持稳定</t>
+  </si>
+  <si>
+    <t>公共政策的接续内涵</t>
+  </si>
+  <si>
+    <t>【以政策问题为中心】努力【保持政策目标稳定】和【连续的行为】和过程，</t>
+  </si>
+  <si>
+    <t>其形式通常表现为【旧的政策，政策执行程序】或执行组织【被新的政策】，政策执行程序或执行组织所【替代】</t>
+  </si>
+  <si>
+    <t>公共政策的接续意义</t>
+  </si>
+  <si>
+    <t>有利于【保持】政策【稳定】</t>
+  </si>
+  <si>
+    <t>有利于【实现】政策【变动】</t>
+  </si>
+  <si>
+    <t>有利于【获得】政策【认同】</t>
+  </si>
+  <si>
+    <t>公共政策的接续形式（霍格伍德，彼得斯）</t>
+  </si>
+  <si>
+    <t>线性接续</t>
+  </si>
+  <si>
+    <t>政策合并</t>
+  </si>
+  <si>
+    <t>政策分解</t>
+  </si>
+  <si>
+    <t>政策不符终结</t>
+  </si>
+  <si>
+    <t>非现行接续</t>
+  </si>
+  <si>
+    <t>公共政策的接续途经</t>
+  </si>
+  <si>
+    <t>【明确】具体的【界定政策目标】</t>
+  </si>
+  <si>
+    <t>【推进】【目标管理】</t>
+  </si>
+  <si>
+    <t>【加强】政策过程【评估】</t>
+  </si>
+  <si>
+    <t>政策【目标制度化，法制化】</t>
+  </si>
+  <si>
+    <t>公共政策的终结：</t>
+  </si>
+  <si>
+    <t>公共政策的终结的含义</t>
+  </si>
+  <si>
+    <t>决策者通过【对政策】进行审慎的【评估后】【采取必要措施】【终止】那些【错误的，过时的，多余的，或无效的】【政策，政策功能，政策计划或政策组织】的一种【行为】</t>
+  </si>
+  <si>
+    <t>政策终结</t>
+  </si>
+  <si>
+    <t>完全政策终结</t>
+  </si>
+  <si>
+    <t>部分政策终结（政策接续）</t>
+  </si>
+  <si>
+    <t>公共政策的终结的对象</t>
+  </si>
+  <si>
+    <t>功能（终结的是“服务”，最难的政策终结）</t>
+  </si>
+  <si>
+    <t>组织（组织的缩减和撤销，组织没了）</t>
+  </si>
+  <si>
+    <t>计划/项目（政策终结中最常见，也最容易）</t>
+  </si>
+  <si>
+    <t>公共政策的终结的方式</t>
+  </si>
+  <si>
+    <t>政策废止（政策终结最直接，最彻底的方式）</t>
+  </si>
+  <si>
+    <t>政策替代（新政策取代旧政策，针对的问题未变）</t>
+  </si>
+  <si>
+    <t>政策合并（合并到另一个已有政策中，两项已有政策合并）</t>
+  </si>
+  <si>
+    <t>政策缩减（减少政策投入，以至终结政策）</t>
+  </si>
+  <si>
+    <t>公共政策终结的原因</t>
+  </si>
+  <si>
+    <t>【实现】了【政策目标】，解决了政策问题，【政策没有存续的必要】</t>
+  </si>
+  <si>
+    <t>政策【无法解决政策问题】【继续执行】【浪费资源】并产生【不良后果】</t>
+  </si>
+  <si>
+    <t>公共政策终结的作用</t>
+  </si>
+  <si>
+    <t>有利于【节省政策资源】</t>
+  </si>
+  <si>
+    <t>有利于【提高政策绩效】</t>
+  </si>
+  <si>
+    <t>有利于【促进政策优化】</t>
+  </si>
+  <si>
+    <t>公共政策终结的障碍</t>
+  </si>
+  <si>
+    <t>组织的持久性（表现为组织机构功能性，组织机构保守性，组织机构适应性）</t>
+  </si>
+  <si>
+    <t>代价（情感和政治上的代价，法律和财政上的代价）</t>
+  </si>
+  <si>
+    <t>公共政策终结的策略</t>
+  </si>
+  <si>
+    <t>因势利导</t>
+  </si>
+  <si>
+    <t>公开评估结果</t>
+  </si>
+  <si>
+    <t>废旧立新并举</t>
+  </si>
+  <si>
+    <t>试探试点</t>
+  </si>
+  <si>
+    <t>终结必要部分</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3401,28 +3877,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3430,20 +4223,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3458,21 +4487,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3759,125 +4835,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
         <v>19</v>
      